--- a/data_Ref/merged_to_sequence.xlsx
+++ b/data_Ref/merged_to_sequence.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="usual_taxa" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="core_check_taxa" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="core_check_usual_taxa" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data_Ref/merged_to_sequence.xlsx
+++ b/data_Ref/merged_to_sequence.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,35 +468,65 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Desulfobacterales_Desulfobacteraceae_Desulfobacterium</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Desulfobacterales_Desulfobulbaceae_Desulfobulbus</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Clostridiales_Peptococcaceae_Desulfotomaculum</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Desulfovibrionales_Desulfovibrionaceae_Desulfovibrio</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Gallionellales_Gallionellaceae_Gallionella</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Actinomycetales_Micrococcaceae_Micrococcus</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadales_Sphingomonadaceae_Novosphingobium</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Actinomycetales_Propionibacteriaceae_Propionibacterium</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Pseudomonadales_Pseudomonadaceae_Pseudomonas</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Alteromonadales_Shewanellaceae_Shewanella</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Bacillales_Staphylococcaceae_Staphylococcus</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Lactobacillales_Streptococcaceae_Streptococcus</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Hydrogenophilales_Hydrogenophilaceae_Thiobacillus</t>
         </is>
@@ -561,6 +591,36 @@
           <t>Bacteria</t>
         </is>
       </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
@@ -598,25 +658,55 @@
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
+          <t>Firmicutes</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Actinobacteria</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>Firmicutes</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
+      <c r="S3" s="1" t="inlineStr">
         <is>
           <t>Firmicutes</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
+      <c r="T3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
@@ -648,35 +738,65 @@
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
+          <t>Deltaproteobacteria</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>Deltaproteobacteria</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Clostridia</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>Deltaproteobacteria</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>Actinobacteria</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
         <is>
           <t>Alphaproteobacteria</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="O4" s="1" t="inlineStr">
         <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t>Gammaproteobacteria</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>Gammaproteobacteria</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
         <is>
           <t>Bacilli</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>Bacilli</t>
         </is>
       </c>
-      <c r="N4" s="1" t="inlineStr">
+      <c r="T4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
@@ -708,35 +828,65 @@
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
+          <t>Desulfobacterales</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>Desulfobacterales</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>Clostridiales</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>Desulfovibrionales</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
           <t>Gallionellales</t>
         </is>
       </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>Actinomycetales</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadales</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="O5" s="1" t="inlineStr">
         <is>
           <t>Actinomycetales</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>Pseudomonadales</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>Alteromonadales</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
         <is>
           <t>Bacillales</t>
         </is>
       </c>
-      <c r="M5" s="1" t="inlineStr">
+      <c r="S5" s="1" t="inlineStr">
         <is>
           <t>Lactobacillales</t>
         </is>
       </c>
-      <c r="N5" s="1" t="inlineStr">
+      <c r="T5" s="1" t="inlineStr">
         <is>
           <t>Hydrogenophilales</t>
         </is>
@@ -768,35 +918,65 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
+          <t>Desulfobacteraceae</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>Desulfobulbaceae</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>Peptococcaceae</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>Desulfovibrionaceae</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
           <t>Gallionellaceae</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>Micrococcaceae</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadaceae</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="O6" s="1" t="inlineStr">
         <is>
           <t>Propionibacteriaceae</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t>Pseudomonadaceae</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>Shewanellaceae</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
         <is>
           <t>Staphylococcaceae</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
+      <c r="S6" s="1" t="inlineStr">
         <is>
           <t>Streptococcaceae</t>
         </is>
       </c>
-      <c r="N6" s="1" t="inlineStr">
+      <c r="T6" s="1" t="inlineStr">
         <is>
           <t>Hydrogenophilaceae</t>
         </is>
@@ -828,35 +1008,65 @@
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
+          <t>Desulfobacterium</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>Desulfobulbus</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>Desulfotomaculum</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>Desulfovibrio</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
           <t>Gallionella</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>Micrococcus</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
         <is>
           <t>Novosphingobium</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="O7" s="1" t="inlineStr">
         <is>
           <t>Propionibacterium</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="P7" s="1" t="inlineStr">
         <is>
           <t>Pseudomonas</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>Shewanella</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
         <is>
           <t>Staphylococcus</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
+      <c r="S7" s="1" t="inlineStr">
         <is>
           <t>Streptococcus</t>
         </is>
       </c>
-      <c r="N7" s="1" t="inlineStr">
+      <c r="T7" s="1" t="inlineStr">
         <is>
           <t>Thiobacillus</t>
         </is>
@@ -888,35 +1098,65 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
           <t>332</t>
         </is>
       </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
         <is>
           <t>491</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="O8" s="1" t="inlineStr">
         <is>
           <t>572</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="P8" s="1" t="inlineStr">
         <is>
           <t>587</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
         <is>
           <t>683</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
+      <c r="S8" s="1" t="inlineStr">
         <is>
           <t>687</t>
         </is>
       </c>
-      <c r="N8" s="1" t="inlineStr">
+      <c r="T8" s="1" t="inlineStr">
         <is>
           <t>727</t>
         </is>
@@ -950,21 +1190,39 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0.1723395088323998</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5170185264971995</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.746230073244291</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6247307195174493</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.0861697544161999</v>
       </c>
-      <c r="J10" t="n">
+      <c r="O10" t="n">
         <v>4.782421370099095</v>
       </c>
-      <c r="K10" t="n">
+      <c r="P10" t="n">
         <v>5.277897457992245</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Q10" t="n">
+        <v>0.1077121930202499</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.7324429125376993</v>
       </c>
-      <c r="M10" t="n">
+      <c r="S10" t="n">
         <v>0.0861697544161999</v>
       </c>
-      <c r="N10" t="n">
+      <c r="T10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -996,21 +1254,39 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0.01897173211914248</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2276607854297097</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4932650350977045</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5.444887118193891</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.07588692847656991</v>
       </c>
-      <c r="J11" t="n">
+      <c r="O11" t="n">
         <v>21.305255169797</v>
       </c>
-      <c r="K11" t="n">
+      <c r="P11" t="n">
         <v>3.471826977803073</v>
       </c>
-      <c r="L11" t="n">
+      <c r="Q11" t="n">
+        <v>0.1328021248339973</v>
+      </c>
+      <c r="R11" t="n">
         <v>2.712957693037374</v>
       </c>
-      <c r="M11" t="n">
+      <c r="S11" t="n">
         <v>0.1138303927148549</v>
       </c>
-      <c r="N11" t="n">
+      <c r="T11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1042,21 +1318,39 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.964154186103609</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.748833783452001</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9820770930518046</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.220967345936656</v>
       </c>
-      <c r="J12" t="n">
+      <c r="O12" t="n">
         <v>19.62926589737294</v>
       </c>
-      <c r="K12" t="n">
+      <c r="P12" t="n">
         <v>2.062361895408789</v>
       </c>
-      <c r="L12" t="n">
+      <c r="Q12" t="n">
+        <v>0.1350356002946231</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.829118585808986</v>
       </c>
-      <c r="M12" t="n">
+      <c r="S12" t="n">
         <v>0.1718634912840658</v>
       </c>
-      <c r="N12" t="n">
+      <c r="T12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1088,21 +1382,39 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0.006611278841703947</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3173413844017894</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.666042268109395</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.45668510478877</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.03966767305022368</v>
       </c>
-      <c r="J13" t="n">
+      <c r="O13" t="n">
         <v>24.96859642550191</v>
       </c>
-      <c r="K13" t="n">
+      <c r="P13" t="n">
         <v>1.463296383630474</v>
       </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="n">
+        <v>1.328867047182493</v>
+      </c>
+      <c r="R13" t="n">
         <v>8.266302311743836</v>
       </c>
-      <c r="M13" t="n">
+      <c r="S13" t="n">
         <v>0.1035767018533618</v>
       </c>
-      <c r="N13" t="n">
+      <c r="T13" t="n">
         <v>0.002203759613901316</v>
       </c>
     </row>
@@ -1134,21 +1446,39 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0.01840603718019511</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3625989324498435</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7601693355420578</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.1792748021351</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.09387078961899503</v>
       </c>
-      <c r="J14" t="n">
+      <c r="O14" t="n">
         <v>19.97975335910179</v>
       </c>
-      <c r="K14" t="n">
+      <c r="P14" t="n">
         <v>2.40750966316952</v>
       </c>
-      <c r="L14" t="n">
+      <c r="Q14" t="n">
+        <v>0.1656543346217559</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.354132155346954</v>
       </c>
-      <c r="M14" t="n">
+      <c r="S14" t="n">
         <v>0.08466777102889747</v>
       </c>
-      <c r="N14" t="n">
+      <c r="T14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1183,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1195,6 +1525,24 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,21 +1574,39 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0.04607736146477507</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5311022189887232</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.681459924821147</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5771795804534983</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.05335273432763429</v>
       </c>
-      <c r="J16" t="n">
+      <c r="O16" t="n">
         <v>4.927852552443312</v>
       </c>
-      <c r="K16" t="n">
+      <c r="P16" t="n">
         <v>2.929550139444647</v>
       </c>
-      <c r="L16" t="n">
+      <c r="Q16" t="n">
+        <v>0.1164059658057476</v>
+      </c>
+      <c r="R16" t="n">
         <v>0.7736146477506972</v>
       </c>
-      <c r="M16" t="n">
+      <c r="S16" t="n">
         <v>0.04122711288953559</v>
       </c>
-      <c r="N16" t="n">
+      <c r="T16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,24 +1635,42 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>2.31</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1315,24 +1699,42 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.008931761343336906</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4376563058235085</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.223651304037156</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.002977253781112302</v>
       </c>
-      <c r="I18" t="n">
+      <c r="M18" t="n">
+        <v>0.5984280100035727</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.2232940335834226</v>
       </c>
-      <c r="J18" t="n">
+      <c r="O18" t="n">
         <v>5.442419911873288</v>
       </c>
-      <c r="K18" t="n">
+      <c r="P18" t="n">
         <v>2.81945933071335</v>
       </c>
-      <c r="L18" t="n">
+      <c r="Q18" t="n">
+        <v>0.1994760033345242</v>
+      </c>
+      <c r="R18" t="n">
         <v>0.7711087293080862</v>
       </c>
-      <c r="M18" t="n">
+      <c r="S18" t="n">
         <v>0.04465880671668453</v>
       </c>
-      <c r="N18" t="n">
+      <c r="T18" t="n">
         <v>0.005954507562224604</v>
       </c>
     </row>
@@ -1364,21 +1766,39 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>7.58</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1410,21 +1830,39 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.739575338961371</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.14888718342287</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0255819902788437</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.8697876694806856</v>
       </c>
-      <c r="J20" t="n">
+      <c r="O20" t="n">
         <v>20.64466615502686</v>
       </c>
-      <c r="K20" t="n">
+      <c r="P20" t="n">
         <v>1.893067280634433</v>
       </c>
-      <c r="L20" t="n">
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>0.0255819902788437</v>
       </c>
-      <c r="M20" t="n">
+      <c r="S20" t="n">
         <v>1.483755436172934</v>
       </c>
-      <c r="N20" t="n">
+      <c r="T20" t="n">
         <v>0.0255819902788437</v>
       </c>
     </row>
@@ -1453,24 +1891,42 @@
         <v>0.1394196013632139</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02840028916658061</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.009501187648456</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.339977279768667</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.0335639781059589</v>
       </c>
-      <c r="I21" t="n">
+      <c r="M21" t="n">
+        <v>0.005163688939378292</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.3098213363626975</v>
       </c>
-      <c r="J21" t="n">
+      <c r="O21" t="n">
         <v>0.7668078074976764</v>
       </c>
-      <c r="K21" t="n">
+      <c r="P21" t="n">
         <v>5.486419498089435</v>
       </c>
-      <c r="L21" t="n">
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>0.005163688939378292</v>
       </c>
-      <c r="M21" t="n">
+      <c r="S21" t="n">
         <v>0.7254982959826499</v>
       </c>
-      <c r="N21" t="n">
+      <c r="T21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1502,21 +1958,39 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.329892814608972</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.277888050813815</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.03969829297340214</v>
+      </c>
+      <c r="N22" t="n">
         <v>2.759031361651449</v>
       </c>
-      <c r="J22" t="n">
+      <c r="O22" t="n">
         <v>2.77888050813815</v>
       </c>
-      <c r="K22" t="n">
+      <c r="P22" t="n">
         <v>2.818578801111552</v>
       </c>
-      <c r="L22" t="n">
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>0.03969829297340214</v>
       </c>
-      <c r="M22" t="n">
+      <c r="S22" t="n">
         <v>0.8932115919015483</v>
       </c>
-      <c r="N22" t="n">
+      <c r="T22" t="n">
         <v>0.258038904327114</v>
       </c>
     </row>
@@ -1548,21 +2022,39 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.041491684864774</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.05039475894506971</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.352763312615488</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.5543423483957669</v>
       </c>
-      <c r="J23" t="n">
+      <c r="O23" t="n">
         <v>26.17167814547287</v>
       </c>
-      <c r="K23" t="n">
+      <c r="P23" t="n">
         <v>1.293465479590123</v>
       </c>
-      <c r="L23" t="n">
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>0.1175877708718293</v>
       </c>
-      <c r="M23" t="n">
+      <c r="S23" t="n">
         <v>16.44548966907442</v>
       </c>
-      <c r="N23" t="n">
+      <c r="T23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1594,21 +2086,39 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>18.36813239680554</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1154623304147022</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.02405465216972963</v>
+      </c>
+      <c r="N24" t="n">
         <v>1.332627730203021</v>
       </c>
-      <c r="J24" t="n">
+      <c r="O24" t="n">
         <v>32.90195323775618</v>
       </c>
-      <c r="K24" t="n">
+      <c r="P24" t="n">
         <v>5.162128355623977</v>
       </c>
-      <c r="L24" t="n">
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
         <v>0.1587607043202156</v>
       </c>
-      <c r="M24" t="n">
+      <c r="S24" t="n">
         <v>1.356682382372751</v>
       </c>
-      <c r="N24" t="n">
+      <c r="T24" t="n">
         <v>0.004810930433945925</v>
       </c>
     </row>
@@ -1640,21 +2150,39 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.258122831875703</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.09283236429374114</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.02442956955098451</v>
+      </c>
+      <c r="N25" t="n">
         <v>21.15600723115259</v>
       </c>
-      <c r="J25" t="n">
+      <c r="O25" t="n">
         <v>2.398983729906679</v>
       </c>
-      <c r="K25" t="n">
+      <c r="P25" t="n">
         <v>3.466555919284702</v>
       </c>
-      <c r="L25" t="n">
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>0.03420139737137832</v>
       </c>
-      <c r="M25" t="n">
+      <c r="S25" t="n">
         <v>0.8843504177456394</v>
       </c>
-      <c r="N25" t="n">
+      <c r="T25" t="n">
         <v>0.007328870865295353</v>
       </c>
     </row>
@@ -1686,21 +2214,39 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>22.23398623610376</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1588141874007411</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.8470089994706195</v>
       </c>
-      <c r="J26" t="n">
+      <c r="O26" t="n">
         <v>4.976177871889889</v>
       </c>
-      <c r="K26" t="n">
+      <c r="P26" t="n">
         <v>2.276336686077289</v>
       </c>
-      <c r="L26" t="n">
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
         <v>0.5823186871360508</v>
       </c>
-      <c r="M26" t="n">
+      <c r="S26" t="n">
         <v>8.893594494441503</v>
       </c>
-      <c r="N26" t="n">
+      <c r="T26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1732,21 +2278,39 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.572920598968164</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3397508493771235</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5536680508367937</v>
+      </c>
+      <c r="N27" t="n">
         <v>0.3649175789606141</v>
       </c>
-      <c r="J27" t="n">
+      <c r="O27" t="n">
         <v>4.165093746067698</v>
       </c>
-      <c r="K27" t="n">
+      <c r="P27" t="n">
         <v>13.76620108216937</v>
       </c>
-      <c r="L27" t="n">
+      <c r="Q27" t="n">
+        <v>0.1006669183339625</v>
+      </c>
+      <c r="R27" t="n">
         <v>0.4781678620863218</v>
       </c>
-      <c r="M27" t="n">
+      <c r="S27" t="n">
         <v>0.06291682395872657</v>
       </c>
-      <c r="N27" t="n">
+      <c r="T27" t="n">
         <v>0.01258336479174531</v>
       </c>
     </row>
@@ -1781,18 +2345,36 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>0.003380883038351289</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>0.002897899747158247</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,21 +2406,39 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>17.27824328228835</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
         <v>0.05778676683039585</v>
       </c>
-      <c r="L29" t="n">
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>0.08668015024559377</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,24 +2467,42 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.3021554281194384</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.07988926240854262</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.0007909827961241842</v>
       </c>
-      <c r="I30" t="n">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0.806802452046668</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>0.1265572473798695</v>
       </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>0.0007909827961241842</v>
       </c>
-      <c r="N30" t="n">
+      <c r="T30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,21 +2534,39 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.547443022485086</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.06628256768469892</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.01529597715800744</v>
+      </c>
+      <c r="N31" t="n">
         <v>1.455667159537042</v>
       </c>
-      <c r="J31" t="n">
+      <c r="O31" t="n">
         <v>2.730331922704329</v>
       </c>
-      <c r="K31" t="n">
+      <c r="P31" t="n">
         <v>45.07214602559527</v>
       </c>
-      <c r="L31" t="n">
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>0.05863457910569519</v>
       </c>
-      <c r="M31" t="n">
+      <c r="S31" t="n">
         <v>0.9661958904808036</v>
       </c>
-      <c r="N31" t="n">
+      <c r="T31" t="n">
         <v>0.01784530668434202</v>
       </c>
     </row>
@@ -1962,21 +2598,39 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>33.79747758256178</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.4592841000218706</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.009720298413161283</v>
+      </c>
+      <c r="N32" t="n">
         <v>1.824986027071031</v>
       </c>
-      <c r="J32" t="n">
+      <c r="O32" t="n">
         <v>12.43712181963986</v>
       </c>
-      <c r="K32" t="n">
+      <c r="P32" t="n">
         <v>2.687662511239095</v>
       </c>
-      <c r="L32" t="n">
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.127554615926709</v>
       </c>
-      <c r="M32" t="n">
+      <c r="S32" t="n">
         <v>7.822410147991543</v>
       </c>
-      <c r="N32" t="n">
+      <c r="T32" t="n">
         <v>0.0121503730164516</v>
       </c>
     </row>
@@ -2005,24 +2659,42 @@
         <v>0.124155740961462</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>13.05621771950735</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.395510528406834</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="I33" t="n">
+      <c r="M33" t="n">
+        <v>0.004966229638458482</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.1191895113230036</v>
       </c>
-      <c r="J33" t="n">
+      <c r="O33" t="n">
         <v>0.2234803337306317</v>
       </c>
-      <c r="K33" t="n">
+      <c r="P33" t="n">
         <v>0.2135478744537147</v>
       </c>
-      <c r="L33" t="n">
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
         <v>0.4866905045689313</v>
       </c>
-      <c r="M33" t="n">
+      <c r="S33" t="n">
         <v>0.3128724672228844</v>
       </c>
-      <c r="N33" t="n">
+      <c r="T33" t="n">
         <v>0.004966229638458482</v>
       </c>
     </row>
@@ -2054,21 +2726,39 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0.008624655013799448</v>
+      </c>
+      <c r="J34" t="n">
+        <v>24.18640754369825</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.079001839926403</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.02012419503219871</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.4456071757129715</v>
       </c>
-      <c r="J34" t="n">
+      <c r="O34" t="n">
         <v>0.1638684452621895</v>
       </c>
-      <c r="K34" t="n">
+      <c r="P34" t="n">
         <v>9.964351425942962</v>
       </c>
-      <c r="L34" t="n">
+      <c r="Q34" t="n">
+        <v>0.02012419503219871</v>
+      </c>
+      <c r="R34" t="n">
         <v>0.1264949402023919</v>
       </c>
-      <c r="M34" t="n">
+      <c r="S34" t="n">
         <v>0.008624655013799448</v>
       </c>
-      <c r="N34" t="n">
+      <c r="T34" t="n">
         <v>0.01437442502299908</v>
       </c>
     </row>
@@ -2097,24 +2787,42 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1253595840700958</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.002639149138317806</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.002639149138317806</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.9870417777308595</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>0.001319574569158903</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2149,18 +2857,36 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>1.422869751443961</v>
       </c>
-      <c r="K36" t="n">
+      <c r="P36" t="n">
         <v>32.13057304172886</v>
       </c>
-      <c r="L36" t="n">
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
         <v>0.2758128366539035</v>
       </c>
-      <c r="M36" t="n">
+      <c r="S36" t="n">
         <v>0.08761113634888701</v>
       </c>
-      <c r="N36" t="n">
+      <c r="T36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2189,24 +2915,42 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.713268380482843</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.333724615565207</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.003912822318738506</v>
       </c>
-      <c r="I37" t="n">
+      <c r="M37" t="n">
+        <v>0.04304104550612357</v>
+      </c>
+      <c r="N37" t="n">
         <v>1.193410807215245</v>
       </c>
-      <c r="J37" t="n">
+      <c r="O37" t="n">
         <v>0.7160464843291466</v>
       </c>
-      <c r="K37" t="n">
+      <c r="P37" t="n">
         <v>1.537739171264233</v>
       </c>
-      <c r="L37" t="n">
+      <c r="Q37" t="n">
+        <v>0.04304104550612357</v>
+      </c>
+      <c r="R37" t="n">
         <v>0.1173846695621552</v>
       </c>
-      <c r="M37" t="n">
+      <c r="S37" t="n">
         <v>0.007825644637477012</v>
       </c>
-      <c r="N37" t="n">
+      <c r="T37" t="n">
         <v>0.05477951246233909</v>
       </c>
     </row>
@@ -2238,21 +2982,39 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.803876415275379</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.2878526194588371</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.03838034926117827</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.3646133179811936</v>
       </c>
-      <c r="J38" t="n">
+      <c r="O38" t="n">
         <v>5.488389944348493</v>
       </c>
-      <c r="K38" t="n">
+      <c r="P38" t="n">
         <v>0.3262329687200153</v>
       </c>
-      <c r="L38" t="n">
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>0.01919017463058914</v>
       </c>
-      <c r="M38" t="n">
+      <c r="S38" t="n">
         <v>1.650355018230666</v>
       </c>
-      <c r="N38" t="n">
+      <c r="T38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2281,24 +3043,42 @@
         <v>0.1748408499955169</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.08069577692100779</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9773155204877612</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.322245135837891</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.05828028333183897</v>
       </c>
-      <c r="I39" t="n">
+      <c r="M39" t="n">
+        <v>0.01793239487133507</v>
+      </c>
+      <c r="N39" t="n">
         <v>0.636600017932395</v>
       </c>
-      <c r="J39" t="n">
+      <c r="O39" t="n">
         <v>0.9504169281807586</v>
       </c>
-      <c r="K39" t="n">
+      <c r="P39" t="n">
         <v>0.5155563525508832</v>
       </c>
-      <c r="L39" t="n">
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
         <v>0.004483098717833767</v>
       </c>
-      <c r="M39" t="n">
+      <c r="S39" t="n">
         <v>0.7621267820317403</v>
       </c>
-      <c r="N39" t="n">
+      <c r="T39" t="n">
         <v>0.01793239487133507</v>
       </c>
     </row>
@@ -2347,6 +3127,24 @@
       <c r="N40" t="n">
         <v>0</v>
       </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2376,21 +3174,39 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.195179770841565</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1086527064401422</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.203081785855393</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.353220071118135</v>
       </c>
-      <c r="J41" t="n">
+      <c r="O41" t="n">
         <v>9.018174634531807</v>
       </c>
-      <c r="K41" t="n">
+      <c r="P41" t="n">
         <v>0.1382852627419992</v>
       </c>
-      <c r="L41" t="n">
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>3.743579612801264</v>
       </c>
-      <c r="M41" t="n">
+      <c r="S41" t="n">
         <v>0.493875938364283</v>
       </c>
-      <c r="N41" t="n">
+      <c r="T41" t="n">
         <v>0.02963255630185697</v>
       </c>
     </row>
@@ -2419,24 +3235,42 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.062838569880824</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2979414951245937</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.05417118093174431</v>
       </c>
-      <c r="I42" t="n">
+      <c r="M42" t="n">
+        <v>2.1397616468039</v>
+      </c>
+      <c r="N42" t="n">
         <v>3.14192849404117</v>
       </c>
-      <c r="J42" t="n">
+      <c r="O42" t="n">
         <v>4.7670639219935</v>
       </c>
-      <c r="K42" t="n">
+      <c r="P42" t="n">
         <v>0.2708559046587216</v>
       </c>
-      <c r="L42" t="n">
+      <c r="Q42" t="n">
+        <v>0.02708559046587215</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.489707475622969</v>
       </c>
-      <c r="M42" t="n">
+      <c r="S42" t="n">
         <v>0.1083423618634886</v>
       </c>
-      <c r="N42" t="n">
+      <c r="T42" t="n">
         <v>0.08125677139761647</v>
       </c>
     </row>
@@ -2468,21 +3302,39 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
         <v>57.39</v>
       </c>
-      <c r="J43" t="n">
+      <c r="O43" t="n">
         <v>2.49</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>0.9</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,21 +3366,39 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.95245676242854</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6006223315724727</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0.01447282726680657</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.02170924090020986</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.95245676242854</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6006223315724727</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.01447282726680657</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>0.2388016499023084</v>
       </c>
-      <c r="M44" t="n">
+      <c r="S44" t="n">
         <v>0.02894565453361314</v>
       </c>
-      <c r="N44" t="n">
+      <c r="T44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2557,24 +3427,42 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.003007609251406057</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.003067761436434</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.7158110018346416</v>
+      </c>
+      <c r="L45" t="n">
         <v>0.03308370176546663</v>
       </c>
-      <c r="I45" t="n">
+      <c r="M45" t="n">
+        <v>1.215074137568047</v>
+      </c>
+      <c r="N45" t="n">
         <v>4.700893259947668</v>
       </c>
-      <c r="J45" t="n">
+      <c r="O45" t="n">
         <v>1.669223134530362</v>
       </c>
-      <c r="K45" t="n">
+      <c r="P45" t="n">
         <v>0.2706848326265452</v>
       </c>
-      <c r="L45" t="n">
+      <c r="Q45" t="n">
+        <v>0.03007609251406057</v>
+      </c>
+      <c r="R45" t="n">
         <v>0.7158110018346416</v>
       </c>
-      <c r="M45" t="n">
+      <c r="S45" t="n">
         <v>0.1022587145478059</v>
       </c>
-      <c r="N45" t="n">
+      <c r="T45" t="n">
         <v>0.1443652440674907</v>
       </c>
     </row>
@@ -2603,24 +3491,42 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.04240328788570683</v>
+      </c>
+      <c r="J46" t="n">
+        <v>14.75308239285015</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8105551568921652</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.01141626981538261</v>
       </c>
-      <c r="I46" t="n">
+      <c r="M46" t="n">
+        <v>0.8757909844086371</v>
+      </c>
+      <c r="N46" t="n">
         <v>1.732011220562333</v>
       </c>
-      <c r="J46" t="n">
+      <c r="O46" t="n">
         <v>1.16772131254485</v>
       </c>
-      <c r="K46" t="n">
+      <c r="P46" t="n">
         <v>0.1728749429186509</v>
       </c>
-      <c r="L46" t="n">
+      <c r="Q46" t="n">
+        <v>0.01793985256702981</v>
+      </c>
+      <c r="R46" t="n">
         <v>0.6344184225976907</v>
       </c>
-      <c r="M46" t="n">
+      <c r="S46" t="n">
         <v>0.09622284558679627</v>
       </c>
-      <c r="N46" t="n">
+      <c r="T46" t="n">
         <v>0.02446343531867702</v>
       </c>
     </row>
@@ -2652,21 +3558,39 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4112229599485971</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12.71364317841079</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.01713428999785821</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.02355964874705505</v>
       </c>
-      <c r="J47" t="n">
+      <c r="O47" t="n">
         <v>0.9166845148854144</v>
       </c>
-      <c r="K47" t="n">
+      <c r="P47" t="n">
         <v>5.463696723067038</v>
       </c>
-      <c r="L47" t="n">
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
         <v>0.002141786249732277</v>
       </c>
-      <c r="M47" t="n">
+      <c r="S47" t="n">
         <v>0.06639537374170058</v>
       </c>
-      <c r="N47" t="n">
+      <c r="T47" t="n">
         <v>0.004283572499464553</v>
       </c>
     </row>
@@ -2698,21 +3622,39 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.06897302791592551</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.3920572113115766</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>0.09922435594922616</v>
       </c>
-      <c r="J48" t="n">
+      <c r="O48" t="n">
         <v>0.9317409034256603</v>
       </c>
-      <c r="K48" t="n">
+      <c r="P48" t="n">
         <v>4.465096017715178</v>
       </c>
-      <c r="L48" t="n">
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
         <v>0.04719207173194903</v>
       </c>
-      <c r="M48" t="n">
+      <c r="S48" t="n">
         <v>0.09317409034256603</v>
       </c>
-      <c r="N48" t="n">
+      <c r="T48" t="n">
         <v>0.02178095618397648</v>
       </c>
     </row>
@@ -2747,18 +3689,36 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
         <v>0.3319209039548022</v>
       </c>
-      <c r="K49" t="n">
+      <c r="P49" t="n">
         <v>2.062146892655367</v>
       </c>
-      <c r="L49" t="n">
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
         <v>0.07768361581920905</v>
       </c>
-      <c r="M49" t="n">
+      <c r="S49" t="n">
         <v>0.001765536723163842</v>
       </c>
-      <c r="N49" t="n">
+      <c r="T49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2790,21 +3750,39 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0112540796038564</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.6902502157031924</v>
       </c>
-      <c r="J50" t="n">
+      <c r="O50" t="n">
         <v>0.04126495854747346</v>
       </c>
-      <c r="K50" t="n">
+      <c r="P50" t="n">
         <v>0.003751359867952133</v>
       </c>
-      <c r="L50" t="n">
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
         <v>0.02625951907566493</v>
       </c>
-      <c r="M50" t="n">
+      <c r="S50" t="n">
         <v>0.007502719735904265</v>
       </c>
-      <c r="N50" t="n">
+      <c r="T50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2836,21 +3814,39 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0.04199916001679967</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.532969340613188</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5.270894582108357</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.02099958000839983</v>
+      </c>
+      <c r="N51" t="n">
         <v>0.4619907601847963</v>
       </c>
-      <c r="J51" t="n">
+      <c r="O51" t="n">
         <v>3.296934061318773</v>
       </c>
-      <c r="K51" t="n">
+      <c r="P51" t="n">
         <v>0.5459890802183957</v>
       </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
         <v>5.690886182276354</v>
       </c>
-      <c r="N51" t="n">
+      <c r="T51" t="n">
         <v>0.04199916001679967</v>
       </c>
     </row>
@@ -2885,18 +3881,36 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
+        <v>0.01970831690973591</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.2759164367363027</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
         <v>0.3054789121009066</v>
       </c>
-      <c r="K52" t="n">
+      <c r="P52" t="n">
         <v>58.26763894363422</v>
       </c>
-      <c r="L52" t="n">
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
         <v>0.009854158454867954</v>
       </c>
-      <c r="M52" t="n">
+      <c r="S52" t="n">
         <v>0.04927079227433977</v>
       </c>
-      <c r="N52" t="n">
+      <c r="T52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2928,21 +3942,39 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
         <v>0.31</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
         <v>1.66</v>
       </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2974,21 +4006,39 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.2654736076111418</v>
+      </c>
+      <c r="N54" t="n">
         <v>0.008085490587141374</v>
       </c>
-      <c r="J54" t="n">
+      <c r="O54" t="n">
         <v>3.660032072445996</v>
       </c>
-      <c r="K54" t="n">
+      <c r="P54" t="n">
         <v>14.34905062864689</v>
       </c>
-      <c r="L54" t="n">
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
         <v>0.5242093063996658</v>
       </c>
-      <c r="M54" t="n">
+      <c r="S54" t="n">
         <v>0.9379169081083996</v>
       </c>
-      <c r="N54" t="n">
+      <c r="T54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,21 +4070,39 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.677301142487605</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.01293382194438457</v>
+      </c>
+      <c r="N55" t="n">
         <v>6.363440396637206</v>
       </c>
-      <c r="J55" t="n">
+      <c r="O55" t="n">
         <v>0.19831860314723</v>
       </c>
-      <c r="K55" t="n">
+      <c r="P55" t="n">
         <v>0.01724509592584609</v>
       </c>
-      <c r="L55" t="n">
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
         <v>0.0776029316663074</v>
       </c>
-      <c r="M55" t="n">
+      <c r="S55" t="n">
         <v>0.05173528777753827</v>
       </c>
-      <c r="N55" t="n">
+      <c r="T55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,24 +4131,42 @@
         <v>1.25293345531204</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.02784296567360089</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.067976611908834</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.3261604550336105</v>
+      </c>
+      <c r="L56" t="n">
         <v>0.001988783262400064</v>
       </c>
-      <c r="I56" t="n">
+      <c r="M56" t="n">
+        <v>0.02386539914880076</v>
+      </c>
+      <c r="N56" t="n">
         <v>0.186945626665606</v>
       </c>
-      <c r="J56" t="n">
+      <c r="O56" t="n">
         <v>6.847380772443419</v>
       </c>
-      <c r="K56" t="n">
+      <c r="P56" t="n">
         <v>0.248597907800008</v>
       </c>
-      <c r="L56" t="n">
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
         <v>0.007955133049600256</v>
       </c>
-      <c r="M56" t="n">
+      <c r="S56" t="n">
         <v>4.880474125929756</v>
       </c>
-      <c r="N56" t="n">
+      <c r="T56" t="n">
         <v>0.04176444851040134</v>
       </c>
     </row>
@@ -3112,21 +4198,39 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.02809778027535825</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.351222253441978</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
         <v>0.01404889013767912</v>
       </c>
-      <c r="J57" t="n">
+      <c r="O57" t="n">
         <v>0.09834223096375386</v>
       </c>
-      <c r="K57" t="n">
+      <c r="P57" t="n">
         <v>19.57010396178702</v>
       </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
         <v>0.04214667041303737</v>
       </c>
-      <c r="N57" t="n">
+      <c r="T57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3158,21 +4262,39 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
         <v>1.1</v>
       </c>
-      <c r="J58" t="n">
+      <c r="O58" t="n">
         <v>5.12</v>
       </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3204,21 +4326,39 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.01510378457687826</v>
+      </c>
+      <c r="N59" t="n">
         <v>0.05178440426358261</v>
       </c>
-      <c r="J59" t="n">
+      <c r="O59" t="n">
         <v>0.01726146808786087</v>
       </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
         <v>0.03236525266473914</v>
       </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3250,21 +4390,39 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.009093885271543414</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.327707249645338</v>
+      </c>
+      <c r="N60" t="n">
         <v>0.0109126623258521</v>
       </c>
-      <c r="J60" t="n">
+      <c r="O60" t="n">
         <v>78.83671019606416</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
         <v>4.15590556909534</v>
       </c>
-      <c r="M60" t="n">
+      <c r="S60" t="n">
         <v>0.2218908006256593</v>
       </c>
-      <c r="N60" t="n">
+      <c r="T60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3293,24 +4451,42 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0007963178263708611</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.001990794565927153</v>
       </c>
-      <c r="I61" t="n">
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>0.009953972829635765</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
         <v>14.95564509707114</v>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
+      <c r="Q61" t="n">
+        <v>0.05574224784596028</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3351,12 +4527,30 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.6951340615690168</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
         <v>1.279929383206444</v>
       </c>
-      <c r="M62" t="n">
+      <c r="S62" t="n">
         <v>1.114421273309059</v>
       </c>
-      <c r="N62" t="n">
+      <c r="T62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3388,21 +4582,39 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.003816793893129771</v>
+      </c>
+      <c r="N63" t="n">
         <v>0.08587786259541985</v>
       </c>
-      <c r="J63" t="n">
+      <c r="O63" t="n">
         <v>0.08015267175572519</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
         <v>0.003816793893129771</v>
       </c>
-      <c r="M63" t="n">
+      <c r="S63" t="n">
         <v>0.001908396946564886</v>
       </c>
-      <c r="N63" t="n">
+      <c r="T63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3434,21 +4646,39 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.005233957918978332</v>
+      </c>
+      <c r="N64" t="n">
         <v>3.389860078858299</v>
       </c>
-      <c r="J64" t="n">
+      <c r="O64" t="n">
         <v>0.1099131162985449</v>
       </c>
-      <c r="K64" t="n">
+      <c r="P64" t="n">
         <v>0.01395722111727555</v>
       </c>
-      <c r="L64" t="n">
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
         <v>0.008723263198297219</v>
       </c>
-      <c r="M64" t="n">
+      <c r="S64" t="n">
         <v>0.001744652639659444</v>
       </c>
-      <c r="N64" t="n">
+      <c r="T64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3477,24 +4707,42 @@
         <v>0.01849547701516629</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.04119447153377947</v>
       </c>
       <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5632713454618825</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.7053502370783872</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.05212361704274136</v>
+      </c>
+      <c r="N65" t="n">
         <v>7.341863671520328</v>
       </c>
-      <c r="J65" t="n">
+      <c r="O65" t="n">
         <v>6.607929515418502</v>
       </c>
-      <c r="K65" t="n">
+      <c r="P65" t="n">
         <v>0.9424286242727915</v>
       </c>
-      <c r="L65" t="n">
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
         <v>0.6902175740659784</v>
       </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
         <v>0.03699095403033258</v>
       </c>
     </row>
@@ -3523,24 +4771,42 @@
         <v>0.2158828064764842</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0.01542020046260601</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
+        <v>0.5088666152659985</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.6630686198920586</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.01542020046260601</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.2467232074016962</v>
+      </c>
+      <c r="N66" t="n">
         <v>1.495759444872783</v>
       </c>
-      <c r="J66" t="n">
+      <c r="O66" t="n">
         <v>0.5242868157286045</v>
       </c>
-      <c r="K66" t="n">
+      <c r="P66" t="n">
         <v>1.094834232845027</v>
       </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
         <v>0.4780262143407864</v>
       </c>
-      <c r="N66" t="n">
+      <c r="T66" t="n">
         <v>0.07710100231303006</v>
       </c>
     </row>
@@ -3572,21 +4838,39 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
+        <v>0.05763688760806917</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.496637848222862</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.823246878001922</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.07684918347742556</v>
+      </c>
+      <c r="N67" t="n">
         <v>3.362151777137368</v>
       </c>
-      <c r="J67" t="n">
+      <c r="O67" t="n">
         <v>0.5187319884726225</v>
       </c>
-      <c r="K67" t="n">
+      <c r="P67" t="n">
         <v>1.402497598463016</v>
       </c>
-      <c r="L67" t="n">
+      <c r="Q67" t="n">
+        <v>0.03842459173871278</v>
+      </c>
+      <c r="R67" t="n">
         <v>0.09606147934678194</v>
       </c>
-      <c r="M67" t="n">
+      <c r="S67" t="n">
         <v>0.01921229586935639</v>
       </c>
-      <c r="N67" t="n">
+      <c r="T67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3615,24 +4899,42 @@
         <v>0.04204183162246435</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.007006971937077392</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.766247416179099</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.2462249938689</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.003503485968538696</v>
       </c>
-      <c r="I68" t="n">
+      <c r="M68" t="n">
+        <v>0.09809760711908348</v>
+      </c>
+      <c r="N68" t="n">
         <v>2.25624496373892</v>
       </c>
-      <c r="J68" t="n">
+      <c r="O68" t="n">
         <v>1.138632939775076</v>
       </c>
-      <c r="K68" t="n">
+      <c r="P68" t="n">
         <v>1.499491994534562</v>
       </c>
-      <c r="L68" t="n">
+      <c r="Q68" t="n">
+        <v>0.03503485968538696</v>
+      </c>
+      <c r="R68" t="n">
         <v>0.2277265879550152</v>
       </c>
-      <c r="M68" t="n">
+      <c r="S68" t="n">
         <v>0.05255228952808044</v>
       </c>
-      <c r="N68" t="n">
+      <c r="T68" t="n">
         <v>0.007006971937077392</v>
       </c>
     </row>
@@ -3661,24 +4963,42 @@
         <v>0.5195914445353927</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.01601480479732375</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.185095555001957</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.3096195594149258</v>
+      </c>
+      <c r="L69" t="n">
         <v>0.001779422755258194</v>
       </c>
-      <c r="I69" t="n">
+      <c r="M69" t="n">
+        <v>0.05694152816826222</v>
+      </c>
+      <c r="N69" t="n">
         <v>1.469803195843268</v>
       </c>
-      <c r="J69" t="n">
+      <c r="O69" t="n">
         <v>1.946688494252464</v>
       </c>
-      <c r="K69" t="n">
+      <c r="P69" t="n">
         <v>0.2491191857361472</v>
       </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>0.9306381010000355</v>
       </c>
-      <c r="N69" t="n">
+      <c r="T69" t="n">
         <v>0.003558845510516389</v>
       </c>
     </row>
@@ -3710,21 +5030,39 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.785050204537002</v>
+      </c>
+      <c r="K70" t="n">
+        <v>2.24990702863518</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.03718854592785422</v>
+      </c>
+      <c r="N70" t="n">
         <v>0.7995537374488657</v>
       </c>
-      <c r="J70" t="n">
+      <c r="O70" t="n">
         <v>0.2045370026031982</v>
       </c>
-      <c r="K70" t="n">
+      <c r="P70" t="n">
         <v>0.8181480104127928</v>
       </c>
-      <c r="L70" t="n">
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
         <v>0.01859427296392711</v>
       </c>
-      <c r="M70" t="n">
+      <c r="S70" t="n">
         <v>0.01859427296392711</v>
       </c>
-      <c r="N70" t="n">
+      <c r="T70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3753,24 +5091,42 @@
         <v>0.00436109899694723</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1439162668992586</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8.168338421282163</v>
+      </c>
+      <c r="K71" t="n">
+        <v>29.73397296118622</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.01308329699084169</v>
       </c>
-      <c r="I71" t="n">
+      <c r="M71" t="n">
+        <v>0.01744439598778892</v>
+      </c>
+      <c r="N71" t="n">
         <v>0.7283035324901875</v>
       </c>
-      <c r="J71" t="n">
+      <c r="O71" t="n">
         <v>0.1526384648931531</v>
       </c>
-      <c r="K71" t="n">
+      <c r="P71" t="n">
         <v>3.270824247710423</v>
       </c>
-      <c r="L71" t="n">
+      <c r="Q71" t="n">
         <v>0.00436109899694723</v>
       </c>
-      <c r="M71" t="n">
+      <c r="R71" t="n">
         <v>0.00436109899694723</v>
       </c>
-      <c r="N71" t="n">
+      <c r="S71" t="n">
+        <v>0.00436109899694723</v>
+      </c>
+      <c r="T71" t="n">
         <v>0.01744439598778892</v>
       </c>
     </row>
@@ -3799,24 +5155,42 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.1155802126675913</v>
+      </c>
+      <c r="J72" t="n">
+        <v>15.41840036985668</v>
+      </c>
+      <c r="K72" t="n">
+        <v>25.77438742487286</v>
+      </c>
+      <c r="L72" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="I72" t="n">
+      <c r="M72" t="n">
+        <v>0.04623208506703652</v>
+      </c>
+      <c r="N72" t="n">
         <v>0.9015256588072121</v>
       </c>
-      <c r="J72" t="n">
+      <c r="O72" t="n">
         <v>0.2773925104022191</v>
       </c>
-      <c r="K72" t="n">
+      <c r="P72" t="n">
         <v>3.675450762829403</v>
       </c>
-      <c r="L72" t="n">
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
         <v>0.04623208506703652</v>
       </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3851,18 +5225,36 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
         <v>6.99</v>
       </c>
-      <c r="K73" t="n">
+      <c r="P73" t="n">
         <v>2.85</v>
       </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3894,21 +5286,39 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
+        <v>2.558519324986391</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.389221556886228</v>
+      </c>
+      <c r="K74" t="n">
+        <v>6.260206859009254</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.05443658138268917</v>
+      </c>
+      <c r="N74" t="n">
         <v>0.5443658138268916</v>
       </c>
-      <c r="J74" t="n">
+      <c r="O74" t="n">
         <v>1.524224278715297</v>
       </c>
-      <c r="K74" t="n">
+      <c r="P74" t="n">
         <v>0.4354926510615134</v>
       </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
         <v>0.979858464888405</v>
       </c>
-      <c r="N74" t="n">
+      <c r="T74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3946,15 +5356,33 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
         <v>1.52</v>
       </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3986,21 +5414,39 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
         <v>1.397303107289428</v>
       </c>
-      <c r="J76" t="n">
+      <c r="O76" t="n">
         <v>0.107484854406879</v>
       </c>
-      <c r="K76" t="n">
+      <c r="P76" t="n">
         <v>12.27281610318546</v>
       </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
+      <c r="Q76" t="n">
+        <v>0.004885675200312683</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
         <v>0.04397107680281415</v>
       </c>
     </row>
@@ -4032,21 +5478,39 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
         <v>0.02117186259461176</v>
       </c>
-      <c r="J77" t="n">
+      <c r="O77" t="n">
         <v>0.005292965648652941</v>
       </c>
-      <c r="K77" t="n">
+      <c r="P77" t="n">
         <v>20.89133541523315</v>
       </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
+      <c r="Q77" t="n">
+        <v>0.005292965648652941</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4095,6 +5559,24 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4124,21 +5606,39 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
         <v>3.2</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
         <v>0.46</v>
       </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4153,7 +5653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF80"/>
+  <dimension ref="A1:CI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4575,7 +6075,22 @@
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
+          <t>Desulfobacterales_Desulfobacteraceae_Desulfobacterium</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>Desulfobacterales_Desulfobulbaceae_Desulfobulbus</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
           <t>Gallionellales_Gallionellaceae_Gallionella</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Alteromonadales_Shewanellaceae_Shewanella</t>
         </is>
       </c>
     </row>
@@ -4988,6 +6503,21 @@
           <t>Bacteria</t>
         </is>
       </c>
+      <c r="CG2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
+      <c r="CI2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
@@ -5398,6 +6928,21 @@
           <t>Proteobacteria</t>
         </is>
       </c>
+      <c r="CG3" s="1" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="CH3" s="1" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
+      <c r="CI3" s="1" t="inlineStr">
+        <is>
+          <t>Proteobacteria</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr"/>
@@ -5805,7 +7350,22 @@
       </c>
       <c r="CF4" s="1" t="inlineStr">
         <is>
+          <t>Deltaproteobacteria</t>
+        </is>
+      </c>
+      <c r="CG4" s="1" t="inlineStr">
+        <is>
+          <t>Deltaproteobacteria</t>
+        </is>
+      </c>
+      <c r="CH4" s="1" t="inlineStr">
+        <is>
           <t>Betaproteobacteria</t>
+        </is>
+      </c>
+      <c r="CI4" s="1" t="inlineStr">
+        <is>
+          <t>Gammaproteobacteria</t>
         </is>
       </c>
     </row>
@@ -6215,7 +7775,22 @@
       </c>
       <c r="CF5" s="1" t="inlineStr">
         <is>
+          <t>Desulfobacterales</t>
+        </is>
+      </c>
+      <c r="CG5" s="1" t="inlineStr">
+        <is>
+          <t>Desulfobacterales</t>
+        </is>
+      </c>
+      <c r="CH5" s="1" t="inlineStr">
+        <is>
           <t>Gallionellales</t>
+        </is>
+      </c>
+      <c r="CI5" s="1" t="inlineStr">
+        <is>
+          <t>Alteromonadales</t>
         </is>
       </c>
     </row>
@@ -6625,7 +8200,22 @@
       </c>
       <c r="CF6" s="1" t="inlineStr">
         <is>
+          <t>Desulfobacteraceae</t>
+        </is>
+      </c>
+      <c r="CG6" s="1" t="inlineStr">
+        <is>
+          <t>Desulfobulbaceae</t>
+        </is>
+      </c>
+      <c r="CH6" s="1" t="inlineStr">
+        <is>
           <t>Gallionellaceae</t>
+        </is>
+      </c>
+      <c r="CI6" s="1" t="inlineStr">
+        <is>
+          <t>Shewanellaceae</t>
         </is>
       </c>
     </row>
@@ -7035,7 +8625,22 @@
       </c>
       <c r="CF7" s="1" t="inlineStr">
         <is>
+          <t>Desulfobacterium</t>
+        </is>
+      </c>
+      <c r="CG7" s="1" t="inlineStr">
+        <is>
+          <t>Desulfobulbus</t>
+        </is>
+      </c>
+      <c r="CH7" s="1" t="inlineStr">
+        <is>
           <t>Gallionella</t>
+        </is>
+      </c>
+      <c r="CI7" s="1" t="inlineStr">
+        <is>
+          <t>Shewanella</t>
         </is>
       </c>
     </row>
@@ -7445,7 +9050,22 @@
       </c>
       <c r="CF8" s="1" t="inlineStr">
         <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="CG8" s="1" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="CH8" s="1" t="inlineStr">
+        <is>
           <t>332</t>
+        </is>
+      </c>
+      <c r="CI8" s="1" t="inlineStr">
+        <is>
+          <t>656</t>
         </is>
       </c>
     </row>
@@ -7704,6 +9324,15 @@
       <c r="CF10" t="n">
         <v>0</v>
       </c>
+      <c r="CG10" t="n">
+        <v>0.1723395088323998</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.1077121930202499</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7960,6 +9589,15 @@
       <c r="CF11" t="n">
         <v>0</v>
       </c>
+      <c r="CG11" t="n">
+        <v>0.01897173211914248</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.1328021248339973</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -8216,6 +9854,15 @@
       <c r="CF12" t="n">
         <v>0</v>
       </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.1350356002946231</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -8472,6 +10119,15 @@
       <c r="CF13" t="n">
         <v>0</v>
       </c>
+      <c r="CG13" t="n">
+        <v>0.006611278841703947</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>1.328867047182493</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -8728,6 +10384,15 @@
       <c r="CF14" t="n">
         <v>0</v>
       </c>
+      <c r="CG14" t="n">
+        <v>0.01840603718019511</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.1656543346217559</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -8984,6 +10649,15 @@
       <c r="CF15" t="n">
         <v>0</v>
       </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -9240,6 +10914,15 @@
       <c r="CF16" t="n">
         <v>0</v>
       </c>
+      <c r="CG16" t="n">
+        <v>0.04607736146477507</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0.1164059658057476</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -9494,7 +11177,16 @@
         <v>0</v>
       </c>
       <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
         <v>1.5</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -9750,7 +11442,16 @@
         <v>0</v>
       </c>
       <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.008931761343336906</v>
+      </c>
+      <c r="CH18" t="n">
         <v>0.002977253781112302</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.1994760033345242</v>
       </c>
     </row>
     <row r="19">
@@ -10008,6 +11709,15 @@
       <c r="CF19" t="n">
         <v>0</v>
       </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -10264,6 +11974,15 @@
       <c r="CF20" t="n">
         <v>0</v>
       </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -10518,7 +12237,16 @@
         <v>20.72188371372508</v>
       </c>
       <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0.02840028916658061</v>
+      </c>
+      <c r="CH21" t="n">
         <v>0.0335639781059589</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -10776,6 +12504,15 @@
       <c r="CF22" t="n">
         <v>0</v>
       </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -11032,6 +12769,15 @@
       <c r="CF23" t="n">
         <v>0</v>
       </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -11288,6 +13034,15 @@
       <c r="CF24" t="n">
         <v>0</v>
       </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -11544,6 +13299,15 @@
       <c r="CF25" t="n">
         <v>0</v>
       </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -11800,6 +13564,15 @@
       <c r="CF26" t="n">
         <v>0</v>
       </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -12056,6 +13829,15 @@
       <c r="CF27" t="n">
         <v>0</v>
       </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0.1006669183339625</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -12312,6 +14094,15 @@
       <c r="CF28" t="n">
         <v>0</v>
       </c>
+      <c r="CG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -12568,6 +14359,15 @@
       <c r="CF29" t="n">
         <v>0</v>
       </c>
+      <c r="CG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -12822,7 +14622,16 @@
         <v>0</v>
       </c>
       <c r="CF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH30" t="n">
         <v>0.0007909827961241842</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -13080,6 +14889,15 @@
       <c r="CF31" t="n">
         <v>0</v>
       </c>
+      <c r="CG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -13336,6 +15154,15 @@
       <c r="CF32" t="n">
         <v>0</v>
       </c>
+      <c r="CG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -13590,7 +15417,16 @@
         <v>0</v>
       </c>
       <c r="CF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH33" t="n">
         <v>0.004966229638458482</v>
+      </c>
+      <c r="CI33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -13848,6 +15684,15 @@
       <c r="CF34" t="n">
         <v>0</v>
       </c>
+      <c r="CG34" t="n">
+        <v>0.008624655013799448</v>
+      </c>
+      <c r="CH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI34" t="n">
+        <v>0.02012419503219871</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -14102,7 +15947,16 @@
         <v>0</v>
       </c>
       <c r="CF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG35" t="n">
+        <v>0.1253595840700958</v>
+      </c>
+      <c r="CH35" t="n">
         <v>0.002639149138317806</v>
+      </c>
+      <c r="CI35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -14360,6 +16214,15 @@
       <c r="CF36" t="n">
         <v>0</v>
       </c>
+      <c r="CG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -14614,7 +16477,16 @@
         <v>0</v>
       </c>
       <c r="CF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH37" t="n">
         <v>0.003912822318738506</v>
+      </c>
+      <c r="CI37" t="n">
+        <v>0.04304104550612357</v>
       </c>
     </row>
     <row r="38">
@@ -14872,6 +16744,15 @@
       <c r="CF38" t="n">
         <v>0</v>
       </c>
+      <c r="CG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -15126,7 +17007,16 @@
         <v>2.259481753788218</v>
       </c>
       <c r="CF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG39" t="n">
+        <v>0.08069577692100779</v>
+      </c>
+      <c r="CH39" t="n">
         <v>0.05828028333183897</v>
+      </c>
+      <c r="CI39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -15384,6 +17274,15 @@
       <c r="CF40" t="n">
         <v>0</v>
       </c>
+      <c r="CG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -15640,6 +17539,15 @@
       <c r="CF41" t="n">
         <v>0</v>
       </c>
+      <c r="CG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -15894,7 +17802,16 @@
         <v>0</v>
       </c>
       <c r="CF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH42" t="n">
         <v>0.05417118093174431</v>
+      </c>
+      <c r="CI42" t="n">
+        <v>0.02708559046587215</v>
       </c>
     </row>
     <row r="43">
@@ -16152,6 +18069,15 @@
       <c r="CF43" t="n">
         <v>0</v>
       </c>
+      <c r="CG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -16408,6 +18334,15 @@
       <c r="CF44" t="n">
         <v>0</v>
       </c>
+      <c r="CG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -16662,7 +18597,16 @@
         <v>0</v>
       </c>
       <c r="CF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG45" t="n">
+        <v>0.003007609251406057</v>
+      </c>
+      <c r="CH45" t="n">
         <v>0.03308370176546663</v>
+      </c>
+      <c r="CI45" t="n">
+        <v>0.03007609251406057</v>
       </c>
     </row>
     <row r="46">
@@ -16918,7 +18862,16 @@
         <v>0</v>
       </c>
       <c r="CF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG46" t="n">
+        <v>0.04240328788570683</v>
+      </c>
+      <c r="CH46" t="n">
         <v>0.01141626981538261</v>
+      </c>
+      <c r="CI46" t="n">
+        <v>0.01793985256702981</v>
       </c>
     </row>
     <row r="47">
@@ -17176,6 +19129,15 @@
       <c r="CF47" t="n">
         <v>0</v>
       </c>
+      <c r="CG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -17432,6 +19394,15 @@
       <c r="CF48" t="n">
         <v>0</v>
       </c>
+      <c r="CG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -17688,6 +19659,15 @@
       <c r="CF49" t="n">
         <v>0</v>
       </c>
+      <c r="CG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -17944,6 +19924,15 @@
       <c r="CF50" t="n">
         <v>0</v>
       </c>
+      <c r="CG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -18200,6 +20189,15 @@
       <c r="CF51" t="n">
         <v>0</v>
       </c>
+      <c r="CG51" t="n">
+        <v>0.04199916001679967</v>
+      </c>
+      <c r="CH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -18456,6 +20454,15 @@
       <c r="CF52" t="n">
         <v>0</v>
       </c>
+      <c r="CG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -18712,6 +20719,15 @@
       <c r="CF53" t="n">
         <v>0</v>
       </c>
+      <c r="CG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -18968,6 +20984,15 @@
       <c r="CF54" t="n">
         <v>0</v>
       </c>
+      <c r="CG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -19224,6 +21249,15 @@
       <c r="CF55" t="n">
         <v>0</v>
       </c>
+      <c r="CG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -19478,7 +21512,16 @@
         <v>0.5329939143232171</v>
       </c>
       <c r="CF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG56" t="n">
+        <v>0.02784296567360089</v>
+      </c>
+      <c r="CH56" t="n">
         <v>0.001988783262400064</v>
+      </c>
+      <c r="CI56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -19736,6 +21779,15 @@
       <c r="CF57" t="n">
         <v>0</v>
       </c>
+      <c r="CG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -19992,6 +22044,15 @@
       <c r="CF58" t="n">
         <v>0</v>
       </c>
+      <c r="CG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -20248,6 +22309,15 @@
       <c r="CF59" t="n">
         <v>0</v>
       </c>
+      <c r="CG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -20504,6 +22574,15 @@
       <c r="CF60" t="n">
         <v>0</v>
       </c>
+      <c r="CG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -20758,7 +22837,16 @@
         <v>0</v>
       </c>
       <c r="CF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG61" t="n">
+        <v>0.0007963178263708611</v>
+      </c>
+      <c r="CH61" t="n">
         <v>0.001990794565927153</v>
+      </c>
+      <c r="CI61" t="n">
+        <v>0.05574224784596028</v>
       </c>
     </row>
     <row r="62">
@@ -21016,6 +23104,15 @@
       <c r="CF62" t="n">
         <v>0</v>
       </c>
+      <c r="CG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -21272,6 +23369,15 @@
       <c r="CF63" t="n">
         <v>0</v>
       </c>
+      <c r="CG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -21528,6 +23634,15 @@
       <c r="CF64" t="n">
         <v>0</v>
       </c>
+      <c r="CG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -21782,6 +23897,15 @@
         <v>0</v>
       </c>
       <c r="CF65" t="n">
+        <v>0.04119447153377947</v>
+      </c>
+      <c r="CG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22038,7 +24162,16 @@
         <v>0.6476484194294526</v>
       </c>
       <c r="CF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG66" t="n">
         <v>0.01542020046260601</v>
+      </c>
+      <c r="CH66" t="n">
+        <v>0.01542020046260601</v>
+      </c>
+      <c r="CI66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -22296,6 +24429,15 @@
       <c r="CF67" t="n">
         <v>0</v>
       </c>
+      <c r="CG67" t="n">
+        <v>0.05763688760806917</v>
+      </c>
+      <c r="CH67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI67" t="n">
+        <v>0.03842459173871278</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -22550,7 +24692,16 @@
         <v>0</v>
       </c>
       <c r="CF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG68" t="n">
+        <v>0.007006971937077392</v>
+      </c>
+      <c r="CH68" t="n">
         <v>0.003503485968538696</v>
+      </c>
+      <c r="CI68" t="n">
+        <v>0.03503485968538696</v>
       </c>
     </row>
     <row r="69">
@@ -22806,7 +24957,16 @@
         <v>0.6334745008719171</v>
       </c>
       <c r="CF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG69" t="n">
+        <v>0.01601480479732375</v>
+      </c>
+      <c r="CH69" t="n">
         <v>0.001779422755258194</v>
+      </c>
+      <c r="CI69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -23064,6 +25224,15 @@
       <c r="CF70" t="n">
         <v>0</v>
       </c>
+      <c r="CG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -23318,7 +25487,16 @@
         <v>0</v>
       </c>
       <c r="CF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG71" t="n">
+        <v>0.1439162668992586</v>
+      </c>
+      <c r="CH71" t="n">
         <v>0.01308329699084169</v>
+      </c>
+      <c r="CI71" t="n">
+        <v>0.00436109899694723</v>
       </c>
     </row>
     <row r="72">
@@ -23574,7 +25752,16 @@
         <v>0</v>
       </c>
       <c r="CF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG72" t="n">
+        <v>0.1155802126675913</v>
+      </c>
+      <c r="CH72" t="n">
         <v>0.02311604253351826</v>
+      </c>
+      <c r="CI72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -23832,6 +26019,15 @@
       <c r="CF73" t="n">
         <v>0</v>
       </c>
+      <c r="CG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -24088,6 +26284,15 @@
       <c r="CF74" t="n">
         <v>0</v>
       </c>
+      <c r="CG74" t="n">
+        <v>2.558519324986391</v>
+      </c>
+      <c r="CH74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -24344,6 +26549,15 @@
       <c r="CF75" t="n">
         <v>0</v>
       </c>
+      <c r="CG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -24600,6 +26814,15 @@
       <c r="CF76" t="n">
         <v>0</v>
       </c>
+      <c r="CG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI76" t="n">
+        <v>0.004885675200312683</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -24856,6 +27079,15 @@
       <c r="CF77" t="n">
         <v>0</v>
       </c>
+      <c r="CG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI77" t="n">
+        <v>0.005292965648652941</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -25112,6 +27344,15 @@
       <c r="CF78" t="n">
         <v>0</v>
       </c>
+      <c r="CG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -25368,6 +27609,15 @@
       <c r="CF79" t="n">
         <v>0</v>
       </c>
+      <c r="CG79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -25614,170 +27864,185 @@
       </c>
       <c r="AY80" t="inlineStr">
         <is>
+          <t>core-us</t>
+        </is>
+      </c>
+      <c r="AZ80" t="inlineStr">
+        <is>
+          <t>core-us</t>
+        </is>
+      </c>
+      <c r="BA80" t="inlineStr">
+        <is>
           <t>core</t>
         </is>
       </c>
-      <c r="AZ80" t="inlineStr">
+      <c r="BB80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BA80" t="inlineStr">
+      <c r="BC80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BB80" t="inlineStr">
+      <c r="BD80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BC80" t="inlineStr">
+      <c r="BE80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BD80" t="inlineStr">
+      <c r="BF80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BE80" t="inlineStr">
+      <c r="BG80" t="inlineStr">
+        <is>
+          <t>core-us</t>
+        </is>
+      </c>
+      <c r="BH80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BF80" t="inlineStr">
+      <c r="BI80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BG80" t="inlineStr">
+      <c r="BJ80" t="inlineStr">
+        <is>
+          <t>core-us</t>
+        </is>
+      </c>
+      <c r="BK80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BH80" t="inlineStr">
+      <c r="BL80" t="inlineStr">
+        <is>
+          <t>core-us</t>
+        </is>
+      </c>
+      <c r="BM80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BI80" t="inlineStr">
+      <c r="BN80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BJ80" t="inlineStr">
+      <c r="BO80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BP80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BQ80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BS80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BT80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BU80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BV80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BW80" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BX80" t="inlineStr">
         <is>
           <t>core-us</t>
         </is>
       </c>
-      <c r="BK80" t="inlineStr">
+      <c r="BY80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BL80" t="inlineStr">
-        <is>
-          <t>core-us</t>
-        </is>
-      </c>
-      <c r="BM80" t="inlineStr">
+      <c r="BZ80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BN80" t="inlineStr">
+      <c r="CA80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BO80" t="inlineStr">
+      <c r="CB80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BP80" t="inlineStr">
+      <c r="CC80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BQ80" t="inlineStr">
+      <c r="CD80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BR80" t="inlineStr">
+      <c r="CE80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BS80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="BT80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="BU80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="BV80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="BW80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="BX80" t="inlineStr">
-        <is>
-          <t>core-us</t>
-        </is>
-      </c>
-      <c r="BY80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="BZ80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="CA80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="CB80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="CC80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="CD80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
-      <c r="CE80" t="inlineStr">
-        <is>
-          <t>core</t>
-        </is>
-      </c>
       <c r="CF80" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="CG80" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="CH80" t="inlineStr">
+        <is>
+          <t>us</t>
+        </is>
+      </c>
+      <c r="CI80" t="inlineStr">
         <is>
           <t>us</t>
         </is>

--- a/data_Ref/merged_to_sequence.xlsx
+++ b/data_Ref/merged_to_sequence.xlsx
@@ -5653,7 +5653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI80"/>
+  <dimension ref="A1:CJ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5930,165 +5930,170 @@
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
+          <t>Saprospirales_Chitinophagaceae_Flavisolibacter</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
           <t>Holophagales_Holophagaceae_Geothrix</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales_Oxalobacteraceae_Herbaspirillum</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales_Comamonadaceae_Hydrogenophaga</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Rhizobiales_Methylocystaceae_Methylocystis</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Actinomycetales_Micrococcaceae_Micrococcus</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Nitrospirales_Nitrospiraceae_Nitrospira</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales_Alcaligenaceae_Phreatobacter</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Actinomycetales_Propionibacteriaceae_Propionibacterium</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Rhodocyclales_Rhodocyclaceae_Propionivibrio</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Pseudomonadales_Pseudomonadaceae_Pseudomonas</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales_Comamonadaceae_Pseudorhodoferax</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Xanthomonadales_Xanthomonadaceae_Pseudoxanthomonas</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales_Oxalobacteraceae_Ralstonia</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Clostridiales_Hungateiclostridiaceae_Ruminiclostridium_1</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Saprospirales_Chitinophagaceae_Sediminibacterium</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Xanthomonadales_Xanthomonadaceae_Silanimonas</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales_Comamonadaceae_Simplicispira</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Syntrophobacterales_Syntrophaceae_Smithella</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadales_Sphingomonadaceae_Sphingobium</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadales_Sphingomonadaceae_Sphingomonas</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadales_Sphingomonadaceae_Sphingopyxis</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Bacillales_Staphylococcaceae_Staphylococcus</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Syntrophobacterales_Syntrophaceae_Syntrophus</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Actinomycetales_Propionibacteriaceae_Tessaracoccus</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Clostridiales_Peptococcaceae_Thermincola</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Spirochaetales_Spirochaetaceae_Treponema</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales_Oxalobacteraceae_Oxalobacteraceae_unclassified</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales_Comamonadaceae_Variovorax</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>Anaerolineales_Anaerolinaceae_Wchb1-05</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Desulfobacterales_Desulfobacteraceae_Desulfobacterium</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Desulfobacterales_Desulfobulbaceae_Desulfobulbus</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>Gallionellales_Gallionellaceae_Gallionella</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>Alteromonadales_Shewanellaceae_Shewanella</t>
         </is>
@@ -6518,6 +6523,11 @@
           <t>Bacteria</t>
         </is>
       </c>
+      <c r="CJ2" s="1" t="inlineStr">
+        <is>
+          <t>Bacteria</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr"/>
@@ -6780,165 +6790,170 @@
       </c>
       <c r="BC3" s="1" t="inlineStr">
         <is>
+          <t>Bacteroidetes</t>
+        </is>
+      </c>
+      <c r="BD3" s="1" t="inlineStr">
+        <is>
           <t>Acidobacteria</t>
         </is>
       </c>
-      <c r="BD3" s="1" t="inlineStr">
+      <c r="BE3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BE3" s="1" t="inlineStr">
+      <c r="BF3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BF3" s="1" t="inlineStr">
+      <c r="BG3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BG3" s="1" t="inlineStr">
+      <c r="BH3" s="1" t="inlineStr">
         <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="BH3" s="1" t="inlineStr">
+      <c r="BI3" s="1" t="inlineStr">
         <is>
           <t>Nitrospirae</t>
         </is>
       </c>
-      <c r="BI3" s="1" t="inlineStr">
+      <c r="BJ3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BJ3" s="1" t="inlineStr">
+      <c r="BK3" s="1" t="inlineStr">
         <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="BK3" s="1" t="inlineStr">
+      <c r="BL3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BL3" s="1" t="inlineStr">
+      <c r="BM3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BM3" s="1" t="inlineStr">
+      <c r="BN3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BN3" s="1" t="inlineStr">
+      <c r="BO3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BO3" s="1" t="inlineStr">
+      <c r="BP3" s="1" t="inlineStr">
         <is>
           <t>Pseudomonadota</t>
         </is>
       </c>
-      <c r="BP3" s="1" t="inlineStr">
+      <c r="BQ3" s="1" t="inlineStr">
         <is>
           <t>Firmicutes</t>
         </is>
       </c>
-      <c r="BQ3" s="1" t="inlineStr">
+      <c r="BR3" s="1" t="inlineStr">
         <is>
           <t>Bacteroidetes</t>
         </is>
       </c>
-      <c r="BR3" s="1" t="inlineStr">
+      <c r="BS3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BS3" s="1" t="inlineStr">
+      <c r="BT3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BT3" s="1" t="inlineStr">
+      <c r="BU3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BU3" s="1" t="inlineStr">
+      <c r="BV3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BV3" s="1" t="inlineStr">
+      <c r="BW3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BW3" s="1" t="inlineStr">
+      <c r="BX3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BX3" s="1" t="inlineStr">
+      <c r="BY3" s="1" t="inlineStr">
         <is>
           <t>Firmicutes</t>
         </is>
       </c>
-      <c r="BY3" s="1" t="inlineStr">
+      <c r="BZ3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="BZ3" s="1" t="inlineStr">
+      <c r="CA3" s="1" t="inlineStr">
         <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="CA3" s="1" t="inlineStr">
+      <c r="CB3" s="1" t="inlineStr">
         <is>
           <t>Firmicutes</t>
         </is>
       </c>
-      <c r="CB3" s="1" t="inlineStr">
+      <c r="CC3" s="1" t="inlineStr">
         <is>
           <t>Spirochaetes</t>
         </is>
       </c>
-      <c r="CC3" s="1" t="inlineStr">
+      <c r="CD3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="CD3" s="1" t="inlineStr">
+      <c r="CE3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="CE3" s="1" t="inlineStr">
+      <c r="CF3" s="1" t="inlineStr">
         <is>
           <t>Chloroflexi</t>
         </is>
       </c>
-      <c r="CF3" s="1" t="inlineStr">
+      <c r="CG3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="CG3" s="1" t="inlineStr">
+      <c r="CH3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="CH3" s="1" t="inlineStr">
+      <c r="CI3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
       </c>
-      <c r="CI3" s="1" t="inlineStr">
+      <c r="CJ3" s="1" t="inlineStr">
         <is>
           <t>Proteobacteria</t>
         </is>
@@ -7205,165 +7220,170 @@
       </c>
       <c r="BC4" s="1" t="inlineStr">
         <is>
+          <t>Saprospirae</t>
+        </is>
+      </c>
+      <c r="BD4" s="1" t="inlineStr">
+        <is>
           <t>Holophagae</t>
         </is>
       </c>
-      <c r="BD4" s="1" t="inlineStr">
+      <c r="BE4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="BE4" s="1" t="inlineStr">
+      <c r="BF4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="BF4" s="1" t="inlineStr">
+      <c r="BG4" s="1" t="inlineStr">
         <is>
           <t>Alphaproteobacteria</t>
         </is>
       </c>
-      <c r="BG4" s="1" t="inlineStr">
+      <c r="BH4" s="1" t="inlineStr">
         <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="BH4" s="1" t="inlineStr">
+      <c r="BI4" s="1" t="inlineStr">
         <is>
           <t>Nitrospira</t>
         </is>
       </c>
-      <c r="BI4" s="1" t="inlineStr">
+      <c r="BJ4" s="1" t="inlineStr">
         <is>
           <t>Alphaproteobacteria</t>
         </is>
       </c>
-      <c r="BJ4" s="1" t="inlineStr">
+      <c r="BK4" s="1" t="inlineStr">
         <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="BK4" s="1" t="inlineStr">
+      <c r="BL4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="BL4" s="1" t="inlineStr">
+      <c r="BM4" s="1" t="inlineStr">
         <is>
           <t>Gammaproteobacteria</t>
         </is>
       </c>
-      <c r="BM4" s="1" t="inlineStr">
+      <c r="BN4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="BN4" s="1" t="inlineStr">
+      <c r="BO4" s="1" t="inlineStr">
         <is>
           <t>Gammaproteobacteria</t>
         </is>
       </c>
-      <c r="BO4" s="1" t="inlineStr">
+      <c r="BP4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="BP4" s="1" t="inlineStr">
+      <c r="BQ4" s="1" t="inlineStr">
         <is>
           <t>Clostridia</t>
         </is>
       </c>
-      <c r="BQ4" s="1" t="inlineStr">
+      <c r="BR4" s="1" t="inlineStr">
         <is>
           <t>Saprospirae</t>
         </is>
       </c>
-      <c r="BR4" s="1" t="inlineStr">
+      <c r="BS4" s="1" t="inlineStr">
         <is>
           <t>Gammaproteobacteria</t>
         </is>
       </c>
-      <c r="BS4" s="1" t="inlineStr">
+      <c r="BT4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="BT4" s="1" t="inlineStr">
+      <c r="BU4" s="1" t="inlineStr">
         <is>
           <t>Deltaproteobacteria</t>
         </is>
       </c>
-      <c r="BU4" s="1" t="inlineStr">
+      <c r="BV4" s="1" t="inlineStr">
         <is>
           <t>Alphaproteobacteria</t>
         </is>
       </c>
-      <c r="BV4" s="1" t="inlineStr">
+      <c r="BW4" s="1" t="inlineStr">
         <is>
           <t>Alphaproteobacteria</t>
         </is>
       </c>
-      <c r="BW4" s="1" t="inlineStr">
+      <c r="BX4" s="1" t="inlineStr">
         <is>
           <t>Alphaproteobacteria</t>
         </is>
       </c>
-      <c r="BX4" s="1" t="inlineStr">
+      <c r="BY4" s="1" t="inlineStr">
         <is>
           <t>Bacilli</t>
         </is>
       </c>
-      <c r="BY4" s="1" t="inlineStr">
+      <c r="BZ4" s="1" t="inlineStr">
         <is>
           <t>Deltaproteobacteria</t>
         </is>
       </c>
-      <c r="BZ4" s="1" t="inlineStr">
+      <c r="CA4" s="1" t="inlineStr">
         <is>
           <t>Actinobacteria</t>
         </is>
       </c>
-      <c r="CA4" s="1" t="inlineStr">
+      <c r="CB4" s="1" t="inlineStr">
         <is>
           <t>Clostridia</t>
         </is>
       </c>
-      <c r="CB4" s="1" t="inlineStr">
+      <c r="CC4" s="1" t="inlineStr">
         <is>
           <t>Spirochaetes</t>
         </is>
       </c>
-      <c r="CC4" s="1" t="inlineStr">
+      <c r="CD4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="CD4" s="1" t="inlineStr">
+      <c r="CE4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="CE4" s="1" t="inlineStr">
+      <c r="CF4" s="1" t="inlineStr">
         <is>
           <t>Anaerolineae</t>
         </is>
       </c>
-      <c r="CF4" s="1" t="inlineStr">
+      <c r="CG4" s="1" t="inlineStr">
         <is>
           <t>Deltaproteobacteria</t>
         </is>
       </c>
-      <c r="CG4" s="1" t="inlineStr">
+      <c r="CH4" s="1" t="inlineStr">
         <is>
           <t>Deltaproteobacteria</t>
         </is>
       </c>
-      <c r="CH4" s="1" t="inlineStr">
+      <c r="CI4" s="1" t="inlineStr">
         <is>
           <t>Betaproteobacteria</t>
         </is>
       </c>
-      <c r="CI4" s="1" t="inlineStr">
+      <c r="CJ4" s="1" t="inlineStr">
         <is>
           <t>Gammaproteobacteria</t>
         </is>
@@ -7630,165 +7650,170 @@
       </c>
       <c r="BC5" s="1" t="inlineStr">
         <is>
+          <t>Saprospirales</t>
+        </is>
+      </c>
+      <c r="BD5" s="1" t="inlineStr">
+        <is>
           <t>Holophagales</t>
         </is>
       </c>
-      <c r="BD5" s="1" t="inlineStr">
+      <c r="BE5" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales</t>
         </is>
       </c>
-      <c r="BE5" s="1" t="inlineStr">
+      <c r="BF5" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales</t>
         </is>
       </c>
-      <c r="BF5" s="1" t="inlineStr">
+      <c r="BG5" s="1" t="inlineStr">
         <is>
           <t>Rhizobiales</t>
         </is>
       </c>
-      <c r="BG5" s="1" t="inlineStr">
+      <c r="BH5" s="1" t="inlineStr">
         <is>
           <t>Actinomycetales</t>
         </is>
       </c>
-      <c r="BH5" s="1" t="inlineStr">
+      <c r="BI5" s="1" t="inlineStr">
         <is>
           <t>Nitrospirales</t>
         </is>
       </c>
-      <c r="BI5" s="1" t="inlineStr">
+      <c r="BJ5" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales</t>
         </is>
       </c>
-      <c r="BJ5" s="1" t="inlineStr">
+      <c r="BK5" s="1" t="inlineStr">
         <is>
           <t>Actinomycetales</t>
         </is>
       </c>
-      <c r="BK5" s="1" t="inlineStr">
+      <c r="BL5" s="1" t="inlineStr">
         <is>
           <t>Rhodocyclales</t>
         </is>
       </c>
-      <c r="BL5" s="1" t="inlineStr">
+      <c r="BM5" s="1" t="inlineStr">
         <is>
           <t>Pseudomonadales</t>
         </is>
       </c>
-      <c r="BM5" s="1" t="inlineStr">
+      <c r="BN5" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales</t>
         </is>
       </c>
-      <c r="BN5" s="1" t="inlineStr">
+      <c r="BO5" s="1" t="inlineStr">
         <is>
           <t>Xanthomonadales</t>
         </is>
       </c>
-      <c r="BO5" s="1" t="inlineStr">
+      <c r="BP5" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales</t>
         </is>
       </c>
-      <c r="BP5" s="1" t="inlineStr">
+      <c r="BQ5" s="1" t="inlineStr">
         <is>
           <t>Clostridiales</t>
         </is>
       </c>
-      <c r="BQ5" s="1" t="inlineStr">
+      <c r="BR5" s="1" t="inlineStr">
         <is>
           <t>Saprospirales</t>
         </is>
       </c>
-      <c r="BR5" s="1" t="inlineStr">
+      <c r="BS5" s="1" t="inlineStr">
         <is>
           <t>Xanthomonadales</t>
         </is>
       </c>
-      <c r="BS5" s="1" t="inlineStr">
+      <c r="BT5" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales</t>
         </is>
       </c>
-      <c r="BT5" s="1" t="inlineStr">
+      <c r="BU5" s="1" t="inlineStr">
         <is>
           <t>Syntrophobacterales</t>
         </is>
       </c>
-      <c r="BU5" s="1" t="inlineStr">
+      <c r="BV5" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadales</t>
         </is>
       </c>
-      <c r="BV5" s="1" t="inlineStr">
+      <c r="BW5" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadales</t>
         </is>
       </c>
-      <c r="BW5" s="1" t="inlineStr">
+      <c r="BX5" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadales</t>
         </is>
       </c>
-      <c r="BX5" s="1" t="inlineStr">
+      <c r="BY5" s="1" t="inlineStr">
         <is>
           <t>Bacillales</t>
         </is>
       </c>
-      <c r="BY5" s="1" t="inlineStr">
+      <c r="BZ5" s="1" t="inlineStr">
         <is>
           <t>Syntrophobacterales</t>
         </is>
       </c>
-      <c r="BZ5" s="1" t="inlineStr">
+      <c r="CA5" s="1" t="inlineStr">
         <is>
           <t>Actinomycetales</t>
         </is>
       </c>
-      <c r="CA5" s="1" t="inlineStr">
+      <c r="CB5" s="1" t="inlineStr">
         <is>
           <t>Clostridiales</t>
         </is>
       </c>
-      <c r="CB5" s="1" t="inlineStr">
+      <c r="CC5" s="1" t="inlineStr">
         <is>
           <t>Spirochaetales</t>
         </is>
       </c>
-      <c r="CC5" s="1" t="inlineStr">
+      <c r="CD5" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales</t>
         </is>
       </c>
-      <c r="CD5" s="1" t="inlineStr">
+      <c r="CE5" s="1" t="inlineStr">
         <is>
           <t>Burkholderiales</t>
         </is>
       </c>
-      <c r="CE5" s="1" t="inlineStr">
+      <c r="CF5" s="1" t="inlineStr">
         <is>
           <t>Anaerolineales</t>
         </is>
       </c>
-      <c r="CF5" s="1" t="inlineStr">
+      <c r="CG5" s="1" t="inlineStr">
         <is>
           <t>Desulfobacterales</t>
         </is>
       </c>
-      <c r="CG5" s="1" t="inlineStr">
+      <c r="CH5" s="1" t="inlineStr">
         <is>
           <t>Desulfobacterales</t>
         </is>
       </c>
-      <c r="CH5" s="1" t="inlineStr">
+      <c r="CI5" s="1" t="inlineStr">
         <is>
           <t>Gallionellales</t>
         </is>
       </c>
-      <c r="CI5" s="1" t="inlineStr">
+      <c r="CJ5" s="1" t="inlineStr">
         <is>
           <t>Alteromonadales</t>
         </is>
@@ -8055,165 +8080,170 @@
       </c>
       <c r="BC6" s="1" t="inlineStr">
         <is>
+          <t>Chitinophagaceae</t>
+        </is>
+      </c>
+      <c r="BD6" s="1" t="inlineStr">
+        <is>
           <t>Holophagaceae</t>
         </is>
       </c>
-      <c r="BD6" s="1" t="inlineStr">
+      <c r="BE6" s="1" t="inlineStr">
         <is>
           <t>Oxalobacteraceae</t>
         </is>
       </c>
-      <c r="BE6" s="1" t="inlineStr">
+      <c r="BF6" s="1" t="inlineStr">
         <is>
           <t>Comamonadaceae</t>
         </is>
       </c>
-      <c r="BF6" s="1" t="inlineStr">
+      <c r="BG6" s="1" t="inlineStr">
         <is>
           <t>Methylocystaceae</t>
         </is>
       </c>
-      <c r="BG6" s="1" t="inlineStr">
+      <c r="BH6" s="1" t="inlineStr">
         <is>
           <t>Micrococcaceae</t>
         </is>
       </c>
-      <c r="BH6" s="1" t="inlineStr">
+      <c r="BI6" s="1" t="inlineStr">
         <is>
           <t>Nitrospiraceae</t>
         </is>
       </c>
-      <c r="BI6" s="1" t="inlineStr">
+      <c r="BJ6" s="1" t="inlineStr">
         <is>
           <t>Alcaligenaceae</t>
         </is>
       </c>
-      <c r="BJ6" s="1" t="inlineStr">
+      <c r="BK6" s="1" t="inlineStr">
         <is>
           <t>Propionibacteriaceae</t>
         </is>
       </c>
-      <c r="BK6" s="1" t="inlineStr">
+      <c r="BL6" s="1" t="inlineStr">
         <is>
           <t>Rhodocyclaceae</t>
         </is>
       </c>
-      <c r="BL6" s="1" t="inlineStr">
+      <c r="BM6" s="1" t="inlineStr">
         <is>
           <t>Pseudomonadaceae</t>
         </is>
       </c>
-      <c r="BM6" s="1" t="inlineStr">
+      <c r="BN6" s="1" t="inlineStr">
         <is>
           <t>Comamonadaceae</t>
         </is>
       </c>
-      <c r="BN6" s="1" t="inlineStr">
+      <c r="BO6" s="1" t="inlineStr">
         <is>
           <t>Xanthomonadaceae</t>
         </is>
       </c>
-      <c r="BO6" s="1" t="inlineStr">
+      <c r="BP6" s="1" t="inlineStr">
         <is>
           <t>Oxalobacteraceae</t>
         </is>
       </c>
-      <c r="BP6" s="1" t="inlineStr">
+      <c r="BQ6" s="1" t="inlineStr">
         <is>
           <t>Hungateiclostridiaceae</t>
         </is>
       </c>
-      <c r="BQ6" s="1" t="inlineStr">
+      <c r="BR6" s="1" t="inlineStr">
         <is>
           <t>Chitinophagaceae</t>
         </is>
       </c>
-      <c r="BR6" s="1" t="inlineStr">
+      <c r="BS6" s="1" t="inlineStr">
         <is>
           <t>Xanthomonadaceae</t>
         </is>
       </c>
-      <c r="BS6" s="1" t="inlineStr">
+      <c r="BT6" s="1" t="inlineStr">
         <is>
           <t>Comamonadaceae</t>
         </is>
       </c>
-      <c r="BT6" s="1" t="inlineStr">
+      <c r="BU6" s="1" t="inlineStr">
         <is>
           <t>Syntrophaceae</t>
         </is>
       </c>
-      <c r="BU6" s="1" t="inlineStr">
+      <c r="BV6" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadaceae</t>
         </is>
       </c>
-      <c r="BV6" s="1" t="inlineStr">
+      <c r="BW6" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadaceae</t>
         </is>
       </c>
-      <c r="BW6" s="1" t="inlineStr">
+      <c r="BX6" s="1" t="inlineStr">
         <is>
           <t>Sphingomonadaceae</t>
         </is>
       </c>
-      <c r="BX6" s="1" t="inlineStr">
+      <c r="BY6" s="1" t="inlineStr">
         <is>
           <t>Staphylococcaceae</t>
         </is>
       </c>
-      <c r="BY6" s="1" t="inlineStr">
+      <c r="BZ6" s="1" t="inlineStr">
         <is>
           <t>Syntrophaceae</t>
         </is>
       </c>
-      <c r="BZ6" s="1" t="inlineStr">
+      <c r="CA6" s="1" t="inlineStr">
         <is>
           <t>Propionibacteriaceae</t>
         </is>
       </c>
-      <c r="CA6" s="1" t="inlineStr">
+      <c r="CB6" s="1" t="inlineStr">
         <is>
           <t>Peptococcaceae</t>
         </is>
       </c>
-      <c r="CB6" s="1" t="inlineStr">
+      <c r="CC6" s="1" t="inlineStr">
         <is>
           <t>Spirochaetaceae</t>
         </is>
       </c>
-      <c r="CC6" s="1" t="inlineStr">
+      <c r="CD6" s="1" t="inlineStr">
         <is>
           <t>Oxalobacteraceae</t>
         </is>
       </c>
-      <c r="CD6" s="1" t="inlineStr">
+      <c r="CE6" s="1" t="inlineStr">
         <is>
           <t>Comamonadaceae</t>
         </is>
       </c>
-      <c r="CE6" s="1" t="inlineStr">
+      <c r="CF6" s="1" t="inlineStr">
         <is>
           <t>Anaerolinaceae</t>
         </is>
       </c>
-      <c r="CF6" s="1" t="inlineStr">
+      <c r="CG6" s="1" t="inlineStr">
         <is>
           <t>Desulfobacteraceae</t>
         </is>
       </c>
-      <c r="CG6" s="1" t="inlineStr">
+      <c r="CH6" s="1" t="inlineStr">
         <is>
           <t>Desulfobulbaceae</t>
         </is>
       </c>
-      <c r="CH6" s="1" t="inlineStr">
+      <c r="CI6" s="1" t="inlineStr">
         <is>
           <t>Gallionellaceae</t>
         </is>
       </c>
-      <c r="CI6" s="1" t="inlineStr">
+      <c r="CJ6" s="1" t="inlineStr">
         <is>
           <t>Shewanellaceae</t>
         </is>
@@ -8480,165 +8510,170 @@
       </c>
       <c r="BC7" s="1" t="inlineStr">
         <is>
+          <t>Flavisolibacter</t>
+        </is>
+      </c>
+      <c r="BD7" s="1" t="inlineStr">
+        <is>
           <t>Geothrix</t>
         </is>
       </c>
-      <c r="BD7" s="1" t="inlineStr">
+      <c r="BE7" s="1" t="inlineStr">
         <is>
           <t>Herbaspirillum</t>
         </is>
       </c>
-      <c r="BE7" s="1" t="inlineStr">
+      <c r="BF7" s="1" t="inlineStr">
         <is>
           <t>Hydrogenophaga</t>
         </is>
       </c>
-      <c r="BF7" s="1" t="inlineStr">
+      <c r="BG7" s="1" t="inlineStr">
         <is>
           <t>Methylocystis</t>
         </is>
       </c>
-      <c r="BG7" s="1" t="inlineStr">
+      <c r="BH7" s="1" t="inlineStr">
         <is>
           <t>Micrococcus</t>
         </is>
       </c>
-      <c r="BH7" s="1" t="inlineStr">
+      <c r="BI7" s="1" t="inlineStr">
         <is>
           <t>Nitrospira</t>
         </is>
       </c>
-      <c r="BI7" s="1" t="inlineStr">
+      <c r="BJ7" s="1" t="inlineStr">
         <is>
           <t>Phreatobacter</t>
         </is>
       </c>
-      <c r="BJ7" s="1" t="inlineStr">
+      <c r="BK7" s="1" t="inlineStr">
         <is>
           <t>Propionibacterium</t>
         </is>
       </c>
-      <c r="BK7" s="1" t="inlineStr">
+      <c r="BL7" s="1" t="inlineStr">
         <is>
           <t>Propionivibrio</t>
         </is>
       </c>
-      <c r="BL7" s="1" t="inlineStr">
+      <c r="BM7" s="1" t="inlineStr">
         <is>
           <t>Pseudomonas</t>
         </is>
       </c>
-      <c r="BM7" s="1" t="inlineStr">
+      <c r="BN7" s="1" t="inlineStr">
         <is>
           <t>Pseudorhodoferax</t>
         </is>
       </c>
-      <c r="BN7" s="1" t="inlineStr">
+      <c r="BO7" s="1" t="inlineStr">
         <is>
           <t>Pseudoxanthomonas</t>
         </is>
       </c>
-      <c r="BO7" s="1" t="inlineStr">
+      <c r="BP7" s="1" t="inlineStr">
         <is>
           <t>Ralstonia</t>
         </is>
       </c>
-      <c r="BP7" s="1" t="inlineStr">
+      <c r="BQ7" s="1" t="inlineStr">
         <is>
           <t>Ruminiclostridium_1</t>
         </is>
       </c>
-      <c r="BQ7" s="1" t="inlineStr">
+      <c r="BR7" s="1" t="inlineStr">
         <is>
           <t>Sediminibacterium</t>
         </is>
       </c>
-      <c r="BR7" s="1" t="inlineStr">
+      <c r="BS7" s="1" t="inlineStr">
         <is>
           <t>Silanimonas</t>
         </is>
       </c>
-      <c r="BS7" s="1" t="inlineStr">
+      <c r="BT7" s="1" t="inlineStr">
         <is>
           <t>Simplicispira</t>
         </is>
       </c>
-      <c r="BT7" s="1" t="inlineStr">
+      <c r="BU7" s="1" t="inlineStr">
         <is>
           <t>Smithella</t>
         </is>
       </c>
-      <c r="BU7" s="1" t="inlineStr">
+      <c r="BV7" s="1" t="inlineStr">
         <is>
           <t>Sphingobium</t>
         </is>
       </c>
-      <c r="BV7" s="1" t="inlineStr">
+      <c r="BW7" s="1" t="inlineStr">
         <is>
           <t>Sphingomonas</t>
         </is>
       </c>
-      <c r="BW7" s="1" t="inlineStr">
+      <c r="BX7" s="1" t="inlineStr">
         <is>
           <t>Sphingopyxis</t>
         </is>
       </c>
-      <c r="BX7" s="1" t="inlineStr">
+      <c r="BY7" s="1" t="inlineStr">
         <is>
           <t>Staphylococcus</t>
         </is>
       </c>
-      <c r="BY7" s="1" t="inlineStr">
+      <c r="BZ7" s="1" t="inlineStr">
         <is>
           <t>Syntrophus</t>
         </is>
       </c>
-      <c r="BZ7" s="1" t="inlineStr">
+      <c r="CA7" s="1" t="inlineStr">
         <is>
           <t>Tessaracoccus</t>
         </is>
       </c>
-      <c r="CA7" s="1" t="inlineStr">
+      <c r="CB7" s="1" t="inlineStr">
         <is>
           <t>Thermincola</t>
         </is>
       </c>
-      <c r="CB7" s="1" t="inlineStr">
+      <c r="CC7" s="1" t="inlineStr">
         <is>
           <t>Treponema</t>
         </is>
       </c>
-      <c r="CC7" s="1" t="inlineStr">
+      <c r="CD7" s="1" t="inlineStr">
         <is>
           <t>Oxalobacteraceae_unclassified</t>
         </is>
       </c>
-      <c r="CD7" s="1" t="inlineStr">
+      <c r="CE7" s="1" t="inlineStr">
         <is>
           <t>Variovorax</t>
         </is>
       </c>
-      <c r="CE7" s="1" t="inlineStr">
+      <c r="CF7" s="1" t="inlineStr">
         <is>
           <t>Wchb1-05</t>
         </is>
       </c>
-      <c r="CF7" s="1" t="inlineStr">
+      <c r="CG7" s="1" t="inlineStr">
         <is>
           <t>Desulfobacterium</t>
         </is>
       </c>
-      <c r="CG7" s="1" t="inlineStr">
+      <c r="CH7" s="1" t="inlineStr">
         <is>
           <t>Desulfobulbus</t>
         </is>
       </c>
-      <c r="CH7" s="1" t="inlineStr">
+      <c r="CI7" s="1" t="inlineStr">
         <is>
           <t>Gallionella</t>
         </is>
       </c>
-      <c r="CI7" s="1" t="inlineStr">
+      <c r="CJ7" s="1" t="inlineStr">
         <is>
           <t>Shewanella</t>
         </is>
@@ -8905,165 +8940,170 @@
       </c>
       <c r="BC8" s="1" t="inlineStr">
         <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="BD8" s="1" t="inlineStr">
+        <is>
           <t>344</t>
         </is>
       </c>
-      <c r="BD8" s="1" t="inlineStr">
+      <c r="BE8" s="1" t="inlineStr">
         <is>
           <t>360</t>
         </is>
       </c>
-      <c r="BE8" s="1" t="inlineStr">
+      <c r="BF8" s="1" t="inlineStr">
         <is>
           <t>371</t>
         </is>
       </c>
-      <c r="BF8" s="1" t="inlineStr">
+      <c r="BG8" s="1" t="inlineStr">
         <is>
           <t>449</t>
         </is>
       </c>
-      <c r="BG8" s="1" t="inlineStr">
+      <c r="BH8" s="1" t="inlineStr">
         <is>
           <t>462</t>
         </is>
       </c>
-      <c r="BH8" s="1" t="inlineStr">
+      <c r="BI8" s="1" t="inlineStr">
         <is>
           <t>484</t>
         </is>
       </c>
-      <c r="BI8" s="1" t="inlineStr">
+      <c r="BJ8" s="1" t="inlineStr">
         <is>
           <t>550</t>
         </is>
       </c>
-      <c r="BJ8" s="1" t="inlineStr">
+      <c r="BK8" s="1" t="inlineStr">
         <is>
           <t>572</t>
         </is>
       </c>
-      <c r="BK8" s="1" t="inlineStr">
+      <c r="BL8" s="1" t="inlineStr">
         <is>
           <t>575</t>
         </is>
       </c>
-      <c r="BL8" s="1" t="inlineStr">
+      <c r="BM8" s="1" t="inlineStr">
         <is>
           <t>587</t>
         </is>
       </c>
-      <c r="BM8" s="1" t="inlineStr">
+      <c r="BN8" s="1" t="inlineStr">
         <is>
           <t>589</t>
         </is>
       </c>
-      <c r="BN8" s="1" t="inlineStr">
+      <c r="BO8" s="1" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="BO8" s="1" t="inlineStr">
+      <c r="BP8" s="1" t="inlineStr">
         <is>
           <t>596</t>
         </is>
       </c>
-      <c r="BP8" s="1" t="inlineStr">
+      <c r="BQ8" s="1" t="inlineStr">
         <is>
           <t>634</t>
         </is>
       </c>
-      <c r="BQ8" s="1" t="inlineStr">
+      <c r="BR8" s="1" t="inlineStr">
         <is>
           <t>647</t>
         </is>
       </c>
-      <c r="BR8" s="1" t="inlineStr">
+      <c r="BS8" s="1" t="inlineStr">
         <is>
           <t>659</t>
         </is>
       </c>
-      <c r="BS8" s="1" t="inlineStr">
+      <c r="BT8" s="1" t="inlineStr">
         <is>
           <t>660</t>
         </is>
       </c>
-      <c r="BT8" s="1" t="inlineStr">
+      <c r="BU8" s="1" t="inlineStr">
         <is>
           <t>664</t>
         </is>
       </c>
-      <c r="BU8" s="1" t="inlineStr">
+      <c r="BV8" s="1" t="inlineStr">
         <is>
           <t>671</t>
         </is>
       </c>
-      <c r="BV8" s="1" t="inlineStr">
+      <c r="BW8" s="1" t="inlineStr">
         <is>
           <t>674</t>
         </is>
       </c>
-      <c r="BW8" s="1" t="inlineStr">
+      <c r="BX8" s="1" t="inlineStr">
         <is>
           <t>676</t>
         </is>
       </c>
-      <c r="BX8" s="1" t="inlineStr">
+      <c r="BY8" s="1" t="inlineStr">
         <is>
           <t>683</t>
         </is>
       </c>
-      <c r="BY8" s="1" t="inlineStr">
+      <c r="BZ8" s="1" t="inlineStr">
         <is>
           <t>705</t>
         </is>
       </c>
-      <c r="BZ8" s="1" t="inlineStr">
+      <c r="CA8" s="1" t="inlineStr">
         <is>
           <t>715</t>
         </is>
       </c>
-      <c r="CA8" s="1" t="inlineStr">
+      <c r="CB8" s="1" t="inlineStr">
         <is>
           <t>719</t>
         </is>
       </c>
-      <c r="CB8" s="1" t="inlineStr">
+      <c r="CC8" s="1" t="inlineStr">
         <is>
           <t>731</t>
         </is>
       </c>
-      <c r="CC8" s="1" t="inlineStr">
+      <c r="CD8" s="1" t="inlineStr">
         <is>
           <t>853</t>
         </is>
       </c>
-      <c r="CD8" s="1" t="inlineStr">
+      <c r="CE8" s="1" t="inlineStr">
         <is>
           <t>863</t>
         </is>
       </c>
-      <c r="CE8" s="1" t="inlineStr">
+      <c r="CF8" s="1" t="inlineStr">
         <is>
           <t>867</t>
         </is>
       </c>
-      <c r="CF8" s="1" t="inlineStr">
+      <c r="CG8" s="1" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="CG8" s="1" t="inlineStr">
+      <c r="CH8" s="1" t="inlineStr">
         <is>
           <t>265</t>
         </is>
       </c>
-      <c r="CH8" s="1" t="inlineStr">
+      <c r="CI8" s="1" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="CI8" s="1" t="inlineStr">
+      <c r="CJ8" s="1" t="inlineStr">
         <is>
           <t>656</t>
         </is>
@@ -9235,74 +9275,74 @@
         <v>1.055579491598449</v>
       </c>
       <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
         <v>0.0215424386040499</v>
       </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
         <v>2.477380439465747</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BH10" t="n">
         <v>0.6247307195174493</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BI10" t="n">
         <v>0.0215424386040499</v>
       </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
         <v>4.782421370099095</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BL10" t="n">
         <v>0.0430848772080999</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BM10" t="n">
         <v>5.277897457992245</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BN10" t="n">
         <v>0.06462731581214989</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BO10" t="n">
         <v>3.059026281775097</v>
       </c>
-      <c r="BO10" t="n">
-        <v>0</v>
-      </c>
       <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>0.0215424386040499</v>
       </c>
-      <c r="BQ10" t="n">
-        <v>0</v>
-      </c>
       <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
         <v>0.1077121930202499</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BT10" t="n">
         <v>1.529513140887549</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BU10" t="n">
         <v>3.446790176647997</v>
       </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
       <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
         <v>0.2800517018526497</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BX10" t="n">
         <v>0.5385609651012494</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BY10" t="n">
         <v>0.7324429125376993</v>
       </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ10" t="n">
         <v>0</v>
       </c>
@@ -9316,21 +9356,24 @@
         <v>0</v>
       </c>
       <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
         <v>1.658767772511848</v>
       </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
         <v>0.1723395088323998</v>
       </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
       <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
         <v>0.1077121930202499</v>
       </c>
     </row>
@@ -9509,35 +9552,35 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
         <v>1.897173211914248</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BH11" t="n">
         <v>5.444887118193891</v>
       </c>
-      <c r="BH11" t="n">
-        <v>0</v>
-      </c>
       <c r="BI11" t="n">
         <v>0</v>
       </c>
       <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
         <v>21.305255169797</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BL11" t="n">
         <v>0.03794346423828496</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BM11" t="n">
         <v>3.471826977803073</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BN11" t="n">
         <v>0.01897173211914248</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BO11" t="n">
         <v>3.073420603301081</v>
       </c>
-      <c r="BO11" t="n">
-        <v>0</v>
-      </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
@@ -9545,29 +9588,29 @@
         <v>0</v>
       </c>
       <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
         <v>0.1517738569531398</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BT11" t="n">
         <v>0.910643141718839</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BU11" t="n">
         <v>5.995067349649022</v>
       </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
       <c r="BV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW11" t="n">
         <v>3.225194460254222</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="BX11" t="n">
         <v>0.398406374501992</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="BY11" t="n">
         <v>2.712957693037374</v>
       </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ11" t="n">
         <v>0</v>
       </c>
@@ -9581,21 +9624,24 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
         <v>2.162777461582242</v>
       </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
         <v>0.01897173211914248</v>
       </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
       <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
         <v>0.1328021248339973</v>
       </c>
     </row>
@@ -9765,44 +9811,44 @@
         <v>0.3068990915786889</v>
       </c>
       <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
         <v>0.03682789098944267</v>
       </c>
-      <c r="BD12" t="n">
-        <v>0</v>
-      </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
         <v>2.504296587282102</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BH12" t="n">
         <v>0.9820770930518046</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BI12" t="n">
         <v>0.01227596366314756</v>
       </c>
-      <c r="BI12" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
         <v>19.62926589737294</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BL12" t="n">
         <v>0.06137981831573779</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BM12" t="n">
         <v>2.062361895408789</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BN12" t="n">
         <v>0.03682789098944267</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BO12" t="n">
         <v>3.707341026270562</v>
       </c>
-      <c r="BO12" t="n">
-        <v>0</v>
-      </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
@@ -9810,29 +9856,29 @@
         <v>0</v>
       </c>
       <c r="BR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="n">
         <v>0.1473115639577707</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BT12" t="n">
         <v>1.05573287503069</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BU12" t="n">
         <v>2.430640805303216</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BV12" t="n">
         <v>0.03682789098944267</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BW12" t="n">
         <v>1.878222440461576</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="BX12" t="n">
         <v>6.174809722563221</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="BY12" t="n">
         <v>1.829118585808986</v>
       </c>
-      <c r="BY12" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ12" t="n">
         <v>0</v>
       </c>
@@ -9846,11 +9892,11 @@
         <v>0</v>
       </c>
       <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
         <v>0.8102136017677388</v>
       </c>
-      <c r="CE12" t="n">
-        <v>0</v>
-      </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
@@ -9861,6 +9907,9 @@
         <v>0</v>
       </c>
       <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
         <v>0.1350356002946231</v>
       </c>
     </row>
@@ -10030,102 +10079,105 @@
         <v>0.2380060383013421</v>
       </c>
       <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
         <v>0.004407519227802631</v>
       </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
       <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
         <v>0.002203759613901316</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BG13" t="n">
         <v>1.668246027723296</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BH13" t="n">
         <v>1.45668510478877</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0.004407519227802631</v>
       </c>
       <c r="BI13" t="n">
         <v>0.004407519227802631</v>
       </c>
       <c r="BJ13" t="n">
+        <v>0.004407519227802631</v>
+      </c>
+      <c r="BK13" t="n">
         <v>24.96859642550191</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BL13" t="n">
         <v>0.01763007691121053</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BM13" t="n">
         <v>1.463296383630474</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BN13" t="n">
         <v>0.02203759613901316</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BO13" t="n">
         <v>2.637900257839875</v>
       </c>
-      <c r="BO13" t="n">
-        <v>0</v>
-      </c>
       <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
         <v>0.002203759613901316</v>
       </c>
-      <c r="BQ13" t="n">
-        <v>0</v>
-      </c>
       <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
         <v>0.07933534610044736</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BT13" t="n">
         <v>0.9277827974524538</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BU13" t="n">
         <v>2.11120171011746</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="BV13" t="n">
         <v>0.01101879806950658</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="BW13" t="n">
         <v>0.2622473940542566</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="BX13" t="n">
         <v>0.4407519227802632</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="BY13" t="n">
         <v>8.266302311743836</v>
       </c>
-      <c r="BY13" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
         <v>0.002203759613901316</v>
       </c>
-      <c r="CA13" t="n">
-        <v>0</v>
-      </c>
       <c r="CB13" t="n">
         <v>0</v>
       </c>
       <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
         <v>0.002203759613901316</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="CE13" t="n">
         <v>1.536020450889217</v>
       </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
       <c r="CF13" t="n">
         <v>0</v>
       </c>
       <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
         <v>0.006611278841703947</v>
       </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
       <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
         <v>1.328867047182493</v>
       </c>
     </row>
@@ -10295,80 +10347,80 @@
         <v>1.043622308117062</v>
       </c>
       <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
         <v>0.007362414872078041</v>
       </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
       <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
         <v>0.005521811154058531</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BG14" t="n">
         <v>2.904472667034788</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BH14" t="n">
         <v>2.1792748021351</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BI14" t="n">
         <v>0.01472482974415608</v>
       </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
         <v>19.97975335910179</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BL14" t="n">
         <v>0.04785569666850727</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BM14" t="n">
         <v>2.40750966316952</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BN14" t="n">
         <v>0.04969630038652678</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BO14" t="n">
         <v>4.301490889011596</v>
       </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
         <v>0.003681207436039021</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BS14" t="n">
         <v>0.1049144119271121</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BT14" t="n">
         <v>1.362046751334438</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BU14" t="n">
         <v>3.313086692435119</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="BV14" t="n">
         <v>0.02760905577029266</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="BW14" t="n">
         <v>0.5282532670715995</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="BX14" t="n">
         <v>0.6626173384870238</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="BY14" t="n">
         <v>2.354132155346954</v>
       </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
         <v>0.00184060371801951</v>
       </c>
-      <c r="CA14" t="n">
-        <v>0</v>
-      </c>
       <c r="CB14" t="n">
         <v>0</v>
       </c>
@@ -10376,21 +10428,24 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
         <v>0.8374746916988772</v>
       </c>
-      <c r="CE14" t="n">
-        <v>0</v>
-      </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
         <v>0.01840603718019511</v>
       </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
       <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
         <v>0.1656543346217559</v>
       </c>
     </row>
@@ -10575,11 +10630,11 @@
         <v>0</v>
       </c>
       <c r="BH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="n">
         <v>25.33</v>
       </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ15" t="n">
         <v>0</v>
       </c>
@@ -10593,11 +10648,11 @@
         <v>0</v>
       </c>
       <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
         <v>7.37</v>
       </c>
-      <c r="BO15" t="n">
-        <v>0</v>
-      </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
@@ -10605,23 +10660,23 @@
         <v>0</v>
       </c>
       <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
         <v>1.49</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BT15" t="n">
         <v>2.71</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="BU15" t="n">
         <v>13.49</v>
       </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
       <c r="BV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="n">
         <v>3.6</v>
       </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
@@ -10632,20 +10687,20 @@
         <v>0</v>
       </c>
       <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
         <v>5.01</v>
       </c>
-      <c r="CB15" t="n">
-        <v>0</v>
-      </c>
       <c r="CC15" t="n">
         <v>0</v>
       </c>
       <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
         <v>0.98</v>
       </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
       <c r="CF15" t="n">
         <v>0</v>
       </c>
@@ -10656,6 +10711,9 @@
         <v>0</v>
       </c>
       <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10825,80 +10883,80 @@
         <v>0.5311022189887232</v>
       </c>
       <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
         <v>0.00242512428761974</v>
       </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
       <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
         <v>0.007275372862859222</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BG16" t="n">
         <v>2.238389717473021</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BH16" t="n">
         <v>0.5771795804534983</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BI16" t="n">
         <v>0.004850248575239481</v>
       </c>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
         <v>4.927852552443312</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BL16" t="n">
         <v>0.05335273432763429</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BM16" t="n">
         <v>2.929550139444647</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BN16" t="n">
         <v>0.03395174002667636</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BO16" t="n">
         <v>4.568934157875591</v>
       </c>
-      <c r="BO16" t="n">
-        <v>0</v>
-      </c>
       <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
         <v>0.00242512428761974</v>
       </c>
-      <c r="BQ16" t="n">
-        <v>0</v>
-      </c>
       <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
         <v>0.08002910149145144</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BT16" t="n">
         <v>9.959985449254274</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="BU16" t="n">
         <v>47.39662907724021</v>
       </c>
-      <c r="BU16" t="n">
+      <c r="BV16" t="n">
         <v>0.01940099430095792</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="BW16" t="n">
         <v>0.3516430217048624</v>
       </c>
-      <c r="BW16" t="n">
+      <c r="BX16" t="n">
         <v>0.6232569419182733</v>
       </c>
-      <c r="BX16" t="n">
+      <c r="BY16" t="n">
         <v>0.7736146477506972</v>
       </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
         <v>0.00242512428761974</v>
       </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
       <c r="CB16" t="n">
         <v>0</v>
       </c>
@@ -10906,21 +10964,24 @@
         <v>0</v>
       </c>
       <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
         <v>3.050806353825634</v>
       </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
       <c r="CF16" t="n">
         <v>0</v>
       </c>
       <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
         <v>0.04607736146477507</v>
       </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
       <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
         <v>0.1164059658057476</v>
       </c>
     </row>
@@ -11099,17 +11160,17 @@
         <v>0</v>
       </c>
       <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
         <v>1.28</v>
       </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
       <c r="BH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="n">
         <v>6.94</v>
       </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
@@ -11132,11 +11193,11 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
         <v>1.18</v>
       </c>
-      <c r="BR17" t="n">
-        <v>0</v>
-      </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
@@ -11147,11 +11208,11 @@
         <v>0</v>
       </c>
       <c r="BV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="n">
         <v>1.48</v>
       </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
       <c r="BX17" t="n">
         <v>0</v>
       </c>
@@ -11162,11 +11223,11 @@
         <v>0</v>
       </c>
       <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
         <v>28.73</v>
       </c>
-      <c r="CB17" t="n">
-        <v>0</v>
-      </c>
       <c r="CC17" t="n">
         <v>0</v>
       </c>
@@ -11183,9 +11244,12 @@
         <v>0</v>
       </c>
       <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
         <v>1.5</v>
       </c>
-      <c r="CI17" t="n">
+      <c r="CJ17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11355,74 +11419,74 @@
         <v>0.3036798856734548</v>
       </c>
       <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
         <v>0.08634035965225675</v>
       </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
       <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
         <v>0.008931761343336906</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BG18" t="n">
         <v>30.89198523282124</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BH18" t="n">
         <v>0.5984280100035727</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BI18" t="n">
         <v>0.1042038823389306</v>
       </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
         <v>5.442419911873288</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BL18" t="n">
         <v>0.08038585209003216</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BM18" t="n">
         <v>2.81945933071335</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BN18" t="n">
         <v>0.1488626890556151</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BO18" t="n">
         <v>5.394783851375491</v>
       </c>
-      <c r="BO18" t="n">
-        <v>0</v>
-      </c>
       <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
         <v>0.02084077646778611</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BR18" t="n">
         <v>0.02977253781112302</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BS18" t="n">
         <v>0.1786352268667381</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BT18" t="n">
         <v>1.607717041800643</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BU18" t="n">
         <v>4.510539478385137</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="BV18" t="n">
         <v>0.03274979159223532</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="BW18" t="n">
         <v>0.6133142789091341</v>
       </c>
-      <c r="BW18" t="n">
+      <c r="BX18" t="n">
         <v>0.8395855662736691</v>
       </c>
-      <c r="BX18" t="n">
+      <c r="BY18" t="n">
         <v>0.7711087293080862</v>
       </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ18" t="n">
         <v>0</v>
       </c>
@@ -11433,24 +11497,27 @@
         <v>0</v>
       </c>
       <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
         <v>0.005954507562224604</v>
       </c>
-      <c r="CD18" t="n">
+      <c r="CE18" t="n">
         <v>1.083720376324878</v>
       </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
       <c r="CF18" t="n">
         <v>0</v>
       </c>
       <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
         <v>0.008931761343336906</v>
       </c>
-      <c r="CH18" t="n">
+      <c r="CI18" t="n">
         <v>0.002977253781112302</v>
       </c>
-      <c r="CI18" t="n">
+      <c r="CJ18" t="n">
         <v>0.1994760033345242</v>
       </c>
     </row>
@@ -11629,11 +11696,11 @@
         <v>0</v>
       </c>
       <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
         <v>11.73</v>
       </c>
-      <c r="BG19" t="n">
-        <v>0</v>
-      </c>
       <c r="BH19" t="n">
         <v>0</v>
       </c>
@@ -11662,11 +11729,11 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
         <v>0.54</v>
       </c>
-      <c r="BR19" t="n">
-        <v>0</v>
-      </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
@@ -11674,14 +11741,14 @@
         <v>0</v>
       </c>
       <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
         <v>0.79</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="BW19" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
       <c r="BX19" t="n">
         <v>0</v>
       </c>
@@ -11716,6 +11783,9 @@
         <v>0</v>
       </c>
       <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11885,38 +11955,38 @@
         <v>0</v>
       </c>
       <c r="BC20" t="n">
-        <v>0</v>
+        <v>1.407009465336403</v>
       </c>
       <c r="BD20" t="n">
         <v>0</v>
       </c>
       <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
         <v>0.1279099513942185</v>
       </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
       <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="n">
         <v>0.0255819902788437</v>
       </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
       <c r="BI20" t="n">
         <v>0</v>
       </c>
       <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
         <v>20.64466615502686</v>
       </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
       <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
         <v>1.893067280634433</v>
       </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
       <c r="BN20" t="n">
         <v>0</v>
       </c>
@@ -11927,11 +11997,11 @@
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
         <v>10.71885392683551</v>
       </c>
-      <c r="BR20" t="n">
-        <v>0</v>
-      </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
@@ -11939,41 +12009,41 @@
         <v>0</v>
       </c>
       <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
         <v>1.534919416730621</v>
       </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
       <c r="BW20" t="n">
         <v>0</v>
       </c>
       <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
         <v>0.0255819902788437</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="BZ20" t="n">
         <v>3.453568687643899</v>
       </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
       <c r="CA20" t="n">
         <v>0</v>
       </c>
       <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
         <v>21.84701969813251</v>
       </c>
-      <c r="CC20" t="n">
-        <v>0</v>
-      </c>
       <c r="CD20" t="n">
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0.1534919416730622</v>
       </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
       <c r="CG20" t="n">
         <v>0</v>
       </c>
@@ -11981,6 +12051,9 @@
         <v>0</v>
       </c>
       <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12150,53 +12223,53 @@
         <v>0</v>
       </c>
       <c r="BC21" t="n">
+        <v>0.02581844469689146</v>
+      </c>
+      <c r="BD21" t="n">
         <v>0.01290922234844573</v>
       </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
       <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
         <v>0.2168749354538883</v>
       </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
       <c r="BG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" t="n">
         <v>0.005163688939378292</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BI21" t="n">
         <v>0.002581844469689146</v>
       </c>
-      <c r="BI21" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
         <v>0.7668078074976764</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BL21" t="n">
         <v>4.859031291954972</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BM21" t="n">
         <v>5.486419498089435</v>
       </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
       <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
         <v>0.3769492925746153</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BP21" t="n">
         <v>0.01032737787875658</v>
       </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
         <v>1.988020241660642</v>
       </c>
-      <c r="BR21" t="n">
-        <v>0</v>
-      </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
@@ -12204,48 +12277,51 @@
         <v>0</v>
       </c>
       <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
         <v>2.243622844159868</v>
       </c>
-      <c r="BV21" t="n">
+      <c r="BW21" t="n">
         <v>0.01807291128782402</v>
       </c>
-      <c r="BW21" t="n">
+      <c r="BX21" t="n">
         <v>0.03614582257564804</v>
       </c>
-      <c r="BX21" t="n">
+      <c r="BY21" t="n">
         <v>0.005163688939378292</v>
       </c>
-      <c r="BY21" t="n">
+      <c r="BZ21" t="n">
         <v>2.47857069090158</v>
       </c>
-      <c r="BZ21" t="n">
+      <c r="CA21" t="n">
         <v>0.0335639781059589</v>
       </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
       <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
         <v>16.96530001032738</v>
       </c>
-      <c r="CC21" t="n">
-        <v>0</v>
-      </c>
       <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
         <v>0.002581844469689146</v>
       </c>
-      <c r="CE21" t="n">
+      <c r="CF21" t="n">
         <v>20.72188371372508</v>
       </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
       <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
         <v>0.02840028916658061</v>
       </c>
-      <c r="CH21" t="n">
+      <c r="CI21" t="n">
         <v>0.0335639781059589</v>
       </c>
-      <c r="CI21" t="n">
+      <c r="CJ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12415,53 +12491,53 @@
         <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>0</v>
+        <v>25.16871774513696</v>
       </c>
       <c r="BD22" t="n">
         <v>0</v>
       </c>
       <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
         <v>0.03969829297340214</v>
       </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
       <c r="BG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH22" t="n">
         <v>0.03969829297340214</v>
       </c>
-      <c r="BH22" t="n">
+      <c r="BI22" t="n">
         <v>0.1587931718936086</v>
       </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
         <v>2.77888050813815</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BL22" t="n">
         <v>0.09924573243350536</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BM22" t="n">
         <v>2.818578801111552</v>
       </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
       <c r="BN22" t="n">
         <v>0</v>
       </c>
       <c r="BO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="n">
         <v>0.01984914648670107</v>
       </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR22" t="n">
         <v>23.89837236998809</v>
       </c>
-      <c r="BR22" t="n">
-        <v>0</v>
-      </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
@@ -12469,41 +12545,41 @@
         <v>0</v>
       </c>
       <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
         <v>1.032155617308456</v>
       </c>
-      <c r="BV22" t="n">
+      <c r="BW22" t="n">
         <v>0.1389440254069075</v>
       </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
       <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
         <v>0.03969829297340214</v>
       </c>
-      <c r="BY22" t="n">
+      <c r="BZ22" t="n">
         <v>0.5160778086542279</v>
       </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
       <c r="CA22" t="n">
         <v>0</v>
       </c>
       <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
         <v>3.533148074632791</v>
       </c>
-      <c r="CC22" t="n">
-        <v>0</v>
-      </c>
       <c r="CD22" t="n">
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0.3374354902739182</v>
       </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
       <c r="CG22" t="n">
         <v>0</v>
       </c>
@@ -12511,6 +12587,9 @@
         <v>0</v>
       </c>
       <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12680,38 +12759,38 @@
         <v>0</v>
       </c>
       <c r="BC23" t="n">
-        <v>0</v>
+        <v>0.5711406013774567</v>
       </c>
       <c r="BD23" t="n">
         <v>0</v>
       </c>
       <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
         <v>0.01679825298168991</v>
       </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
       <c r="BG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" t="n">
         <v>0.352763312615488</v>
       </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
       <c r="BI23" t="n">
         <v>0</v>
       </c>
       <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
         <v>26.17167814547287</v>
       </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
       <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
         <v>1.293465479590123</v>
       </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
       <c r="BN23" t="n">
         <v>0</v>
       </c>
@@ -12722,11 +12801,11 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR23" t="n">
         <v>1.293465479590123</v>
       </c>
-      <c r="BR23" t="n">
-        <v>0</v>
-      </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
@@ -12734,41 +12813,41 @@
         <v>0</v>
       </c>
       <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
         <v>0.3359650596337981</v>
       </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
       <c r="BW23" t="n">
         <v>0</v>
       </c>
       <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
         <v>0.1175877708718293</v>
       </c>
-      <c r="BY23" t="n">
+      <c r="BZ23" t="n">
         <v>0.3023685536704183</v>
       </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
       <c r="CA23" t="n">
         <v>0</v>
       </c>
       <c r="CB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="n">
         <v>0.9910969259197042</v>
       </c>
-      <c r="CC23" t="n">
-        <v>0</v>
-      </c>
       <c r="CD23" t="n">
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0.1343860238535192</v>
       </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
       <c r="CG23" t="n">
         <v>0</v>
       </c>
@@ -12776,6 +12855,9 @@
         <v>0</v>
       </c>
       <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12945,38 +13027,38 @@
         <v>0</v>
       </c>
       <c r="BC24" t="n">
-        <v>0</v>
+        <v>1.072837486769941</v>
       </c>
       <c r="BD24" t="n">
         <v>0</v>
       </c>
       <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
         <v>0.08659674781102665</v>
       </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
       <c r="BG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" t="n">
         <v>0.02405465216972963</v>
       </c>
-      <c r="BH24" t="n">
+      <c r="BI24" t="n">
         <v>0.004810930433945925</v>
       </c>
-      <c r="BI24" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
         <v>32.90195323775618</v>
       </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
       <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
         <v>5.162128355623977</v>
       </c>
-      <c r="BM24" t="n">
-        <v>0</v>
-      </c>
       <c r="BN24" t="n">
         <v>0</v>
       </c>
@@ -12987,11 +13069,11 @@
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="n">
         <v>2.07832194746464</v>
       </c>
-      <c r="BR24" t="n">
-        <v>0</v>
-      </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
@@ -12999,41 +13081,41 @@
         <v>0</v>
       </c>
       <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
         <v>0.4955258346964302</v>
       </c>
-      <c r="BV24" t="n">
+      <c r="BW24" t="n">
         <v>0.00962186086789185</v>
       </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
       <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
         <v>0.1587607043202156</v>
       </c>
-      <c r="BY24" t="n">
+      <c r="BZ24" t="n">
         <v>0.3463869912441066</v>
       </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
       <c r="CA24" t="n">
         <v>0</v>
       </c>
       <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
         <v>1.193110747618589</v>
       </c>
-      <c r="CC24" t="n">
-        <v>0</v>
-      </c>
       <c r="CD24" t="n">
         <v>0</v>
       </c>
       <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
         <v>0.1058404695468103</v>
       </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
       <c r="CG24" t="n">
         <v>0</v>
       </c>
@@ -13041,6 +13123,9 @@
         <v>0</v>
       </c>
       <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13210,53 +13295,53 @@
         <v>0</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
+        <v>12.09019397078223</v>
       </c>
       <c r="BD25" t="n">
         <v>0</v>
       </c>
       <c r="BE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF25" t="n">
         <v>0.1074901060243318</v>
       </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
       <c r="BG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" t="n">
         <v>0.02442956955098451</v>
       </c>
-      <c r="BH25" t="n">
+      <c r="BI25" t="n">
         <v>0.01221478477549226</v>
       </c>
-      <c r="BI25" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
         <v>2.398983729906679</v>
       </c>
-      <c r="BK25" t="n">
+      <c r="BL25" t="n">
         <v>0.007328870865295353</v>
       </c>
-      <c r="BL25" t="n">
+      <c r="BM25" t="n">
         <v>3.466555919284702</v>
       </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
       <c r="BN25" t="n">
         <v>0</v>
       </c>
       <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
         <v>0.03420139737137832</v>
       </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR25" t="n">
         <v>31.08907021058289</v>
       </c>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
@@ -13264,41 +13349,41 @@
         <v>0</v>
       </c>
       <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
         <v>1.353398153124542</v>
       </c>
-      <c r="BV25" t="n">
+      <c r="BW25" t="n">
         <v>0.01954365564078761</v>
       </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
       <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
         <v>0.03420139737137832</v>
       </c>
-      <c r="BY25" t="n">
+      <c r="BZ25" t="n">
         <v>0.4470611227830166</v>
       </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
       <c r="CA25" t="n">
         <v>0</v>
       </c>
       <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
         <v>0.823276493868178</v>
       </c>
-      <c r="CC25" t="n">
-        <v>0</v>
-      </c>
       <c r="CD25" t="n">
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0.1270337616651195</v>
       </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
       <c r="CG25" t="n">
         <v>0</v>
       </c>
@@ -13306,6 +13391,9 @@
         <v>0</v>
       </c>
       <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13475,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="BC26" t="n">
-        <v>0</v>
+        <v>0.8470089994706195</v>
       </c>
       <c r="BD26" t="n">
         <v>0</v>
@@ -13496,17 +13584,17 @@
         <v>0</v>
       </c>
       <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
         <v>4.976177871889889</v>
       </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
       <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
         <v>2.276336686077289</v>
       </c>
-      <c r="BM26" t="n">
-        <v>0</v>
-      </c>
       <c r="BN26" t="n">
         <v>0</v>
       </c>
@@ -13517,11 +13605,11 @@
         <v>0</v>
       </c>
       <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
         <v>2.011646373742721</v>
       </c>
-      <c r="BR26" t="n">
-        <v>0</v>
-      </c>
       <c r="BS26" t="n">
         <v>0</v>
       </c>
@@ -13529,41 +13617,41 @@
         <v>0</v>
       </c>
       <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
         <v>0.3176283748014823</v>
       </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
       <c r="BW26" t="n">
         <v>0</v>
       </c>
       <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
         <v>0.5823186871360508</v>
       </c>
-      <c r="BY26" t="n">
+      <c r="BZ26" t="n">
         <v>10.21704605611435</v>
       </c>
-      <c r="BZ26" t="n">
-        <v>0</v>
-      </c>
       <c r="CA26" t="n">
         <v>0</v>
       </c>
       <c r="CB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="n">
         <v>3.811540497617787</v>
       </c>
-      <c r="CC26" t="n">
-        <v>0</v>
-      </c>
       <c r="CD26" t="n">
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0.05293806246691372</v>
       </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
       <c r="CG26" t="n">
         <v>0</v>
       </c>
@@ -13571,6 +13659,9 @@
         <v>0</v>
       </c>
       <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13746,74 +13837,74 @@
         <v>0</v>
       </c>
       <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
         <v>0.03775009437523594</v>
       </c>
-      <c r="BF27" t="n">
+      <c r="BG27" t="n">
         <v>1.849754624386561</v>
       </c>
-      <c r="BG27" t="n">
+      <c r="BH27" t="n">
         <v>0.5536680508367937</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>0.01258336479174531</v>
       </c>
       <c r="BI27" t="n">
         <v>0.01258336479174531</v>
       </c>
       <c r="BJ27" t="n">
+        <v>0.01258336479174531</v>
+      </c>
+      <c r="BK27" t="n">
         <v>4.165093746067698</v>
       </c>
-      <c r="BK27" t="n">
+      <c r="BL27" t="n">
         <v>0.1132502831257078</v>
       </c>
-      <c r="BL27" t="n">
+      <c r="BM27" t="n">
         <v>13.76620108216937</v>
       </c>
-      <c r="BM27" t="n">
+      <c r="BN27" t="n">
         <v>0.1510003775009437</v>
       </c>
-      <c r="BN27" t="n">
+      <c r="BO27" t="n">
         <v>35.79967283251542</v>
       </c>
-      <c r="BO27" t="n">
-        <v>0</v>
-      </c>
       <c r="BP27" t="n">
-        <v>0.01258336479174531</v>
+        <v>0</v>
       </c>
       <c r="BQ27" t="n">
         <v>0.01258336479174531</v>
       </c>
       <c r="BR27" t="n">
+        <v>0.01258336479174531</v>
+      </c>
+      <c r="BS27" t="n">
         <v>0.2139172014596703</v>
       </c>
-      <c r="BS27" t="n">
+      <c r="BT27" t="n">
         <v>2.252422297722411</v>
       </c>
-      <c r="BT27" t="n">
+      <c r="BU27" t="n">
         <v>2.277589027305902</v>
       </c>
-      <c r="BU27" t="n">
+      <c r="BV27" t="n">
         <v>0.1006669183339625</v>
       </c>
-      <c r="BV27" t="n">
+      <c r="BW27" t="n">
         <v>0.3900843085441047</v>
       </c>
-      <c r="BW27" t="n">
+      <c r="BX27" t="n">
         <v>0.5914181452120297</v>
       </c>
-      <c r="BX27" t="n">
+      <c r="BY27" t="n">
         <v>0.4781678620863218</v>
       </c>
-      <c r="BY27" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
         <v>0.01258336479174531</v>
       </c>
-      <c r="CA27" t="n">
-        <v>0</v>
-      </c>
       <c r="CB27" t="n">
         <v>0</v>
       </c>
@@ -13821,11 +13912,11 @@
         <v>0</v>
       </c>
       <c r="CD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE27" t="n">
         <v>1.661004152510381</v>
       </c>
-      <c r="CE27" t="n">
-        <v>0</v>
-      </c>
       <c r="CF27" t="n">
         <v>0</v>
       </c>
@@ -13836,6 +13927,9 @@
         <v>0</v>
       </c>
       <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
         <v>0.1006669183339625</v>
       </c>
     </row>
@@ -14026,11 +14120,11 @@
         <v>0</v>
       </c>
       <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
         <v>0.003380883038351289</v>
       </c>
-      <c r="BK28" t="n">
-        <v>0</v>
-      </c>
       <c r="BL28" t="n">
         <v>0</v>
       </c>
@@ -14041,11 +14135,11 @@
         <v>0</v>
       </c>
       <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
         <v>19.9749814655162</v>
       </c>
-      <c r="BP28" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ28" t="n">
         <v>0</v>
       </c>
@@ -14059,20 +14153,20 @@
         <v>0</v>
       </c>
       <c r="BU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="n">
         <v>0.4293721458706136</v>
       </c>
-      <c r="BV28" t="n">
+      <c r="BW28" t="n">
         <v>17.13673015482029</v>
       </c>
-      <c r="BW28" t="n">
+      <c r="BX28" t="n">
         <v>0.0007244749367895617</v>
       </c>
-      <c r="BX28" t="n">
+      <c r="BY28" t="n">
         <v>0.002897899747158247</v>
       </c>
-      <c r="BY28" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ28" t="n">
         <v>0</v>
       </c>
@@ -14101,6 +14195,9 @@
         <v>0</v>
       </c>
       <c r="CI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14270,11 +14367,11 @@
         <v>0</v>
       </c>
       <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
         <v>0.8234614273331408</v>
       </c>
-      <c r="BD29" t="n">
-        <v>0</v>
-      </c>
       <c r="BE29" t="n">
         <v>0</v>
       </c>
@@ -14294,29 +14391,29 @@
         <v>0</v>
       </c>
       <c r="BK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="n">
         <v>0.08668015024559377</v>
       </c>
-      <c r="BL29" t="n">
+      <c r="BM29" t="n">
         <v>0.05778676683039585</v>
       </c>
-      <c r="BM29" t="n">
-        <v>0</v>
-      </c>
       <c r="BN29" t="n">
         <v>0</v>
       </c>
       <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
         <v>0.04334007512279688</v>
       </c>
-      <c r="BP29" t="n">
+      <c r="BQ29" t="n">
         <v>11.90407396706154</v>
       </c>
-      <c r="BQ29" t="n">
+      <c r="BR29" t="n">
         <v>0.05778676683039585</v>
       </c>
-      <c r="BR29" t="n">
-        <v>0</v>
-      </c>
       <c r="BS29" t="n">
         <v>0</v>
       </c>
@@ -14324,20 +14421,20 @@
         <v>0</v>
       </c>
       <c r="BU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV29" t="n">
         <v>0.6501011268419532</v>
       </c>
-      <c r="BV29" t="n">
+      <c r="BW29" t="n">
         <v>0.1444669170759896</v>
       </c>
-      <c r="BW29" t="n">
-        <v>0</v>
-      </c>
       <c r="BX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY29" t="n">
         <v>0.08668015024559377</v>
       </c>
-      <c r="BY29" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ29" t="n">
         <v>0</v>
       </c>
@@ -14348,11 +14445,11 @@
         <v>0</v>
       </c>
       <c r="CC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD29" t="n">
         <v>0.6934412019647501</v>
       </c>
-      <c r="CD29" t="n">
-        <v>0</v>
-      </c>
       <c r="CE29" t="n">
         <v>0</v>
       </c>
@@ -14366,6 +14463,9 @@
         <v>0</v>
       </c>
       <c r="CI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14541,11 +14641,11 @@
         <v>0</v>
       </c>
       <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
         <v>0.001581965592248368</v>
       </c>
-      <c r="BF30" t="n">
-        <v>0</v>
-      </c>
       <c r="BG30" t="n">
         <v>0</v>
       </c>
@@ -14559,68 +14659,68 @@
         <v>0</v>
       </c>
       <c r="BK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL30" t="n">
         <v>0.2198932173225233</v>
       </c>
-      <c r="BL30" t="n">
+      <c r="BM30" t="n">
         <v>0.1265572473798695</v>
       </c>
-      <c r="BM30" t="n">
+      <c r="BN30" t="n">
         <v>0.0150286731263595</v>
       </c>
-      <c r="BN30" t="n">
-        <v>0</v>
-      </c>
       <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
         <v>0.06644255487443149</v>
       </c>
-      <c r="BP30" t="n">
+      <c r="BQ30" t="n">
         <v>0.4176389163535693</v>
       </c>
-      <c r="BQ30" t="n">
+      <c r="BR30" t="n">
         <v>0.5062289895194779</v>
       </c>
-      <c r="BR30" t="n">
-        <v>0</v>
-      </c>
       <c r="BS30" t="n">
         <v>0</v>
       </c>
       <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
         <v>0.02056555269922879</v>
       </c>
-      <c r="BU30" t="n">
+      <c r="BV30" t="n">
         <v>0.0403401226023334</v>
       </c>
-      <c r="BV30" t="n">
+      <c r="BW30" t="n">
         <v>0.008700810757366027</v>
       </c>
-      <c r="BW30" t="n">
+      <c r="BX30" t="n">
         <v>0.006327862368993474</v>
       </c>
-      <c r="BX30" t="n">
-        <v>0</v>
-      </c>
       <c r="BY30" t="n">
         <v>0</v>
       </c>
       <c r="BZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA30" t="n">
         <v>11.12438204469053</v>
       </c>
-      <c r="CA30" t="n">
-        <v>0</v>
-      </c>
       <c r="CB30" t="n">
         <v>0</v>
       </c>
       <c r="CC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD30" t="n">
         <v>0.07988926240854262</v>
       </c>
-      <c r="CD30" t="n">
+      <c r="CE30" t="n">
         <v>0.004745896776745105</v>
       </c>
-      <c r="CE30" t="n">
-        <v>0</v>
-      </c>
       <c r="CF30" t="n">
         <v>0</v>
       </c>
@@ -14628,9 +14728,12 @@
         <v>0</v>
       </c>
       <c r="CH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI30" t="n">
         <v>0.0007909827961241842</v>
       </c>
-      <c r="CI30" t="n">
+      <c r="CJ30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14800,53 +14903,53 @@
         <v>0</v>
       </c>
       <c r="BC31" t="n">
-        <v>0</v>
+        <v>1.629021567327793</v>
       </c>
       <c r="BD31" t="n">
         <v>0</v>
       </c>
       <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
         <v>0.155509101106409</v>
       </c>
-      <c r="BF31" t="n">
-        <v>0</v>
-      </c>
       <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
         <v>0.01529597715800744</v>
       </c>
-      <c r="BH31" t="n">
+      <c r="BI31" t="n">
         <v>0.0101973181053383</v>
       </c>
-      <c r="BI31" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
         <v>2.730331922704329</v>
       </c>
-      <c r="BK31" t="n">
+      <c r="BL31" t="n">
         <v>0.007647988579003722</v>
       </c>
-      <c r="BL31" t="n">
+      <c r="BM31" t="n">
         <v>45.07214602559527</v>
       </c>
-      <c r="BM31" t="n">
-        <v>0</v>
-      </c>
       <c r="BN31" t="n">
         <v>0</v>
       </c>
       <c r="BO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="n">
         <v>0.007647988579003722</v>
       </c>
-      <c r="BP31" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR31" t="n">
         <v>2.93172895528476</v>
       </c>
-      <c r="BR31" t="n">
-        <v>0</v>
-      </c>
       <c r="BS31" t="n">
         <v>0</v>
       </c>
@@ -14854,41 +14957,41 @@
         <v>0</v>
       </c>
       <c r="BU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV31" t="n">
         <v>1.045225105797175</v>
       </c>
-      <c r="BV31" t="n">
+      <c r="BW31" t="n">
         <v>0.2498342935807882</v>
       </c>
-      <c r="BW31" t="n">
-        <v>0</v>
-      </c>
       <c r="BX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY31" t="n">
         <v>0.05863457910569519</v>
       </c>
-      <c r="BY31" t="n">
+      <c r="BZ31" t="n">
         <v>0.3849487584765207</v>
       </c>
-      <c r="BZ31" t="n">
-        <v>0</v>
-      </c>
       <c r="CA31" t="n">
         <v>0</v>
       </c>
       <c r="CB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC31" t="n">
         <v>0.7189109264263499</v>
       </c>
-      <c r="CC31" t="n">
-        <v>0</v>
-      </c>
       <c r="CD31" t="n">
         <v>0</v>
       </c>
       <c r="CE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF31" t="n">
         <v>0.1682557487380819</v>
       </c>
-      <c r="CF31" t="n">
-        <v>0</v>
-      </c>
       <c r="CG31" t="n">
         <v>0</v>
       </c>
@@ -14896,6 +14999,9 @@
         <v>0</v>
       </c>
       <c r="CI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15065,53 +15171,53 @@
         <v>0</v>
       </c>
       <c r="BC32" t="n">
+        <v>0.8894073048042576</v>
+      </c>
+      <c r="BD32" t="n">
         <v>0.004860149206580642</v>
       </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
       <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
         <v>0.5783577555830964</v>
       </c>
-      <c r="BF32" t="n">
-        <v>0</v>
-      </c>
       <c r="BG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" t="n">
         <v>0.009720298413161283</v>
       </c>
-      <c r="BH32" t="n">
+      <c r="BI32" t="n">
         <v>0.007290223809870963</v>
       </c>
-      <c r="BI32" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK32" t="n">
         <v>12.43712181963986</v>
       </c>
-      <c r="BK32" t="n">
+      <c r="BL32" t="n">
         <v>0.007290223809870963</v>
       </c>
-      <c r="BL32" t="n">
+      <c r="BM32" t="n">
         <v>2.687662511239095</v>
       </c>
-      <c r="BM32" t="n">
-        <v>0</v>
-      </c>
       <c r="BN32" t="n">
         <v>0</v>
       </c>
       <c r="BO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="n">
         <v>0.002430074603290321</v>
       </c>
-      <c r="BP32" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR32" t="n">
         <v>1.727783042939418</v>
       </c>
-      <c r="BR32" t="n">
-        <v>0</v>
-      </c>
       <c r="BS32" t="n">
         <v>0</v>
       </c>
@@ -15119,41 +15225,41 @@
         <v>0</v>
       </c>
       <c r="BU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV32" t="n">
         <v>6.801778814609609</v>
       </c>
-      <c r="BV32" t="n">
+      <c r="BW32" t="n">
         <v>0.007290223809870963</v>
       </c>
-      <c r="BW32" t="n">
+      <c r="BX32" t="n">
         <v>0.002430074603290321</v>
       </c>
-      <c r="BX32" t="n">
+      <c r="BY32" t="n">
         <v>1.127554615926709</v>
       </c>
-      <c r="BY32" t="n">
+      <c r="BZ32" t="n">
         <v>4.748365774829287</v>
       </c>
-      <c r="BZ32" t="n">
-        <v>0</v>
-      </c>
       <c r="CA32" t="n">
         <v>0</v>
       </c>
       <c r="CB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC32" t="n">
         <v>1.467765060387354</v>
       </c>
-      <c r="CC32" t="n">
-        <v>0</v>
-      </c>
       <c r="CD32" t="n">
         <v>0</v>
       </c>
       <c r="CE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF32" t="n">
         <v>5.781147481227674</v>
       </c>
-      <c r="CF32" t="n">
-        <v>0</v>
-      </c>
       <c r="CG32" t="n">
         <v>0</v>
       </c>
@@ -15161,6 +15267,9 @@
         <v>0</v>
       </c>
       <c r="CI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15330,53 +15439,53 @@
         <v>21.61799761620977</v>
       </c>
       <c r="BC33" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="BD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE33" t="n">
         <v>0.01986491855383393</v>
       </c>
-      <c r="BE33" t="n">
-        <v>0</v>
-      </c>
       <c r="BF33" t="n">
         <v>0</v>
       </c>
       <c r="BG33" t="n">
-        <v>0.004966229638458482</v>
+        <v>0</v>
       </c>
       <c r="BH33" t="n">
         <v>0.004966229638458482</v>
       </c>
       <c r="BI33" t="n">
-        <v>0</v>
+        <v>0.004966229638458482</v>
       </c>
       <c r="BJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK33" t="n">
         <v>0.2234803337306317</v>
       </c>
-      <c r="BK33" t="n">
+      <c r="BL33" t="n">
         <v>3.074096146205801</v>
       </c>
-      <c r="BL33" t="n">
+      <c r="BM33" t="n">
         <v>0.2135478744537147</v>
       </c>
-      <c r="BM33" t="n">
+      <c r="BN33" t="n">
         <v>0.02483114819229241</v>
       </c>
-      <c r="BN33" t="n">
-        <v>0</v>
-      </c>
       <c r="BO33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP33" t="n">
         <v>0.01489868891537545</v>
       </c>
-      <c r="BP33" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR33" t="n">
         <v>35.30989272943981</v>
       </c>
-      <c r="BR33" t="n">
-        <v>0</v>
-      </c>
       <c r="BS33" t="n">
         <v>0</v>
       </c>
@@ -15384,26 +15493,26 @@
         <v>0</v>
       </c>
       <c r="BU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV33" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="BV33" t="n">
-        <v>0</v>
-      </c>
       <c r="BW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX33" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="BX33" t="n">
+      <c r="BY33" t="n">
         <v>0.4866905045689313</v>
       </c>
-      <c r="BY33" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA33" t="n">
         <v>0.6803734604688121</v>
       </c>
-      <c r="CA33" t="n">
-        <v>0</v>
-      </c>
       <c r="CB33" t="n">
         <v>0</v>
       </c>
@@ -15411,11 +15520,11 @@
         <v>0</v>
       </c>
       <c r="CD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE33" t="n">
         <v>0.02979737783075089</v>
       </c>
-      <c r="CE33" t="n">
-        <v>0</v>
-      </c>
       <c r="CF33" t="n">
         <v>0</v>
       </c>
@@ -15423,9 +15532,12 @@
         <v>0</v>
       </c>
       <c r="CH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI33" t="n">
         <v>0.004966229638458482</v>
       </c>
-      <c r="CI33" t="n">
+      <c r="CJ33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15595,102 +15707,105 @@
         <v>0.1954921803127875</v>
       </c>
       <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
         <v>0.2213661453541858</v>
       </c>
-      <c r="BD34" t="n">
-        <v>0</v>
-      </c>
       <c r="BE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF34" t="n">
         <v>0.9573367065317387</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>0.02012419503219871</v>
       </c>
       <c r="BG34" t="n">
         <v>0.02012419503219871</v>
       </c>
       <c r="BH34" t="n">
+        <v>0.02012419503219871</v>
+      </c>
+      <c r="BI34" t="n">
         <v>0.05749770009199632</v>
       </c>
-      <c r="BI34" t="n">
+      <c r="BJ34" t="n">
         <v>3.001379944802208</v>
       </c>
-      <c r="BJ34" t="n">
+      <c r="BK34" t="n">
         <v>0.1638684452621895</v>
       </c>
-      <c r="BK34" t="n">
+      <c r="BL34" t="n">
         <v>0.2242410303587856</v>
       </c>
-      <c r="BL34" t="n">
+      <c r="BM34" t="n">
         <v>9.964351425942962</v>
       </c>
-      <c r="BM34" t="n">
+      <c r="BN34" t="n">
         <v>2.113040478380865</v>
       </c>
-      <c r="BN34" t="n">
+      <c r="BO34" t="n">
         <v>7.241835326586936</v>
       </c>
-      <c r="BO34" t="n">
-        <v>0</v>
-      </c>
       <c r="BP34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ34" t="n">
         <v>0.01437442502299908</v>
       </c>
-      <c r="BQ34" t="n">
+      <c r="BR34" t="n">
         <v>1.40869365225391</v>
       </c>
-      <c r="BR34" t="n">
+      <c r="BS34" t="n">
         <v>0.4484820607175713</v>
       </c>
-      <c r="BS34" t="n">
+      <c r="BT34" t="n">
         <v>0.4829806807727691</v>
       </c>
-      <c r="BT34" t="n">
+      <c r="BU34" t="n">
         <v>0.5634774609015639</v>
       </c>
-      <c r="BU34" t="n">
+      <c r="BV34" t="n">
         <v>0.06037258509659614</v>
       </c>
-      <c r="BV34" t="n">
+      <c r="BW34" t="n">
         <v>0.1121205151793928</v>
       </c>
-      <c r="BW34" t="n">
+      <c r="BX34" t="n">
         <v>1.791053357865686</v>
       </c>
-      <c r="BX34" t="n">
+      <c r="BY34" t="n">
         <v>0.1264949402023919</v>
-      </c>
-      <c r="BY34" t="n">
-        <v>0.01149954001839926</v>
       </c>
       <c r="BZ34" t="n">
         <v>0.01149954001839926</v>
       </c>
       <c r="CA34" t="n">
-        <v>0</v>
+        <v>0.01149954001839926</v>
       </c>
       <c r="CB34" t="n">
         <v>0</v>
       </c>
       <c r="CC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD34" t="n">
         <v>0.02012419503219871</v>
       </c>
-      <c r="CD34" t="n">
+      <c r="CE34" t="n">
         <v>0.3076126954921803</v>
       </c>
-      <c r="CE34" t="n">
-        <v>0</v>
-      </c>
       <c r="CF34" t="n">
         <v>0</v>
       </c>
       <c r="CG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH34" t="n">
         <v>0.008624655013799448</v>
       </c>
-      <c r="CH34" t="n">
-        <v>0</v>
-      </c>
       <c r="CI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ34" t="n">
         <v>0.02012419503219871</v>
       </c>
     </row>
@@ -15866,11 +15981,11 @@
         <v>0</v>
       </c>
       <c r="BE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF35" t="n">
         <v>18.26159246259006</v>
       </c>
-      <c r="BF35" t="n">
-        <v>0</v>
-      </c>
       <c r="BG35" t="n">
         <v>0</v>
       </c>
@@ -15878,62 +15993,62 @@
         <v>0</v>
       </c>
       <c r="BI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ35" t="n">
         <v>0.00791744741495342</v>
       </c>
-      <c r="BJ35" t="n">
-        <v>0</v>
-      </c>
       <c r="BK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL35" t="n">
         <v>0.1952970362355177</v>
       </c>
-      <c r="BL35" t="n">
+      <c r="BM35" t="n">
         <v>0.001319574569158903</v>
       </c>
-      <c r="BM35" t="n">
+      <c r="BN35" t="n">
         <v>0.1741838431289752</v>
       </c>
-      <c r="BN35" t="n">
-        <v>0</v>
-      </c>
       <c r="BO35" t="n">
         <v>0</v>
       </c>
       <c r="BP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ35" t="n">
         <v>0.001319574569158903</v>
       </c>
-      <c r="BQ35" t="n">
+      <c r="BR35" t="n">
         <v>0.3312132168588847</v>
       </c>
-      <c r="BR35" t="n">
-        <v>0</v>
-      </c>
       <c r="BS35" t="n">
         <v>0</v>
       </c>
       <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
         <v>11.21770341241984</v>
       </c>
-      <c r="BU35" t="n">
+      <c r="BV35" t="n">
         <v>11.84977963104695</v>
       </c>
-      <c r="BV35" t="n">
+      <c r="BW35" t="n">
         <v>0.1002876672560766</v>
       </c>
-      <c r="BW35" t="n">
+      <c r="BX35" t="n">
         <v>0.04618510992056161</v>
       </c>
-      <c r="BX35" t="n">
-        <v>0</v>
-      </c>
       <c r="BY35" t="n">
         <v>0</v>
       </c>
       <c r="BZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA35" t="n">
         <v>0.009237021984112323</v>
       </c>
-      <c r="CA35" t="n">
-        <v>0</v>
-      </c>
       <c r="CB35" t="n">
         <v>0</v>
       </c>
@@ -15950,12 +16065,15 @@
         <v>0</v>
       </c>
       <c r="CG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH35" t="n">
         <v>0.1253595840700958</v>
       </c>
-      <c r="CH35" t="n">
+      <c r="CI35" t="n">
         <v>0.002639149138317806</v>
       </c>
-      <c r="CI35" t="n">
+      <c r="CJ35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16125,20 +16243,20 @@
         <v>0</v>
       </c>
       <c r="BC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD36" t="n">
         <v>0.001622428450905315</v>
       </c>
-      <c r="BD36" t="n">
+      <c r="BE36" t="n">
         <v>0.4007398273736128</v>
       </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
       <c r="BF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG36" t="n">
         <v>0.00324485690181063</v>
       </c>
-      <c r="BG36" t="n">
-        <v>0</v>
-      </c>
       <c r="BH36" t="n">
         <v>0</v>
       </c>
@@ -16146,29 +16264,29 @@
         <v>0</v>
       </c>
       <c r="BJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK36" t="n">
         <v>1.422869751443961</v>
       </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
       <c r="BL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM36" t="n">
         <v>32.13057304172886</v>
       </c>
-      <c r="BM36" t="n">
-        <v>0</v>
-      </c>
       <c r="BN36" t="n">
         <v>0</v>
       </c>
       <c r="BO36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP36" t="n">
         <v>1.6483873061198</v>
       </c>
-      <c r="BP36" t="n">
+      <c r="BQ36" t="n">
         <v>0.00324485690181063</v>
       </c>
-      <c r="BQ36" t="n">
-        <v>0</v>
-      </c>
       <c r="BR36" t="n">
         <v>0</v>
       </c>
@@ -16188,11 +16306,11 @@
         <v>0</v>
       </c>
       <c r="BX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY36" t="n">
         <v>0.2758128366539035</v>
       </c>
-      <c r="BY36" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ36" t="n">
         <v>0</v>
       </c>
@@ -16203,11 +16321,11 @@
         <v>0</v>
       </c>
       <c r="CC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD36" t="n">
         <v>0.1541307028360049</v>
       </c>
-      <c r="CD36" t="n">
-        <v>0</v>
-      </c>
       <c r="CE36" t="n">
         <v>0</v>
       </c>
@@ -16221,6 +16339,9 @@
         <v>0</v>
       </c>
       <c r="CI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16390,77 +16511,77 @@
         <v>0.05086669014360058</v>
       </c>
       <c r="BC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD37" t="n">
         <v>0.1369487811558477</v>
       </c>
-      <c r="BD37" t="n">
-        <v>0</v>
-      </c>
       <c r="BE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF37" t="n">
         <v>4.045858277575616</v>
       </c>
-      <c r="BF37" t="n">
+      <c r="BG37" t="n">
         <v>0.02347693391243104</v>
       </c>
-      <c r="BG37" t="n">
+      <c r="BH37" t="n">
         <v>0.04304104550612357</v>
       </c>
-      <c r="BH37" t="n">
+      <c r="BI37" t="n">
         <v>0.0704308017372931</v>
       </c>
-      <c r="BI37" t="n">
+      <c r="BJ37" t="n">
         <v>11.33935907970419</v>
       </c>
-      <c r="BJ37" t="n">
+      <c r="BK37" t="n">
         <v>0.7160464843291466</v>
       </c>
-      <c r="BK37" t="n">
+      <c r="BL37" t="n">
         <v>0.06260515709981609</v>
       </c>
-      <c r="BL37" t="n">
+      <c r="BM37" t="n">
         <v>1.537739171264233</v>
       </c>
-      <c r="BM37" t="n">
+      <c r="BN37" t="n">
         <v>5.102320303635012</v>
       </c>
-      <c r="BN37" t="n">
+      <c r="BO37" t="n">
         <v>0.5008412567985288</v>
       </c>
-      <c r="BO37" t="n">
-        <v>0</v>
-      </c>
       <c r="BP37" t="n">
         <v>0</v>
       </c>
       <c r="BQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR37" t="n">
         <v>0.05869233478107759</v>
       </c>
-      <c r="BR37" t="n">
+      <c r="BS37" t="n">
         <v>6.244864420706656</v>
       </c>
-      <c r="BS37" t="n">
+      <c r="BT37" t="n">
         <v>0.3756309425988966</v>
       </c>
-      <c r="BT37" t="n">
+      <c r="BU37" t="n">
         <v>0.2112924052118793</v>
       </c>
-      <c r="BU37" t="n">
+      <c r="BV37" t="n">
         <v>0.08999491333098564</v>
       </c>
-      <c r="BV37" t="n">
+      <c r="BW37" t="n">
         <v>0.1839026489807098</v>
       </c>
-      <c r="BW37" t="n">
+      <c r="BX37" t="n">
         <v>1.819462378213405</v>
       </c>
-      <c r="BX37" t="n">
+      <c r="BY37" t="n">
         <v>0.1173846695621552</v>
       </c>
-      <c r="BY37" t="n">
+      <c r="BZ37" t="n">
         <v>0.01565128927495402</v>
       </c>
-      <c r="BZ37" t="n">
-        <v>0</v>
-      </c>
       <c r="CA37" t="n">
         <v>0</v>
       </c>
@@ -16468,14 +16589,14 @@
         <v>0</v>
       </c>
       <c r="CC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD37" t="n">
         <v>0.05086669014360058</v>
       </c>
-      <c r="CD37" t="n">
+      <c r="CE37" t="n">
         <v>0.2191180498493563</v>
       </c>
-      <c r="CE37" t="n">
-        <v>0</v>
-      </c>
       <c r="CF37" t="n">
         <v>0</v>
       </c>
@@ -16483,9 +16604,12 @@
         <v>0</v>
       </c>
       <c r="CH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI37" t="n">
         <v>0.003912822318738506</v>
       </c>
-      <c r="CI37" t="n">
+      <c r="CJ37" t="n">
         <v>0.04304104550612357</v>
       </c>
     </row>
@@ -16655,53 +16779,53 @@
         <v>0</v>
       </c>
       <c r="BC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD38" t="n">
         <v>0.03838034926117827</v>
       </c>
-      <c r="BD38" t="n">
-        <v>0</v>
-      </c>
       <c r="BE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF38" t="n">
         <v>0.01919017463058914</v>
       </c>
-      <c r="BF38" t="n">
-        <v>0</v>
-      </c>
       <c r="BG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH38" t="n">
         <v>0.03838034926117827</v>
       </c>
-      <c r="BH38" t="n">
-        <v>0</v>
-      </c>
       <c r="BI38" t="n">
         <v>0</v>
       </c>
       <c r="BJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK38" t="n">
         <v>5.488389944348493</v>
       </c>
-      <c r="BK38" t="n">
+      <c r="BL38" t="n">
         <v>3.895605450009595</v>
       </c>
-      <c r="BL38" t="n">
+      <c r="BM38" t="n">
         <v>0.3262329687200153</v>
       </c>
-      <c r="BM38" t="n">
-        <v>0</v>
-      </c>
       <c r="BN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO38" t="n">
         <v>0.03838034926117827</v>
       </c>
-      <c r="BO38" t="n">
-        <v>0</v>
-      </c>
       <c r="BP38" t="n">
         <v>0</v>
       </c>
       <c r="BQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR38" t="n">
         <v>1.631164843600077</v>
       </c>
-      <c r="BR38" t="n">
-        <v>0</v>
-      </c>
       <c r="BS38" t="n">
         <v>0</v>
       </c>
@@ -16709,41 +16833,41 @@
         <v>0</v>
       </c>
       <c r="BU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV38" t="n">
         <v>9.134523124160431</v>
       </c>
-      <c r="BV38" t="n">
+      <c r="BW38" t="n">
         <v>0.05757052389176742</v>
       </c>
-      <c r="BW38" t="n">
+      <c r="BX38" t="n">
         <v>0.09595087315294569</v>
       </c>
-      <c r="BX38" t="n">
+      <c r="BY38" t="n">
         <v>0.01919017463058914</v>
       </c>
-      <c r="BY38" t="n">
+      <c r="BZ38" t="n">
         <v>0.2302820955670697</v>
       </c>
-      <c r="BZ38" t="n">
-        <v>0</v>
-      </c>
       <c r="CA38" t="n">
         <v>0</v>
       </c>
       <c r="CB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC38" t="n">
         <v>1.017079255421224</v>
       </c>
-      <c r="CC38" t="n">
-        <v>0</v>
-      </c>
       <c r="CD38" t="n">
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0.4989445403953176</v>
       </c>
-      <c r="CF38" t="n">
-        <v>0</v>
-      </c>
       <c r="CG38" t="n">
         <v>0</v>
       </c>
@@ -16751,6 +16875,9 @@
         <v>0</v>
       </c>
       <c r="CI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16920,53 +17047,53 @@
         <v>0</v>
       </c>
       <c r="BC39" t="n">
+        <v>0.03138169102483637</v>
+      </c>
+      <c r="BD39" t="n">
         <v>0.03586478974267013</v>
       </c>
-      <c r="BD39" t="n">
-        <v>0</v>
-      </c>
       <c r="BE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF39" t="n">
         <v>0.05379718461400521</v>
       </c>
-      <c r="BF39" t="n">
-        <v>0</v>
-      </c>
       <c r="BG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH39" t="n">
         <v>0.01793239487133507</v>
       </c>
-      <c r="BH39" t="n">
-        <v>0</v>
-      </c>
       <c r="BI39" t="n">
         <v>0</v>
       </c>
       <c r="BJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK39" t="n">
         <v>0.9504169281807586</v>
       </c>
-      <c r="BK39" t="n">
+      <c r="BL39" t="n">
         <v>6.563256522908635</v>
       </c>
-      <c r="BL39" t="n">
+      <c r="BM39" t="n">
         <v>0.5155563525508832</v>
       </c>
-      <c r="BM39" t="n">
-        <v>0</v>
-      </c>
       <c r="BN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO39" t="n">
         <v>0.1569084551241818</v>
       </c>
-      <c r="BO39" t="n">
+      <c r="BP39" t="n">
         <v>0.008966197435667534</v>
       </c>
-      <c r="BP39" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR39" t="n">
         <v>3.187483188379808</v>
       </c>
-      <c r="BR39" t="n">
-        <v>0</v>
-      </c>
       <c r="BS39" t="n">
         <v>0</v>
       </c>
@@ -16974,48 +17101,51 @@
         <v>0</v>
       </c>
       <c r="BU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV39" t="n">
         <v>3.052990226844795</v>
       </c>
-      <c r="BV39" t="n">
+      <c r="BW39" t="n">
         <v>0.03586478974267013</v>
       </c>
-      <c r="BW39" t="n">
+      <c r="BX39" t="n">
         <v>0.07621267820317404</v>
       </c>
-      <c r="BX39" t="n">
+      <c r="BY39" t="n">
         <v>0.004483098717833767</v>
       </c>
-      <c r="BY39" t="n">
+      <c r="BZ39" t="n">
         <v>0.4572760692190442</v>
       </c>
-      <c r="BZ39" t="n">
+      <c r="CA39" t="n">
         <v>0.004483098717833767</v>
       </c>
-      <c r="CA39" t="n">
-        <v>0</v>
-      </c>
       <c r="CB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC39" t="n">
         <v>6.5587734241908</v>
       </c>
-      <c r="CC39" t="n">
-        <v>0</v>
-      </c>
       <c r="CD39" t="n">
         <v>0</v>
       </c>
       <c r="CE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF39" t="n">
         <v>2.259481753788218</v>
       </c>
-      <c r="CF39" t="n">
-        <v>0</v>
-      </c>
       <c r="CG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH39" t="n">
         <v>0.08069577692100779</v>
       </c>
-      <c r="CH39" t="n">
+      <c r="CI39" t="n">
         <v>0.05828028333183897</v>
       </c>
-      <c r="CI39" t="n">
+      <c r="CJ39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17221,32 +17351,32 @@
         <v>0</v>
       </c>
       <c r="BO40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP40" t="n">
         <v>0.1449695563931575</v>
       </c>
-      <c r="BP40" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR40" t="n">
         <v>0.02899391127863149</v>
       </c>
-      <c r="BR40" t="n">
-        <v>0</v>
-      </c>
       <c r="BS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT40" t="n">
         <v>0.02899391127863149</v>
       </c>
-      <c r="BT40" t="n">
-        <v>0</v>
-      </c>
       <c r="BU40" t="n">
         <v>0</v>
       </c>
       <c r="BV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW40" t="n">
         <v>8.408234270803131</v>
       </c>
-      <c r="BW40" t="n">
-        <v>0</v>
-      </c>
       <c r="BX40" t="n">
         <v>0</v>
       </c>
@@ -17263,11 +17393,11 @@
         <v>0</v>
       </c>
       <c r="CC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD40" t="n">
         <v>55.34937663090751</v>
       </c>
-      <c r="CD40" t="n">
-        <v>0</v>
-      </c>
       <c r="CE40" t="n">
         <v>0</v>
       </c>
@@ -17281,6 +17411,9 @@
         <v>0</v>
       </c>
       <c r="CI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17450,77 +17583,77 @@
         <v>0.02963255630185697</v>
       </c>
       <c r="BC41" t="n">
-        <v>0</v>
+        <v>0.009877518767285657</v>
       </c>
       <c r="BD41" t="n">
         <v>0</v>
       </c>
       <c r="BE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF41" t="n">
         <v>0.9383642828921376</v>
       </c>
-      <c r="BF41" t="n">
+      <c r="BG41" t="n">
         <v>0.009877518767285657</v>
       </c>
-      <c r="BG41" t="n">
+      <c r="BH41" t="n">
         <v>6.203081785855393</v>
       </c>
-      <c r="BH41" t="n">
+      <c r="BI41" t="n">
         <v>0.3259581193204267</v>
       </c>
-      <c r="BI41" t="n">
+      <c r="BJ41" t="n">
         <v>0.09877518767285659</v>
       </c>
-      <c r="BJ41" t="n">
+      <c r="BK41" t="n">
         <v>9.018174634531807</v>
       </c>
-      <c r="BK41" t="n">
-        <v>0</v>
-      </c>
       <c r="BL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM41" t="n">
         <v>0.1382852627419992</v>
       </c>
-      <c r="BM41" t="n">
+      <c r="BN41" t="n">
         <v>1.20505728960885</v>
       </c>
-      <c r="BN41" t="n">
-        <v>0</v>
-      </c>
       <c r="BO41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP41" t="n">
         <v>0.009877518767285657</v>
       </c>
-      <c r="BP41" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR41" t="n">
         <v>0.08889766890557092</v>
       </c>
-      <c r="BR41" t="n">
+      <c r="BS41" t="n">
         <v>2.755827736072698</v>
       </c>
-      <c r="BS41" t="n">
+      <c r="BT41" t="n">
         <v>0.4148557882259977</v>
       </c>
-      <c r="BT41" t="n">
+      <c r="BU41" t="n">
         <v>3.289213749506124</v>
       </c>
-      <c r="BU41" t="n">
+      <c r="BV41" t="n">
         <v>0.009877518767285657</v>
       </c>
-      <c r="BV41" t="n">
+      <c r="BW41" t="n">
         <v>0.2864480442512841</v>
       </c>
-      <c r="BW41" t="n">
+      <c r="BX41" t="n">
         <v>0.02963255630185697</v>
       </c>
-      <c r="BX41" t="n">
+      <c r="BY41" t="n">
         <v>3.743579612801264</v>
       </c>
-      <c r="BY41" t="n">
+      <c r="BZ41" t="n">
         <v>0.01975503753457131</v>
       </c>
-      <c r="BZ41" t="n">
-        <v>0</v>
-      </c>
       <c r="CA41" t="n">
         <v>0</v>
       </c>
@@ -17528,14 +17661,14 @@
         <v>0</v>
       </c>
       <c r="CC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD41" t="n">
         <v>0.009877518767285657</v>
       </c>
-      <c r="CD41" t="n">
+      <c r="CE41" t="n">
         <v>0.1876728565784275</v>
       </c>
-      <c r="CE41" t="n">
-        <v>0</v>
-      </c>
       <c r="CF41" t="n">
         <v>0</v>
       </c>
@@ -17546,6 +17679,9 @@
         <v>0</v>
       </c>
       <c r="CI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17721,35 +17857,35 @@
         <v>0</v>
       </c>
       <c r="BE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF42" t="n">
         <v>11.99891657638137</v>
       </c>
-      <c r="BF42" t="n">
-        <v>0</v>
-      </c>
       <c r="BG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH42" t="n">
         <v>2.1397616468039</v>
       </c>
-      <c r="BH42" t="n">
+      <c r="BI42" t="n">
         <v>0.5687973997833152</v>
       </c>
-      <c r="BI42" t="n">
+      <c r="BJ42" t="n">
         <v>0.2437703141928494</v>
       </c>
-      <c r="BJ42" t="n">
+      <c r="BK42" t="n">
         <v>4.7670639219935</v>
       </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
       <c r="BL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM42" t="n">
         <v>0.2708559046587216</v>
       </c>
-      <c r="BM42" t="n">
+      <c r="BN42" t="n">
         <v>2.491874322860238</v>
       </c>
-      <c r="BN42" t="n">
-        <v>0</v>
-      </c>
       <c r="BO42" t="n">
         <v>0</v>
       </c>
@@ -17757,35 +17893,35 @@
         <v>0</v>
       </c>
       <c r="BQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR42" t="n">
         <v>0.1354279523293608</v>
       </c>
-      <c r="BR42" t="n">
+      <c r="BS42" t="n">
         <v>3.737811484290358</v>
       </c>
-      <c r="BS42" t="n">
+      <c r="BT42" t="n">
         <v>0.6500541711809318</v>
       </c>
-      <c r="BT42" t="n">
+      <c r="BU42" t="n">
         <v>20.85590465872156</v>
       </c>
-      <c r="BU42" t="n">
+      <c r="BV42" t="n">
         <v>0.02708559046587215</v>
       </c>
-      <c r="BV42" t="n">
+      <c r="BW42" t="n">
         <v>0.2708559046587216</v>
       </c>
-      <c r="BW42" t="n">
+      <c r="BX42" t="n">
         <v>0.08125677139761647</v>
       </c>
-      <c r="BX42" t="n">
+      <c r="BY42" t="n">
         <v>1.489707475622969</v>
       </c>
-      <c r="BY42" t="n">
+      <c r="BZ42" t="n">
         <v>0.02708559046587215</v>
       </c>
-      <c r="BZ42" t="n">
-        <v>0</v>
-      </c>
       <c r="CA42" t="n">
         <v>0</v>
       </c>
@@ -17793,14 +17929,14 @@
         <v>0</v>
       </c>
       <c r="CC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD42" t="n">
         <v>0.02708559046587215</v>
       </c>
-      <c r="CD42" t="n">
+      <c r="CE42" t="n">
         <v>0.9479956663055255</v>
       </c>
-      <c r="CE42" t="n">
-        <v>0</v>
-      </c>
       <c r="CF42" t="n">
         <v>0</v>
       </c>
@@ -17808,9 +17944,12 @@
         <v>0</v>
       </c>
       <c r="CH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI42" t="n">
         <v>0.05417118093174431</v>
       </c>
-      <c r="CI42" t="n">
+      <c r="CJ42" t="n">
         <v>0.02708559046587215</v>
       </c>
     </row>
@@ -17986,11 +18125,11 @@
         <v>0</v>
       </c>
       <c r="BE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF43" t="n">
         <v>0.71</v>
       </c>
-      <c r="BF43" t="n">
-        <v>0</v>
-      </c>
       <c r="BG43" t="n">
         <v>0</v>
       </c>
@@ -18001,11 +18140,11 @@
         <v>0</v>
       </c>
       <c r="BJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK43" t="n">
         <v>2.49</v>
       </c>
-      <c r="BK43" t="n">
-        <v>0</v>
-      </c>
       <c r="BL43" t="n">
         <v>0</v>
       </c>
@@ -18022,11 +18161,11 @@
         <v>0</v>
       </c>
       <c r="BQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR43" t="n">
         <v>1.8</v>
       </c>
-      <c r="BR43" t="n">
-        <v>0</v>
-      </c>
       <c r="BS43" t="n">
         <v>0</v>
       </c>
@@ -18037,17 +18176,17 @@
         <v>0</v>
       </c>
       <c r="BV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW43" t="n">
         <v>1.4</v>
       </c>
-      <c r="BW43" t="n">
-        <v>0</v>
-      </c>
       <c r="BX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY43" t="n">
         <v>0.9</v>
       </c>
-      <c r="BY43" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ43" t="n">
         <v>0</v>
       </c>
@@ -18061,11 +18200,11 @@
         <v>0</v>
       </c>
       <c r="CD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE43" t="n">
         <v>1.23</v>
       </c>
-      <c r="CE43" t="n">
-        <v>0</v>
-      </c>
       <c r="CF43" t="n">
         <v>0</v>
       </c>
@@ -18076,6 +18215,9 @@
         <v>0</v>
       </c>
       <c r="CI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18245,50 +18387,50 @@
         <v>0</v>
       </c>
       <c r="BC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD44" t="n">
         <v>0.02894565453361314</v>
       </c>
-      <c r="BD44" t="n">
+      <c r="BE44" t="n">
         <v>0.003618206816701643</v>
       </c>
-      <c r="BE44" t="n">
+      <c r="BF44" t="n">
         <v>0.07236413633403285</v>
       </c>
-      <c r="BF44" t="n">
+      <c r="BG44" t="n">
         <v>12.65648744482234</v>
       </c>
-      <c r="BG44" t="n">
+      <c r="BH44" t="n">
         <v>0.02170924090020986</v>
       </c>
-      <c r="BH44" t="n">
-        <v>0</v>
-      </c>
       <c r="BI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ44" t="n">
         <v>0.1302554454012591</v>
       </c>
-      <c r="BJ44" t="n">
+      <c r="BK44" t="n">
         <v>0.6006223315724727</v>
       </c>
-      <c r="BK44" t="n">
+      <c r="BL44" t="n">
         <v>0.003618206816701643</v>
       </c>
-      <c r="BL44" t="n">
+      <c r="BM44" t="n">
         <v>0.01447282726680657</v>
       </c>
-      <c r="BM44" t="n">
+      <c r="BN44" t="n">
         <v>0.1374918590346624</v>
       </c>
-      <c r="BN44" t="n">
-        <v>0</v>
-      </c>
       <c r="BO44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP44" t="n">
         <v>0.01447282726680657</v>
       </c>
-      <c r="BP44" t="n">
+      <c r="BQ44" t="n">
         <v>0.4124755771039872</v>
       </c>
-      <c r="BQ44" t="n">
-        <v>0</v>
-      </c>
       <c r="BR44" t="n">
         <v>0</v>
       </c>
@@ -18296,26 +18438,26 @@
         <v>0</v>
       </c>
       <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
         <v>0.2677473044359215</v>
       </c>
-      <c r="BU44" t="n">
+      <c r="BV44" t="n">
         <v>0.1374918590346624</v>
       </c>
-      <c r="BV44" t="n">
+      <c r="BW44" t="n">
         <v>0.1953831681018887</v>
       </c>
-      <c r="BW44" t="n">
+      <c r="BX44" t="n">
         <v>0.003618206816701643</v>
       </c>
-      <c r="BX44" t="n">
+      <c r="BY44" t="n">
         <v>0.2388016499023084</v>
       </c>
-      <c r="BY44" t="n">
+      <c r="BZ44" t="n">
         <v>0.003618206816701643</v>
       </c>
-      <c r="BZ44" t="n">
-        <v>0</v>
-      </c>
       <c r="CA44" t="n">
         <v>0</v>
       </c>
@@ -18323,11 +18465,11 @@
         <v>0</v>
       </c>
       <c r="CC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD44" t="n">
         <v>0.02894565453361314</v>
       </c>
-      <c r="CD44" t="n">
-        <v>0</v>
-      </c>
       <c r="CE44" t="n">
         <v>0</v>
       </c>
@@ -18341,6 +18483,9 @@
         <v>0</v>
       </c>
       <c r="CI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18510,102 +18655,105 @@
         <v>0.05714457577671508</v>
       </c>
       <c r="BC45" t="n">
-        <v>0</v>
+        <v>0.01203043700562423</v>
       </c>
       <c r="BD45" t="n">
         <v>0</v>
       </c>
       <c r="BE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF45" t="n">
         <v>1.696291617793016</v>
       </c>
-      <c r="BF45" t="n">
+      <c r="BG45" t="n">
         <v>0.009022827754218171</v>
       </c>
-      <c r="BG45" t="n">
+      <c r="BH45" t="n">
         <v>1.215074137568047</v>
       </c>
-      <c r="BH45" t="n">
+      <c r="BI45" t="n">
         <v>0.5052783542362176</v>
       </c>
-      <c r="BI45" t="n">
+      <c r="BJ45" t="n">
         <v>0.2556467863695149</v>
       </c>
-      <c r="BJ45" t="n">
+      <c r="BK45" t="n">
         <v>1.669223134530362</v>
       </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
       <c r="BL45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM45" t="n">
         <v>0.2706848326265452</v>
       </c>
-      <c r="BM45" t="n">
+      <c r="BN45" t="n">
         <v>2.162471051760955</v>
       </c>
-      <c r="BN45" t="n">
-        <v>0</v>
-      </c>
       <c r="BO45" t="n">
         <v>0</v>
       </c>
       <c r="BP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ45" t="n">
         <v>0.003007609251406057</v>
       </c>
-      <c r="BQ45" t="n">
+      <c r="BR45" t="n">
         <v>3.840717014045535</v>
       </c>
-      <c r="BR45" t="n">
+      <c r="BS45" t="n">
         <v>3.973051821107402</v>
       </c>
-      <c r="BS45" t="n">
+      <c r="BT45" t="n">
         <v>0.6135522872868356</v>
       </c>
-      <c r="BT45" t="n">
+      <c r="BU45" t="n">
         <v>6.740052332400974</v>
       </c>
-      <c r="BU45" t="n">
+      <c r="BV45" t="n">
         <v>0.03308370176546663</v>
       </c>
-      <c r="BV45" t="n">
+      <c r="BW45" t="n">
         <v>0.5353544467502782</v>
       </c>
-      <c r="BW45" t="n">
+      <c r="BX45" t="n">
         <v>0.03609131101687268</v>
       </c>
-      <c r="BX45" t="n">
+      <c r="BY45" t="n">
         <v>0.7158110018346416</v>
       </c>
-      <c r="BY45" t="n">
+      <c r="BZ45" t="n">
         <v>0.0210532647598424</v>
       </c>
-      <c r="BZ45" t="n">
-        <v>0</v>
-      </c>
       <c r="CA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB45" t="n">
         <v>0.003007609251406057</v>
       </c>
-      <c r="CB45" t="n">
-        <v>0</v>
-      </c>
       <c r="CC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD45" t="n">
         <v>0.01804565550843634</v>
       </c>
-      <c r="CD45" t="n">
+      <c r="CE45" t="n">
         <v>0.4150500766940359</v>
       </c>
-      <c r="CE45" t="n">
-        <v>0</v>
-      </c>
       <c r="CF45" t="n">
         <v>0</v>
       </c>
       <c r="CG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH45" t="n">
         <v>0.003007609251406057</v>
       </c>
-      <c r="CH45" t="n">
+      <c r="CI45" t="n">
         <v>0.03308370176546663</v>
       </c>
-      <c r="CI45" t="n">
+      <c r="CJ45" t="n">
         <v>0.03007609251406057</v>
       </c>
     </row>
@@ -18775,77 +18923,77 @@
         <v>0.2136473351164459</v>
       </c>
       <c r="BC46" t="n">
-        <v>0</v>
+        <v>0.004892687063735403</v>
       </c>
       <c r="BD46" t="n">
         <v>0</v>
       </c>
       <c r="BE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF46" t="n">
         <v>1.060082197142671</v>
       </c>
-      <c r="BF46" t="n">
+      <c r="BG46" t="n">
         <v>0.001630895687911801</v>
       </c>
-      <c r="BG46" t="n">
+      <c r="BH46" t="n">
         <v>0.8757909844086371</v>
       </c>
-      <c r="BH46" t="n">
+      <c r="BI46" t="n">
         <v>0.3718442168438907</v>
       </c>
-      <c r="BI46" t="n">
+      <c r="BJ46" t="n">
         <v>0.1141626981538261</v>
       </c>
-      <c r="BJ46" t="n">
+      <c r="BK46" t="n">
         <v>1.16772131254485</v>
       </c>
-      <c r="BK46" t="n">
+      <c r="BL46" t="n">
         <v>0.006523582751647205</v>
       </c>
-      <c r="BL46" t="n">
+      <c r="BM46" t="n">
         <v>0.1728749429186509</v>
       </c>
-      <c r="BM46" t="n">
+      <c r="BN46" t="n">
         <v>7.688042272816231</v>
       </c>
-      <c r="BN46" t="n">
+      <c r="BO46" t="n">
         <v>0.003261791375823602</v>
       </c>
-      <c r="BO46" t="n">
+      <c r="BP46" t="n">
         <v>0.004892687063735403</v>
       </c>
-      <c r="BP46" t="n">
+      <c r="BQ46" t="n">
         <v>0.01141626981538261</v>
       </c>
-      <c r="BQ46" t="n">
+      <c r="BR46" t="n">
         <v>0.1712440472307391</v>
       </c>
-      <c r="BR46" t="n">
+      <c r="BS46" t="n">
         <v>2.175614847674343</v>
       </c>
-      <c r="BS46" t="n">
+      <c r="BT46" t="n">
         <v>2.521364733511645</v>
       </c>
-      <c r="BT46" t="n">
+      <c r="BU46" t="n">
         <v>40.81968817274447</v>
       </c>
-      <c r="BU46" t="n">
+      <c r="BV46" t="n">
         <v>0.01630895687911801</v>
       </c>
-      <c r="BV46" t="n">
+      <c r="BW46" t="n">
         <v>0.2674668928175354</v>
       </c>
-      <c r="BW46" t="n">
+      <c r="BX46" t="n">
         <v>0.02609433100658882</v>
       </c>
-      <c r="BX46" t="n">
+      <c r="BY46" t="n">
         <v>0.6344184225976907</v>
       </c>
-      <c r="BY46" t="n">
+      <c r="BZ46" t="n">
         <v>0.03587970513405963</v>
       </c>
-      <c r="BZ46" t="n">
-        <v>0</v>
-      </c>
       <c r="CA46" t="n">
         <v>0</v>
       </c>
@@ -18853,24 +19001,27 @@
         <v>0</v>
       </c>
       <c r="CC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD46" t="n">
         <v>0.008154478439559005</v>
       </c>
-      <c r="CD46" t="n">
+      <c r="CE46" t="n">
         <v>0.8920999412877553</v>
       </c>
-      <c r="CE46" t="n">
-        <v>0</v>
-      </c>
       <c r="CF46" t="n">
         <v>0</v>
       </c>
       <c r="CG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH46" t="n">
         <v>0.04240328788570683</v>
       </c>
-      <c r="CH46" t="n">
+      <c r="CI46" t="n">
         <v>0.01141626981538261</v>
       </c>
-      <c r="CI46" t="n">
+      <c r="CJ46" t="n">
         <v>0.01793985256702981</v>
       </c>
     </row>
@@ -19040,53 +19191,53 @@
         <v>0</v>
       </c>
       <c r="BC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD47" t="n">
         <v>0.2184621974726922</v>
       </c>
-      <c r="BD47" t="n">
+      <c r="BE47" t="n">
         <v>1.981152281002356</v>
       </c>
-      <c r="BE47" t="n">
-        <v>0</v>
-      </c>
       <c r="BF47" t="n">
         <v>0</v>
       </c>
       <c r="BG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH47" t="n">
         <v>0.01713428999785821</v>
       </c>
-      <c r="BH47" t="n">
-        <v>0</v>
-      </c>
       <c r="BI47" t="n">
         <v>0</v>
       </c>
       <c r="BJ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK47" t="n">
         <v>0.9166845148854144</v>
       </c>
-      <c r="BK47" t="n">
+      <c r="BL47" t="n">
         <v>23.93660312700792</v>
       </c>
-      <c r="BL47" t="n">
+      <c r="BM47" t="n">
         <v>5.463696723067038</v>
       </c>
-      <c r="BM47" t="n">
-        <v>0</v>
-      </c>
       <c r="BN47" t="n">
         <v>0</v>
       </c>
       <c r="BO47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP47" t="n">
         <v>0.3448275862068966</v>
       </c>
-      <c r="BP47" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR47" t="n">
         <v>1.850503319768687</v>
       </c>
-      <c r="BR47" t="n">
-        <v>0</v>
-      </c>
       <c r="BS47" t="n">
         <v>0</v>
       </c>
@@ -19094,20 +19245,20 @@
         <v>0</v>
       </c>
       <c r="BU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV47" t="n">
         <v>0.1477832512315271</v>
       </c>
-      <c r="BV47" t="n">
+      <c r="BW47" t="n">
         <v>0.01070893124866138</v>
       </c>
-      <c r="BW47" t="n">
-        <v>0</v>
-      </c>
       <c r="BX47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY47" t="n">
         <v>0.002141786249732277</v>
       </c>
-      <c r="BY47" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ47" t="n">
         <v>0</v>
       </c>
@@ -19115,17 +19266,17 @@
         <v>0</v>
       </c>
       <c r="CB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC47" t="n">
         <v>0.002141786249732277</v>
       </c>
-      <c r="CC47" t="n">
-        <v>0</v>
-      </c>
       <c r="CD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE47" t="n">
         <v>0.01070893124866138</v>
       </c>
-      <c r="CE47" t="n">
-        <v>0</v>
-      </c>
       <c r="CF47" t="n">
         <v>0</v>
       </c>
@@ -19136,6 +19287,9 @@
         <v>0</v>
       </c>
       <c r="CI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19305,17 +19459,17 @@
         <v>0</v>
       </c>
       <c r="BC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD48" t="n">
         <v>0.06776297479459348</v>
       </c>
-      <c r="BD48" t="n">
+      <c r="BE48" t="n">
         <v>1.729165910383466</v>
       </c>
-      <c r="BE48" t="n">
+      <c r="BF48" t="n">
         <v>0.001210053121332026</v>
       </c>
-      <c r="BF48" t="n">
-        <v>0</v>
-      </c>
       <c r="BG48" t="n">
         <v>0</v>
       </c>
@@ -19326,32 +19480,32 @@
         <v>0</v>
       </c>
       <c r="BJ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK48" t="n">
         <v>0.9317409034256603</v>
       </c>
-      <c r="BK48" t="n">
+      <c r="BL48" t="n">
         <v>27.03621688992147</v>
       </c>
-      <c r="BL48" t="n">
+      <c r="BM48" t="n">
         <v>4.465096017715178</v>
       </c>
-      <c r="BM48" t="n">
-        <v>0</v>
-      </c>
       <c r="BN48" t="n">
         <v>0</v>
       </c>
       <c r="BO48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP48" t="n">
         <v>0.3363947677303034</v>
       </c>
-      <c r="BP48" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR48" t="n">
         <v>0.4150482206168851</v>
       </c>
-      <c r="BR48" t="n">
-        <v>0</v>
-      </c>
       <c r="BS48" t="n">
         <v>0</v>
       </c>
@@ -19359,20 +19513,20 @@
         <v>0</v>
       </c>
       <c r="BU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV48" t="n">
         <v>0.1778778088358079</v>
       </c>
-      <c r="BV48" t="n">
+      <c r="BW48" t="n">
         <v>0.007260318727992159</v>
       </c>
-      <c r="BW48" t="n">
-        <v>0</v>
-      </c>
       <c r="BX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY48" t="n">
         <v>0.04719207173194903</v>
       </c>
-      <c r="BY48" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ48" t="n">
         <v>0</v>
       </c>
@@ -19386,14 +19540,14 @@
         <v>0</v>
       </c>
       <c r="CD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE48" t="n">
         <v>0.0181507968199804</v>
       </c>
-      <c r="CE48" t="n">
+      <c r="CF48" t="n">
         <v>0.001210053121332026</v>
       </c>
-      <c r="CF48" t="n">
-        <v>0</v>
-      </c>
       <c r="CG48" t="n">
         <v>0</v>
       </c>
@@ -19401,6 +19555,9 @@
         <v>0</v>
       </c>
       <c r="CI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19591,17 +19748,17 @@
         <v>0</v>
       </c>
       <c r="BJ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK49" t="n">
         <v>0.3319209039548022</v>
       </c>
-      <c r="BK49" t="n">
-        <v>0</v>
-      </c>
       <c r="BL49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM49" t="n">
         <v>2.062146892655367</v>
       </c>
-      <c r="BM49" t="n">
-        <v>0</v>
-      </c>
       <c r="BN49" t="n">
         <v>0</v>
       </c>
@@ -19624,20 +19781,20 @@
         <v>0</v>
       </c>
       <c r="BU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV49" t="n">
         <v>0.4449152542372882</v>
       </c>
-      <c r="BV49" t="n">
+      <c r="BW49" t="n">
         <v>0.03177966101694915</v>
       </c>
-      <c r="BW49" t="n">
-        <v>0</v>
-      </c>
       <c r="BX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY49" t="n">
         <v>0.07768361581920905</v>
       </c>
-      <c r="BY49" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ49" t="n">
         <v>0</v>
       </c>
@@ -19651,11 +19808,11 @@
         <v>0</v>
       </c>
       <c r="CD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE49" t="n">
         <v>0.04060734463276836</v>
       </c>
-      <c r="CE49" t="n">
-        <v>0</v>
-      </c>
       <c r="CF49" t="n">
         <v>0</v>
       </c>
@@ -19666,6 +19823,9 @@
         <v>0</v>
       </c>
       <c r="CI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19835,92 +19995,92 @@
         <v>0</v>
       </c>
       <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
         <v>11.92182166035188</v>
       </c>
-      <c r="BD50" t="n">
+      <c r="BE50" t="n">
         <v>0.01500543947180853</v>
       </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
       <c r="BF50" t="n">
         <v>0</v>
       </c>
       <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
         <v>0.0112540796038564</v>
       </c>
-      <c r="BH50" t="n">
-        <v>0</v>
-      </c>
       <c r="BI50" t="n">
         <v>0</v>
       </c>
       <c r="BJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK50" t="n">
         <v>0.04126495854747346</v>
       </c>
-      <c r="BK50" t="n">
+      <c r="BL50" t="n">
         <v>0.1575571144539896</v>
       </c>
-      <c r="BL50" t="n">
+      <c r="BM50" t="n">
         <v>0.003751359867952133</v>
       </c>
-      <c r="BM50" t="n">
+      <c r="BN50" t="n">
         <v>0.01500543947180853</v>
       </c>
-      <c r="BN50" t="n">
-        <v>0</v>
-      </c>
       <c r="BO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" t="n">
         <v>0.02250815920771279</v>
       </c>
-      <c r="BP50" t="n">
+      <c r="BQ50" t="n">
         <v>17.92399744907529</v>
       </c>
-      <c r="BQ50" t="n">
-        <v>0</v>
-      </c>
       <c r="BR50" t="n">
         <v>0</v>
       </c>
       <c r="BS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT50" t="n">
         <v>0.1538057545860375</v>
       </c>
-      <c r="BT50" t="n">
-        <v>0</v>
-      </c>
       <c r="BU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV50" t="n">
         <v>0.007502719735904265</v>
       </c>
-      <c r="BV50" t="n">
+      <c r="BW50" t="n">
         <v>0.03001087894361706</v>
       </c>
-      <c r="BW50" t="n">
+      <c r="BX50" t="n">
         <v>0.05251903815132986</v>
       </c>
-      <c r="BX50" t="n">
+      <c r="BY50" t="n">
         <v>0.02625951907566493</v>
       </c>
-      <c r="BY50" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA50" t="n">
         <v>0.003751359867952133</v>
       </c>
-      <c r="CA50" t="n">
-        <v>0</v>
-      </c>
       <c r="CB50" t="n">
         <v>0</v>
       </c>
       <c r="CC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD50" t="n">
         <v>0.3826387065311175</v>
       </c>
-      <c r="CD50" t="n">
+      <c r="CE50" t="n">
         <v>0.02625951907566493</v>
       </c>
-      <c r="CE50" t="n">
-        <v>0</v>
-      </c>
       <c r="CF50" t="n">
         <v>0</v>
       </c>
@@ -19931,6 +20091,9 @@
         <v>0</v>
       </c>
       <c r="CI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20100,53 +20263,53 @@
         <v>0</v>
       </c>
       <c r="BC51" t="n">
+        <v>0.06299874002519951</v>
+      </c>
+      <c r="BD51" t="n">
         <v>0.3779924401511969</v>
       </c>
-      <c r="BD51" t="n">
-        <v>0</v>
-      </c>
       <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
         <v>0.08399832003359933</v>
       </c>
-      <c r="BF51" t="n">
-        <v>0</v>
-      </c>
       <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
         <v>0.02099958000839983</v>
       </c>
-      <c r="BH51" t="n">
-        <v>0</v>
-      </c>
       <c r="BI51" t="n">
         <v>0</v>
       </c>
       <c r="BJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK51" t="n">
         <v>3.296934061318773</v>
       </c>
-      <c r="BK51" t="n">
+      <c r="BL51" t="n">
         <v>27.82444351112978</v>
       </c>
-      <c r="BL51" t="n">
+      <c r="BM51" t="n">
         <v>0.5459890802183957</v>
       </c>
-      <c r="BM51" t="n">
-        <v>0</v>
-      </c>
       <c r="BN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO51" t="n">
         <v>0.08399832003359933</v>
       </c>
-      <c r="BO51" t="n">
-        <v>0</v>
-      </c>
       <c r="BP51" t="n">
         <v>0</v>
       </c>
       <c r="BQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR51" t="n">
         <v>1.532969340613188</v>
       </c>
-      <c r="BR51" t="n">
-        <v>0</v>
-      </c>
       <c r="BS51" t="n">
         <v>0</v>
       </c>
@@ -20154,48 +20317,51 @@
         <v>0</v>
       </c>
       <c r="BU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV51" t="n">
         <v>2.372952540949181</v>
-      </c>
-      <c r="BV51" t="n">
-        <v>0.02099958000839983</v>
       </c>
       <c r="BW51" t="n">
         <v>0.02099958000839983</v>
       </c>
       <c r="BX51" t="n">
-        <v>0</v>
+        <v>0.02099958000839983</v>
       </c>
       <c r="BY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ51" t="n">
         <v>0.3359932801343973</v>
       </c>
-      <c r="BZ51" t="n">
-        <v>0</v>
-      </c>
       <c r="CA51" t="n">
         <v>0</v>
       </c>
       <c r="CB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC51" t="n">
         <v>0.9029819403611928</v>
       </c>
-      <c r="CC51" t="n">
-        <v>0</v>
-      </c>
       <c r="CD51" t="n">
         <v>0</v>
       </c>
       <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
         <v>0.9659806803863923</v>
       </c>
-      <c r="CF51" t="n">
-        <v>0</v>
-      </c>
       <c r="CG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH51" t="n">
         <v>0.04199916001679967</v>
       </c>
-      <c r="CH51" t="n">
-        <v>0</v>
-      </c>
       <c r="CI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20368,11 +20534,11 @@
         <v>0</v>
       </c>
       <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
         <v>10.76074103271581</v>
       </c>
-      <c r="BE52" t="n">
-        <v>0</v>
-      </c>
       <c r="BF52" t="n">
         <v>0</v>
       </c>
@@ -20386,32 +20552,32 @@
         <v>0</v>
       </c>
       <c r="BJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK52" t="n">
         <v>0.3054789121009066</v>
       </c>
-      <c r="BK52" t="n">
+      <c r="BL52" t="n">
         <v>2.177769018525818</v>
       </c>
-      <c r="BL52" t="n">
+      <c r="BM52" t="n">
         <v>58.26763894363422</v>
       </c>
-      <c r="BM52" t="n">
-        <v>0</v>
-      </c>
       <c r="BN52" t="n">
         <v>0</v>
       </c>
       <c r="BO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP52" t="n">
         <v>0.423728813559322</v>
       </c>
-      <c r="BP52" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR52" t="n">
         <v>0.1083957430035475</v>
       </c>
-      <c r="BR52" t="n">
-        <v>0</v>
-      </c>
       <c r="BS52" t="n">
         <v>0</v>
       </c>
@@ -20419,20 +20585,20 @@
         <v>0</v>
       </c>
       <c r="BU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV52" t="n">
         <v>2.493102089081592</v>
       </c>
-      <c r="BV52" t="n">
+      <c r="BW52" t="n">
         <v>0.03941663381947182</v>
       </c>
-      <c r="BW52" t="n">
-        <v>0</v>
-      </c>
       <c r="BX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY52" t="n">
         <v>0.009854158454867954</v>
       </c>
-      <c r="BY52" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ52" t="n">
         <v>0</v>
       </c>
@@ -20446,11 +20612,11 @@
         <v>0</v>
       </c>
       <c r="CD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE52" t="n">
         <v>0.09854158454867955</v>
       </c>
-      <c r="CE52" t="n">
-        <v>0</v>
-      </c>
       <c r="CF52" t="n">
         <v>0</v>
       </c>
@@ -20461,6 +20627,9 @@
         <v>0</v>
       </c>
       <c r="CI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20630,11 +20799,11 @@
         <v>0</v>
       </c>
       <c r="BC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD53" t="n">
         <v>13.22</v>
       </c>
-      <c r="BD53" t="n">
-        <v>0</v>
-      </c>
       <c r="BE53" t="n">
         <v>0</v>
       </c>
@@ -20654,14 +20823,14 @@
         <v>0</v>
       </c>
       <c r="BK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL53" t="n">
         <v>0.16</v>
       </c>
-      <c r="BL53" t="n">
+      <c r="BM53" t="n">
         <v>1.66</v>
       </c>
-      <c r="BM53" t="n">
-        <v>0</v>
-      </c>
       <c r="BN53" t="n">
         <v>0</v>
       </c>
@@ -20678,20 +20847,20 @@
         <v>0</v>
       </c>
       <c r="BS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT53" t="n">
         <v>0.89</v>
       </c>
-      <c r="BT53" t="n">
-        <v>0</v>
-      </c>
       <c r="BU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV53" t="n">
         <v>0.54</v>
       </c>
-      <c r="BV53" t="n">
+      <c r="BW53" t="n">
         <v>0.21</v>
       </c>
-      <c r="BW53" t="n">
-        <v>0</v>
-      </c>
       <c r="BX53" t="n">
         <v>0</v>
       </c>
@@ -20711,11 +20880,11 @@
         <v>0</v>
       </c>
       <c r="CD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE53" t="n">
         <v>0.32</v>
       </c>
-      <c r="CE53" t="n">
-        <v>0</v>
-      </c>
       <c r="CF53" t="n">
         <v>0</v>
       </c>
@@ -20726,6 +20895,9 @@
         <v>0</v>
       </c>
       <c r="CI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20895,50 +21067,50 @@
         <v>0</v>
       </c>
       <c r="BC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD54" t="n">
         <v>0.001347581764523563</v>
       </c>
-      <c r="BD54" t="n">
+      <c r="BE54" t="n">
         <v>1.811149891519668</v>
       </c>
-      <c r="BE54" t="n">
-        <v>0</v>
-      </c>
       <c r="BF54" t="n">
         <v>0</v>
       </c>
       <c r="BG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH54" t="n">
         <v>0.2654736076111418</v>
       </c>
-      <c r="BH54" t="n">
-        <v>0</v>
-      </c>
       <c r="BI54" t="n">
         <v>0</v>
       </c>
       <c r="BJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK54" t="n">
         <v>3.660032072445996</v>
       </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
       <c r="BL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM54" t="n">
         <v>14.34905062864689</v>
       </c>
-      <c r="BM54" t="n">
-        <v>0</v>
-      </c>
       <c r="BN54" t="n">
         <v>0</v>
       </c>
       <c r="BO54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP54" t="n">
         <v>0.001347581764523563</v>
       </c>
-      <c r="BP54" t="n">
+      <c r="BQ54" t="n">
         <v>0.00539032705809425</v>
       </c>
-      <c r="BQ54" t="n">
-        <v>0</v>
-      </c>
       <c r="BR54" t="n">
         <v>0</v>
       </c>
@@ -20952,32 +21124,32 @@
         <v>0</v>
       </c>
       <c r="BV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW54" t="n">
         <v>0.001347581764523563</v>
       </c>
-      <c r="BW54" t="n">
-        <v>0</v>
-      </c>
       <c r="BX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY54" t="n">
         <v>0.5242093063996658</v>
       </c>
-      <c r="BY54" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA54" t="n">
         <v>0.002695163529047125</v>
       </c>
-      <c r="CA54" t="n">
-        <v>0</v>
-      </c>
       <c r="CB54" t="n">
         <v>0</v>
       </c>
       <c r="CC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD54" t="n">
         <v>2.028110555607961</v>
       </c>
-      <c r="CD54" t="n">
-        <v>0</v>
-      </c>
       <c r="CE54" t="n">
         <v>0</v>
       </c>
@@ -20991,6 +21163,9 @@
         <v>0</v>
       </c>
       <c r="CI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21160,11 +21335,11 @@
         <v>0.04742401379607674</v>
       </c>
       <c r="BC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD55" t="n">
         <v>18.27980168139685</v>
       </c>
-      <c r="BD55" t="n">
-        <v>0</v>
-      </c>
       <c r="BE55" t="n">
         <v>0</v>
       </c>
@@ -21172,80 +21347,80 @@
         <v>0</v>
       </c>
       <c r="BG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH55" t="n">
         <v>0.01293382194438457</v>
       </c>
-      <c r="BH55" t="n">
-        <v>0</v>
-      </c>
       <c r="BI55" t="n">
         <v>0</v>
       </c>
       <c r="BJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK55" t="n">
         <v>0.19831860314723</v>
       </c>
-      <c r="BK55" t="n">
+      <c r="BL55" t="n">
         <v>0.1940073291657685</v>
       </c>
-      <c r="BL55" t="n">
+      <c r="BM55" t="n">
         <v>0.01724509592584609</v>
       </c>
-      <c r="BM55" t="n">
-        <v>0</v>
-      </c>
       <c r="BN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO55" t="n">
         <v>0.05173528777753827</v>
       </c>
-      <c r="BO55" t="n">
-        <v>0</v>
-      </c>
       <c r="BP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ55" t="n">
         <v>0.4397499461090753</v>
       </c>
-      <c r="BQ55" t="n">
+      <c r="BR55" t="n">
         <v>0.1422720413882302</v>
       </c>
-      <c r="BR55" t="n">
-        <v>0</v>
-      </c>
       <c r="BS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT55" t="n">
         <v>0.08622547962923044</v>
       </c>
-      <c r="BT55" t="n">
-        <v>0</v>
-      </c>
       <c r="BU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV55" t="n">
         <v>0.08191420564776893</v>
       </c>
-      <c r="BV55" t="n">
+      <c r="BW55" t="n">
         <v>0.09484802759215348</v>
       </c>
-      <c r="BW55" t="n">
+      <c r="BX55" t="n">
         <v>0.1034705755550765</v>
       </c>
-      <c r="BX55" t="n">
+      <c r="BY55" t="n">
         <v>0.0776029316663074</v>
       </c>
-      <c r="BY55" t="n">
+      <c r="BZ55" t="n">
         <v>0.008622547962923045</v>
       </c>
-      <c r="BZ55" t="n">
+      <c r="CA55" t="n">
         <v>7.518861823668894</v>
       </c>
-      <c r="CA55" t="n">
-        <v>0</v>
-      </c>
       <c r="CB55" t="n">
         <v>0</v>
       </c>
       <c r="CC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD55" t="n">
         <v>0.3017891787023065</v>
       </c>
-      <c r="CD55" t="n">
+      <c r="CE55" t="n">
         <v>0.04311273981461522</v>
       </c>
-      <c r="CE55" t="n">
-        <v>0</v>
-      </c>
       <c r="CF55" t="n">
         <v>0</v>
       </c>
@@ -21256,6 +21431,9 @@
         <v>0</v>
       </c>
       <c r="CI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21425,53 +21603,53 @@
         <v>0</v>
       </c>
       <c r="BC56" t="n">
+        <v>0.01193269957440038</v>
+      </c>
+      <c r="BD56" t="n">
         <v>0.02585418241120083</v>
       </c>
-      <c r="BD56" t="n">
+      <c r="BE56" t="n">
         <v>0.001988783262400064</v>
       </c>
-      <c r="BE56" t="n">
+      <c r="BF56" t="n">
         <v>0.02585418241120083</v>
       </c>
-      <c r="BF56" t="n">
-        <v>0</v>
-      </c>
       <c r="BG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH56" t="n">
         <v>0.02386539914880076</v>
       </c>
-      <c r="BH56" t="n">
+      <c r="BI56" t="n">
         <v>0.003977566524800128</v>
       </c>
-      <c r="BI56" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK56" t="n">
         <v>6.847380772443419</v>
       </c>
-      <c r="BK56" t="n">
+      <c r="BL56" t="n">
         <v>39.06964718984925</v>
       </c>
-      <c r="BL56" t="n">
+      <c r="BM56" t="n">
         <v>0.248597907800008</v>
       </c>
-      <c r="BM56" t="n">
-        <v>0</v>
-      </c>
       <c r="BN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO56" t="n">
         <v>0.08551768028320274</v>
       </c>
-      <c r="BO56" t="n">
-        <v>0</v>
-      </c>
       <c r="BP56" t="n">
         <v>0</v>
       </c>
       <c r="BQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR56" t="n">
         <v>0.7955133049600254</v>
       </c>
-      <c r="BR56" t="n">
-        <v>0</v>
-      </c>
       <c r="BS56" t="n">
         <v>0</v>
       </c>
@@ -21479,48 +21657,51 @@
         <v>0</v>
       </c>
       <c r="BU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV56" t="n">
         <v>1.519430412473649</v>
       </c>
-      <c r="BV56" t="n">
+      <c r="BW56" t="n">
         <v>0.1173382124816038</v>
       </c>
-      <c r="BW56" t="n">
+      <c r="BX56" t="n">
         <v>0.02585418241120083</v>
       </c>
-      <c r="BX56" t="n">
+      <c r="BY56" t="n">
         <v>0.007955133049600256</v>
       </c>
-      <c r="BY56" t="n">
+      <c r="BZ56" t="n">
         <v>0.1809792768784058</v>
       </c>
-      <c r="BZ56" t="n">
+      <c r="CA56" t="n">
         <v>0.01193269957440038</v>
       </c>
-      <c r="CA56" t="n">
-        <v>0</v>
-      </c>
       <c r="CB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC56" t="n">
         <v>1.24100075573764</v>
       </c>
-      <c r="CC56" t="n">
-        <v>0</v>
-      </c>
       <c r="CD56" t="n">
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0.5329939143232171</v>
       </c>
-      <c r="CF56" t="n">
-        <v>0</v>
-      </c>
       <c r="CG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH56" t="n">
         <v>0.02784296567360089</v>
       </c>
-      <c r="CH56" t="n">
+      <c r="CI56" t="n">
         <v>0.001988783262400064</v>
       </c>
-      <c r="CI56" t="n">
+      <c r="CJ56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21690,17 +21871,17 @@
         <v>0</v>
       </c>
       <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
         <v>0.02809778027535825</v>
       </c>
-      <c r="BD57" t="n">
+      <c r="BE57" t="n">
         <v>4.917111548187693</v>
       </c>
-      <c r="BE57" t="n">
+      <c r="BF57" t="n">
         <v>0.02809778027535825</v>
       </c>
-      <c r="BF57" t="n">
-        <v>0</v>
-      </c>
       <c r="BG57" t="n">
         <v>0</v>
       </c>
@@ -21711,32 +21892,32 @@
         <v>0</v>
       </c>
       <c r="BJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK57" t="n">
         <v>0.09834223096375386</v>
       </c>
-      <c r="BK57" t="n">
+      <c r="BL57" t="n">
         <v>2.613093565608317</v>
       </c>
-      <c r="BL57" t="n">
+      <c r="BM57" t="n">
         <v>19.57010396178702</v>
       </c>
-      <c r="BM57" t="n">
-        <v>0</v>
-      </c>
       <c r="BN57" t="n">
         <v>0</v>
       </c>
       <c r="BO57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP57" t="n">
         <v>3.793200337173364</v>
       </c>
-      <c r="BP57" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR57" t="n">
         <v>0.07024445068839562</v>
       </c>
-      <c r="BR57" t="n">
-        <v>0</v>
-      </c>
       <c r="BS57" t="n">
         <v>0</v>
       </c>
@@ -21744,14 +21925,14 @@
         <v>0</v>
       </c>
       <c r="BU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV57" t="n">
         <v>0.1826355717898286</v>
       </c>
-      <c r="BV57" t="n">
+      <c r="BW57" t="n">
         <v>0.02809778027535825</v>
       </c>
-      <c r="BW57" t="n">
-        <v>0</v>
-      </c>
       <c r="BX57" t="n">
         <v>0</v>
       </c>
@@ -21771,11 +21952,11 @@
         <v>0</v>
       </c>
       <c r="CD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE57" t="n">
         <v>0.02809778027535825</v>
       </c>
-      <c r="CE57" t="n">
-        <v>0</v>
-      </c>
       <c r="CF57" t="n">
         <v>0</v>
       </c>
@@ -21786,6 +21967,9 @@
         <v>0</v>
       </c>
       <c r="CI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21955,11 +22139,11 @@
         <v>0</v>
       </c>
       <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="n">
         <v>1.54</v>
       </c>
-      <c r="BD58" t="n">
-        <v>0</v>
-      </c>
       <c r="BE58" t="n">
         <v>0</v>
       </c>
@@ -21976,14 +22160,14 @@
         <v>0</v>
       </c>
       <c r="BJ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK58" t="n">
         <v>5.12</v>
       </c>
-      <c r="BK58" t="n">
+      <c r="BL58" t="n">
         <v>9.98</v>
       </c>
-      <c r="BL58" t="n">
-        <v>0</v>
-      </c>
       <c r="BM58" t="n">
         <v>0</v>
       </c>
@@ -21991,17 +22175,17 @@
         <v>0</v>
       </c>
       <c r="BO58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP58" t="n">
         <v>0.84</v>
       </c>
-      <c r="BP58" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR58" t="n">
         <v>3.67</v>
       </c>
-      <c r="BR58" t="n">
-        <v>0</v>
-      </c>
       <c r="BS58" t="n">
         <v>0</v>
       </c>
@@ -22012,11 +22196,11 @@
         <v>0</v>
       </c>
       <c r="BV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW58" t="n">
         <v>1.13</v>
       </c>
-      <c r="BW58" t="n">
-        <v>0</v>
-      </c>
       <c r="BX58" t="n">
         <v>0</v>
       </c>
@@ -22024,11 +22208,11 @@
         <v>0</v>
       </c>
       <c r="BZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA58" t="n">
         <v>26.17</v>
       </c>
-      <c r="CA58" t="n">
-        <v>0</v>
-      </c>
       <c r="CB58" t="n">
         <v>0</v>
       </c>
@@ -22051,6 +22235,9 @@
         <v>0</v>
       </c>
       <c r="CI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22232,20 +22419,20 @@
         <v>0</v>
       </c>
       <c r="BG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH59" t="n">
         <v>0.01510378457687826</v>
       </c>
-      <c r="BH59" t="n">
-        <v>0</v>
-      </c>
       <c r="BI59" t="n">
         <v>0</v>
       </c>
       <c r="BJ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK59" t="n">
         <v>0.01726146808786087</v>
       </c>
-      <c r="BK59" t="n">
-        <v>0</v>
-      </c>
       <c r="BL59" t="n">
         <v>0</v>
       </c>
@@ -22274,20 +22461,20 @@
         <v>0</v>
       </c>
       <c r="BU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV59" t="n">
         <v>71.42363958054632</v>
       </c>
-      <c r="BV59" t="n">
+      <c r="BW59" t="n">
         <v>25.49087299874854</v>
       </c>
-      <c r="BW59" t="n">
-        <v>0</v>
-      </c>
       <c r="BX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY59" t="n">
         <v>0.03236525266473914</v>
       </c>
-      <c r="BY59" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ59" t="n">
         <v>0</v>
       </c>
@@ -22316,6 +22503,9 @@
         <v>0</v>
       </c>
       <c r="CI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22485,11 +22675,11 @@
         <v>0.2291659088428941</v>
       </c>
       <c r="BC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD60" t="n">
         <v>0.189152813648103</v>
       </c>
-      <c r="BD60" t="n">
-        <v>0</v>
-      </c>
       <c r="BE60" t="n">
         <v>0</v>
       </c>
@@ -22497,20 +22687,20 @@
         <v>0</v>
       </c>
       <c r="BG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH60" t="n">
         <v>1.327707249645338</v>
       </c>
-      <c r="BH60" t="n">
-        <v>0</v>
-      </c>
       <c r="BI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ60" t="n">
         <v>0.06547597395511258</v>
       </c>
-      <c r="BJ60" t="n">
+      <c r="BK60" t="n">
         <v>78.83671019606416</v>
       </c>
-      <c r="BK60" t="n">
-        <v>0</v>
-      </c>
       <c r="BL60" t="n">
         <v>0</v>
       </c>
@@ -22521,17 +22711,17 @@
         <v>0</v>
       </c>
       <c r="BO60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP60" t="n">
         <v>1.404095885926303</v>
       </c>
-      <c r="BP60" t="n">
+      <c r="BQ60" t="n">
         <v>0.05638208868356917</v>
       </c>
-      <c r="BQ60" t="n">
+      <c r="BR60" t="n">
         <v>0.2273471317885853</v>
       </c>
-      <c r="BR60" t="n">
-        <v>0</v>
-      </c>
       <c r="BS60" t="n">
         <v>0</v>
       </c>
@@ -22539,20 +22729,20 @@
         <v>0</v>
       </c>
       <c r="BU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV60" t="n">
         <v>0.001818777054308683</v>
       </c>
-      <c r="BV60" t="n">
+      <c r="BW60" t="n">
         <v>0.003637554108617366</v>
       </c>
-      <c r="BW60" t="n">
-        <v>0</v>
-      </c>
       <c r="BX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY60" t="n">
         <v>4.15590556909534</v>
       </c>
-      <c r="BY60" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ60" t="n">
         <v>0</v>
       </c>
@@ -22566,11 +22756,11 @@
         <v>0</v>
       </c>
       <c r="CD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE60" t="n">
         <v>0.0109126623258521</v>
       </c>
-      <c r="CE60" t="n">
-        <v>0</v>
-      </c>
       <c r="CF60" t="n">
         <v>0</v>
       </c>
@@ -22581,6 +22771,9 @@
         <v>0</v>
       </c>
       <c r="CI60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22756,20 +22949,20 @@
         <v>0</v>
       </c>
       <c r="BE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF61" t="n">
         <v>0.001194476739556292</v>
       </c>
-      <c r="BF61" t="n">
-        <v>0</v>
-      </c>
       <c r="BG61" t="n">
         <v>0</v>
       </c>
       <c r="BH61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI61" t="n">
         <v>0.0003981589131854306</v>
       </c>
-      <c r="BI61" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ61" t="n">
         <v>0</v>
       </c>
@@ -22777,53 +22970,53 @@
         <v>0</v>
       </c>
       <c r="BL61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM61" t="n">
         <v>14.95564509707114</v>
       </c>
-      <c r="BM61" t="n">
+      <c r="BN61" t="n">
         <v>0.001592635652741722</v>
       </c>
-      <c r="BN61" t="n">
+      <c r="BO61" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="BO61" t="n">
+      <c r="BP61" t="n">
         <v>0.0003981589131854306</v>
       </c>
-      <c r="BP61" t="n">
+      <c r="BQ61" t="n">
         <v>0.002388953479112583</v>
       </c>
-      <c r="BQ61" t="n">
+      <c r="BR61" t="n">
         <v>0.005176065871410597</v>
       </c>
-      <c r="BR61" t="n">
-        <v>0</v>
-      </c>
       <c r="BS61" t="n">
         <v>0</v>
       </c>
       <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="BU61" t="n">
+      <c r="BV61" t="n">
         <v>0.04857538740862253</v>
       </c>
-      <c r="BV61" t="n">
+      <c r="BW61" t="n">
         <v>0.09595629807768877</v>
       </c>
-      <c r="BW61" t="n">
+      <c r="BX61" t="n">
         <v>23.5025243275096</v>
       </c>
-      <c r="BX61" t="n">
-        <v>0</v>
-      </c>
       <c r="BY61" t="n">
         <v>0</v>
       </c>
       <c r="BZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA61" t="n">
         <v>0.003583430218668875</v>
       </c>
-      <c r="CA61" t="n">
-        <v>0</v>
-      </c>
       <c r="CB61" t="n">
         <v>0</v>
       </c>
@@ -22840,12 +23033,15 @@
         <v>0</v>
       </c>
       <c r="CG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH61" t="n">
         <v>0.0007963178263708611</v>
       </c>
-      <c r="CH61" t="n">
+      <c r="CI61" t="n">
         <v>0.001990794565927153</v>
       </c>
-      <c r="CI61" t="n">
+      <c r="CJ61" t="n">
         <v>0.05574224784596028</v>
       </c>
     </row>
@@ -23015,11 +23211,11 @@
         <v>0</v>
       </c>
       <c r="BC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD62" t="n">
         <v>0.132406487917908</v>
       </c>
-      <c r="BD62" t="n">
-        <v>0</v>
-      </c>
       <c r="BE62" t="n">
         <v>0</v>
       </c>
@@ -23027,11 +23223,11 @@
         <v>0</v>
       </c>
       <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
         <v>0.6951340615690168</v>
       </c>
-      <c r="BH62" t="n">
-        <v>0</v>
-      </c>
       <c r="BI62" t="n">
         <v>0</v>
       </c>
@@ -23051,11 +23247,11 @@
         <v>0</v>
       </c>
       <c r="BO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP62" t="n">
         <v>0.6509985655963809</v>
       </c>
-      <c r="BP62" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ62" t="n">
         <v>0</v>
       </c>
@@ -23072,17 +23268,17 @@
         <v>0</v>
       </c>
       <c r="BV62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW62" t="n">
         <v>0.4965243296921549</v>
       </c>
-      <c r="BW62" t="n">
-        <v>0</v>
-      </c>
       <c r="BX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY62" t="n">
         <v>1.279929383206444</v>
       </c>
-      <c r="BY62" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ62" t="n">
         <v>0</v>
       </c>
@@ -23093,11 +23289,11 @@
         <v>0</v>
       </c>
       <c r="CC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD62" t="n">
         <v>1.114421273309059</v>
       </c>
-      <c r="CD62" t="n">
-        <v>0</v>
-      </c>
       <c r="CE62" t="n">
         <v>0</v>
       </c>
@@ -23111,6 +23307,9 @@
         <v>0</v>
       </c>
       <c r="CI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23280,32 +23479,32 @@
         <v>0</v>
       </c>
       <c r="BC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD63" t="n">
         <v>0.001908396946564886</v>
       </c>
-      <c r="BD63" t="n">
+      <c r="BE63" t="n">
         <v>0.005725190839694656</v>
       </c>
-      <c r="BE63" t="n">
-        <v>0</v>
-      </c>
       <c r="BF63" t="n">
         <v>0</v>
       </c>
       <c r="BG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH63" t="n">
         <v>0.003816793893129771</v>
       </c>
-      <c r="BH63" t="n">
-        <v>0</v>
-      </c>
       <c r="BI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ63" t="n">
         <v>23.91603053435115</v>
       </c>
-      <c r="BJ63" t="n">
+      <c r="BK63" t="n">
         <v>0.08015267175572519</v>
       </c>
-      <c r="BK63" t="n">
-        <v>0</v>
-      </c>
       <c r="BL63" t="n">
         <v>0</v>
       </c>
@@ -23316,38 +23515,38 @@
         <v>0</v>
       </c>
       <c r="BO63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP63" t="n">
         <v>0.003816793893129771</v>
       </c>
-      <c r="BP63" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR63" t="n">
         <v>0.02480916030534351</v>
       </c>
-      <c r="BR63" t="n">
-        <v>0</v>
-      </c>
       <c r="BS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT63" t="n">
         <v>0.001908396946564886</v>
       </c>
-      <c r="BT63" t="n">
-        <v>0</v>
-      </c>
       <c r="BU63" t="n">
         <v>0</v>
       </c>
       <c r="BV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW63" t="n">
         <v>0.6908396946564885</v>
       </c>
-      <c r="BW63" t="n">
-        <v>0</v>
-      </c>
       <c r="BX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY63" t="n">
         <v>0.003816793893129771</v>
       </c>
-      <c r="BY63" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ63" t="n">
         <v>0</v>
       </c>
@@ -23361,11 +23560,11 @@
         <v>0</v>
       </c>
       <c r="CD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE63" t="n">
         <v>2.637404580152672</v>
       </c>
-      <c r="CE63" t="n">
-        <v>0</v>
-      </c>
       <c r="CF63" t="n">
         <v>0</v>
       </c>
@@ -23376,6 +23575,9 @@
         <v>0</v>
       </c>
       <c r="CI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23545,53 +23747,53 @@
         <v>0.001744652639659444</v>
       </c>
       <c r="BC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD64" t="n">
         <v>0.001744652639659444</v>
       </c>
-      <c r="BD64" t="n">
+      <c r="BE64" t="n">
         <v>0.006978610558637775</v>
       </c>
-      <c r="BE64" t="n">
-        <v>0</v>
-      </c>
       <c r="BF64" t="n">
         <v>0</v>
       </c>
       <c r="BG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" t="n">
         <v>0.005233957918978332</v>
       </c>
-      <c r="BH64" t="n">
-        <v>0</v>
-      </c>
       <c r="BI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ64" t="n">
         <v>15.26222129174081</v>
       </c>
-      <c r="BJ64" t="n">
+      <c r="BK64" t="n">
         <v>0.1099131162985449</v>
       </c>
-      <c r="BK64" t="n">
-        <v>0</v>
-      </c>
       <c r="BL64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM64" t="n">
         <v>0.01395722111727555</v>
       </c>
-      <c r="BM64" t="n">
-        <v>0</v>
-      </c>
       <c r="BN64" t="n">
         <v>0</v>
       </c>
       <c r="BO64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP64" t="n">
         <v>0.01395722111727555</v>
       </c>
-      <c r="BP64" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR64" t="n">
         <v>0.02616978959489166</v>
       </c>
-      <c r="BR64" t="n">
-        <v>0</v>
-      </c>
       <c r="BS64" t="n">
         <v>0</v>
       </c>
@@ -23602,17 +23804,17 @@
         <v>0</v>
       </c>
       <c r="BV64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW64" t="n">
         <v>0.401270107121672</v>
       </c>
-      <c r="BW64" t="n">
+      <c r="BX64" t="n">
         <v>0.01046791583795666</v>
       </c>
-      <c r="BX64" t="n">
+      <c r="BY64" t="n">
         <v>0.008723263198297219</v>
       </c>
-      <c r="BY64" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ64" t="n">
         <v>0</v>
       </c>
@@ -23626,11 +23828,11 @@
         <v>0</v>
       </c>
       <c r="CD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE64" t="n">
         <v>0.4972260023029415</v>
       </c>
-      <c r="CE64" t="n">
-        <v>0</v>
-      </c>
       <c r="CF64" t="n">
         <v>0</v>
       </c>
@@ -23641,6 +23843,9 @@
         <v>0</v>
       </c>
       <c r="CI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23810,77 +24015,77 @@
         <v>0.631368329017722</v>
       </c>
       <c r="BC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD65" t="n">
         <v>0.09331808857652082</v>
       </c>
-      <c r="BD65" t="n">
-        <v>0</v>
-      </c>
       <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
         <v>0.9020748562397015</v>
       </c>
-      <c r="BF65" t="n">
-        <v>0</v>
-      </c>
       <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
         <v>0.05212361704274136</v>
       </c>
-      <c r="BH65" t="n">
+      <c r="BI65" t="n">
         <v>0.002522110502068131</v>
       </c>
-      <c r="BI65" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK65" t="n">
         <v>6.607929515418502</v>
       </c>
-      <c r="BK65" t="n">
+      <c r="BL65" t="n">
         <v>0.0008407035006893769</v>
       </c>
-      <c r="BL65" t="n">
+      <c r="BM65" t="n">
         <v>0.9424286242727915</v>
       </c>
-      <c r="BM65" t="n">
+      <c r="BN65" t="n">
         <v>0.04455728553653697</v>
       </c>
-      <c r="BN65" t="n">
-        <v>0</v>
-      </c>
       <c r="BO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP65" t="n">
         <v>0.001681407001378754</v>
       </c>
-      <c r="BP65" t="n">
+      <c r="BQ65" t="n">
         <v>2.81971954131217</v>
       </c>
-      <c r="BQ65" t="n">
+      <c r="BR65" t="n">
         <v>0.0327874365268857</v>
       </c>
-      <c r="BR65" t="n">
-        <v>0</v>
-      </c>
       <c r="BS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT65" t="n">
         <v>0.04203517503446884</v>
       </c>
-      <c r="BT65" t="n">
+      <c r="BU65" t="n">
         <v>0.3556175807916064</v>
       </c>
-      <c r="BU65" t="n">
+      <c r="BV65" t="n">
         <v>0.1084507515889296</v>
       </c>
-      <c r="BV65" t="n">
+      <c r="BW65" t="n">
         <v>0.3682281333019471</v>
       </c>
-      <c r="BW65" t="n">
+      <c r="BX65" t="n">
         <v>0.1008844200827252</v>
       </c>
-      <c r="BX65" t="n">
+      <c r="BY65" t="n">
         <v>0.6902175740659784</v>
       </c>
-      <c r="BY65" t="n">
+      <c r="BZ65" t="n">
         <v>0.001681407001378754</v>
       </c>
-      <c r="BZ65" t="n">
-        <v>0</v>
-      </c>
       <c r="CA65" t="n">
         <v>0</v>
       </c>
@@ -23891,21 +24096,24 @@
         <v>0</v>
       </c>
       <c r="CD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE65" t="n">
         <v>0.147123112620641</v>
       </c>
-      <c r="CE65" t="n">
-        <v>0</v>
-      </c>
       <c r="CF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG65" t="n">
         <v>0.04119447153377947</v>
       </c>
-      <c r="CG65" t="n">
-        <v>0</v>
-      </c>
       <c r="CH65" t="n">
         <v>0</v>
       </c>
       <c r="CI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24075,53 +24283,53 @@
         <v>0</v>
       </c>
       <c r="BC66" t="n">
+        <v>0.2467232074016962</v>
+      </c>
+      <c r="BD66" t="n">
         <v>0.06168080185042405</v>
       </c>
-      <c r="BD66" t="n">
-        <v>0</v>
-      </c>
       <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
         <v>0.06168080185042405</v>
       </c>
-      <c r="BF66" t="n">
-        <v>0</v>
-      </c>
       <c r="BG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" t="n">
         <v>0.2467232074016962</v>
       </c>
-      <c r="BH66" t="n">
+      <c r="BI66" t="n">
         <v>0.03084040092521203</v>
       </c>
-      <c r="BI66" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK66" t="n">
         <v>0.5242868157286045</v>
       </c>
-      <c r="BK66" t="n">
+      <c r="BL66" t="n">
         <v>4.872783346183501</v>
       </c>
-      <c r="BL66" t="n">
+      <c r="BM66" t="n">
         <v>1.094834232845027</v>
       </c>
-      <c r="BM66" t="n">
-        <v>0</v>
-      </c>
       <c r="BN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO66" t="n">
         <v>0.7555898226676947</v>
       </c>
-      <c r="BO66" t="n">
-        <v>0</v>
-      </c>
       <c r="BP66" t="n">
         <v>0</v>
       </c>
       <c r="BQ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR66" t="n">
         <v>19.67617579028527</v>
       </c>
-      <c r="BR66" t="n">
-        <v>0</v>
-      </c>
       <c r="BS66" t="n">
         <v>0</v>
       </c>
@@ -24129,48 +24337,51 @@
         <v>0</v>
       </c>
       <c r="BU66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV66" t="n">
         <v>27.01619121048574</v>
       </c>
-      <c r="BV66" t="n">
+      <c r="BW66" t="n">
         <v>0.2467232074016962</v>
       </c>
-      <c r="BW66" t="n">
+      <c r="BX66" t="n">
         <v>0.8481110254433308</v>
       </c>
-      <c r="BX66" t="n">
-        <v>0</v>
-      </c>
       <c r="BY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ66" t="n">
         <v>0.4934464148033924</v>
       </c>
-      <c r="BZ66" t="n">
+      <c r="CA66" t="n">
         <v>0.06168080185042405</v>
       </c>
-      <c r="CA66" t="n">
-        <v>0</v>
-      </c>
       <c r="CB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC66" t="n">
         <v>5.397070161912105</v>
       </c>
-      <c r="CC66" t="n">
-        <v>0</v>
-      </c>
       <c r="CD66" t="n">
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0.6476484194294526</v>
       </c>
-      <c r="CF66" t="n">
-        <v>0</v>
-      </c>
       <c r="CG66" t="n">
-        <v>0.01542020046260601</v>
+        <v>0</v>
       </c>
       <c r="CH66" t="n">
         <v>0.01542020046260601</v>
       </c>
       <c r="CI66" t="n">
+        <v>0.01542020046260601</v>
+      </c>
+      <c r="CJ66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24340,80 +24551,80 @@
         <v>0.1344860710854947</v>
       </c>
       <c r="BC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD67" t="n">
         <v>0.1536983669548511</v>
       </c>
-      <c r="BD67" t="n">
-        <v>0</v>
-      </c>
       <c r="BE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF67" t="n">
         <v>1.364073006724304</v>
       </c>
-      <c r="BF67" t="n">
+      <c r="BG67" t="n">
         <v>0.01921229586935639</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>0.07684918347742556</v>
       </c>
       <c r="BH67" t="n">
         <v>0.07684918347742556</v>
       </c>
       <c r="BI67" t="n">
+        <v>0.07684918347742556</v>
+      </c>
+      <c r="BJ67" t="n">
         <v>18.96253602305475</v>
       </c>
-      <c r="BJ67" t="n">
+      <c r="BK67" t="n">
         <v>0.5187319884726225</v>
       </c>
-      <c r="BK67" t="n">
+      <c r="BL67" t="n">
         <v>0.09606147934678194</v>
       </c>
-      <c r="BL67" t="n">
+      <c r="BM67" t="n">
         <v>1.402497598463016</v>
       </c>
-      <c r="BM67" t="n">
+      <c r="BN67" t="n">
         <v>3.227665706051873</v>
       </c>
-      <c r="BN67" t="n">
+      <c r="BO67" t="n">
         <v>0.4803073967339098</v>
       </c>
-      <c r="BO67" t="n">
-        <v>0</v>
-      </c>
       <c r="BP67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ67" t="n">
         <v>0.01921229586935639</v>
       </c>
-      <c r="BQ67" t="n">
+      <c r="BR67" t="n">
         <v>0.07684918347742556</v>
       </c>
-      <c r="BR67" t="n">
+      <c r="BS67" t="n">
         <v>0.7108549471661864</v>
       </c>
-      <c r="BS67" t="n">
+      <c r="BT67" t="n">
         <v>0.5571565802113353</v>
       </c>
-      <c r="BT67" t="n">
+      <c r="BU67" t="n">
         <v>0.09606147934678194</v>
       </c>
-      <c r="BU67" t="n">
+      <c r="BV67" t="n">
         <v>0.2305475504322767</v>
       </c>
-      <c r="BV67" t="n">
+      <c r="BW67" t="n">
         <v>0.1536983669548511</v>
       </c>
-      <c r="BW67" t="n">
+      <c r="BX67" t="n">
         <v>2.478386167146974</v>
       </c>
-      <c r="BX67" t="n">
+      <c r="BY67" t="n">
         <v>0.09606147934678194</v>
       </c>
-      <c r="BY67" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA67" t="n">
         <v>0.01921229586935639</v>
       </c>
-      <c r="CA67" t="n">
-        <v>0</v>
-      </c>
       <c r="CB67" t="n">
         <v>0</v>
       </c>
@@ -24421,21 +24632,24 @@
         <v>0</v>
       </c>
       <c r="CD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE67" t="n">
         <v>0.1921229586935639</v>
       </c>
-      <c r="CE67" t="n">
-        <v>0</v>
-      </c>
       <c r="CF67" t="n">
         <v>0</v>
       </c>
       <c r="CG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH67" t="n">
         <v>0.05763688760806917</v>
       </c>
-      <c r="CH67" t="n">
-        <v>0</v>
-      </c>
       <c r="CI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ67" t="n">
         <v>0.03842459173871278</v>
       </c>
     </row>
@@ -24605,102 +24819,105 @@
         <v>0.1681673264898574</v>
       </c>
       <c r="BC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD68" t="n">
         <v>0.3293276810426374</v>
       </c>
-      <c r="BD68" t="n">
-        <v>0</v>
-      </c>
       <c r="BE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF68" t="n">
         <v>1.53102336825141</v>
       </c>
-      <c r="BF68" t="n">
+      <c r="BG68" t="n">
         <v>0.01751742984269348</v>
       </c>
-      <c r="BG68" t="n">
+      <c r="BH68" t="n">
         <v>0.09809760711908348</v>
       </c>
-      <c r="BH68" t="n">
+      <c r="BI68" t="n">
         <v>0.1191185229303157</v>
       </c>
-      <c r="BI68" t="n">
+      <c r="BJ68" t="n">
         <v>26.07994954980205</v>
       </c>
-      <c r="BJ68" t="n">
+      <c r="BK68" t="n">
         <v>1.138632939775076</v>
       </c>
-      <c r="BK68" t="n">
+      <c r="BL68" t="n">
         <v>0.1016010930876222</v>
       </c>
-      <c r="BL68" t="n">
+      <c r="BM68" t="n">
         <v>1.499491994534562</v>
       </c>
-      <c r="BM68" t="n">
+      <c r="BN68" t="n">
         <v>3.128612969905056</v>
       </c>
-      <c r="BN68" t="n">
+      <c r="BO68" t="n">
         <v>0.6481449041796588</v>
       </c>
-      <c r="BO68" t="n">
-        <v>0</v>
-      </c>
       <c r="BP68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ68" t="n">
         <v>0.003503485968538696</v>
       </c>
-      <c r="BQ68" t="n">
+      <c r="BR68" t="n">
         <v>0.05255228952808044</v>
       </c>
-      <c r="BR68" t="n">
+      <c r="BS68" t="n">
         <v>0.7357320533931262</v>
       </c>
-      <c r="BS68" t="n">
+      <c r="BT68" t="n">
         <v>0.553550783029114</v>
       </c>
-      <c r="BT68" t="n">
+      <c r="BU68" t="n">
         <v>0.03853834565392565</v>
-      </c>
-      <c r="BU68" t="n">
-        <v>0.1856847563325509</v>
       </c>
       <c r="BV68" t="n">
         <v>0.1856847563325509</v>
       </c>
       <c r="BW68" t="n">
+        <v>0.1856847563325509</v>
+      </c>
+      <c r="BX68" t="n">
         <v>2.371860000700697</v>
       </c>
-      <c r="BX68" t="n">
+      <c r="BY68" t="n">
         <v>0.2277265879550152</v>
       </c>
-      <c r="BY68" t="n">
+      <c r="BZ68" t="n">
         <v>0.01401394387415478</v>
       </c>
-      <c r="BZ68" t="n">
+      <c r="CA68" t="n">
         <v>0.007006971937077392</v>
       </c>
-      <c r="CA68" t="n">
-        <v>0</v>
-      </c>
       <c r="CB68" t="n">
         <v>0</v>
       </c>
       <c r="CC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD68" t="n">
         <v>0.01751742984269348</v>
       </c>
-      <c r="CD68" t="n">
+      <c r="CE68" t="n">
         <v>0.1716708124583961</v>
       </c>
-      <c r="CE68" t="n">
-        <v>0</v>
-      </c>
       <c r="CF68" t="n">
         <v>0</v>
       </c>
       <c r="CG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH68" t="n">
         <v>0.007006971937077392</v>
       </c>
-      <c r="CH68" t="n">
+      <c r="CI68" t="n">
         <v>0.003503485968538696</v>
       </c>
-      <c r="CI68" t="n">
+      <c r="CJ68" t="n">
         <v>0.03503485968538696</v>
       </c>
     </row>
@@ -24870,53 +25087,53 @@
         <v>0</v>
       </c>
       <c r="BC69" t="n">
+        <v>0.008897113776290971</v>
+      </c>
+      <c r="BD69" t="n">
         <v>0.03380903234990569</v>
       </c>
-      <c r="BD69" t="n">
-        <v>0</v>
-      </c>
       <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
         <v>0.01245595928680736</v>
       </c>
-      <c r="BF69" t="n">
-        <v>0</v>
-      </c>
       <c r="BG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH69" t="n">
         <v>0.05694152816826222</v>
       </c>
-      <c r="BH69" t="n">
-        <v>0</v>
-      </c>
       <c r="BI69" t="n">
         <v>0</v>
       </c>
       <c r="BJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK69" t="n">
         <v>1.946688494252464</v>
       </c>
-      <c r="BK69" t="n">
+      <c r="BL69" t="n">
         <v>2.78835545748959</v>
       </c>
-      <c r="BL69" t="n">
+      <c r="BM69" t="n">
         <v>0.2491191857361472</v>
       </c>
-      <c r="BM69" t="n">
-        <v>0</v>
-      </c>
       <c r="BN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO69" t="n">
         <v>0.0302501868393893</v>
       </c>
-      <c r="BO69" t="n">
+      <c r="BP69" t="n">
         <v>0.001779422755258194</v>
       </c>
-      <c r="BP69" t="n">
-        <v>0</v>
-      </c>
       <c r="BQ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR69" t="n">
         <v>0.6744012242428556</v>
       </c>
-      <c r="BR69" t="n">
-        <v>0</v>
-      </c>
       <c r="BS69" t="n">
         <v>0</v>
       </c>
@@ -24924,48 +25141,51 @@
         <v>0</v>
       </c>
       <c r="BU69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV69" t="n">
         <v>1.943129648741948</v>
       </c>
-      <c r="BV69" t="n">
+      <c r="BW69" t="n">
         <v>0.02135307306309833</v>
       </c>
-      <c r="BW69" t="n">
+      <c r="BX69" t="n">
         <v>0.03558845510516388</v>
       </c>
-      <c r="BX69" t="n">
-        <v>0</v>
-      </c>
       <c r="BY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ69" t="n">
         <v>0.1387949749101391</v>
       </c>
-      <c r="BZ69" t="n">
+      <c r="CA69" t="n">
         <v>0.01601480479732375</v>
       </c>
-      <c r="CA69" t="n">
-        <v>0</v>
-      </c>
       <c r="CB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC69" t="n">
         <v>0.8754759955870316</v>
       </c>
-      <c r="CC69" t="n">
-        <v>0</v>
-      </c>
       <c r="CD69" t="n">
         <v>0</v>
       </c>
       <c r="CE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF69" t="n">
         <v>0.6334745008719171</v>
       </c>
-      <c r="CF69" t="n">
-        <v>0</v>
-      </c>
       <c r="CG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH69" t="n">
         <v>0.01601480479732375</v>
       </c>
-      <c r="CH69" t="n">
+      <c r="CI69" t="n">
         <v>0.001779422755258194</v>
       </c>
-      <c r="CI69" t="n">
+      <c r="CJ69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25135,70 +25355,70 @@
         <v>0</v>
       </c>
       <c r="BC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD70" t="n">
         <v>0.09297136481963555</v>
       </c>
-      <c r="BD70" t="n">
-        <v>0</v>
-      </c>
       <c r="BE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF70" t="n">
         <v>6.87988099665303</v>
       </c>
-      <c r="BF70" t="n">
+      <c r="BG70" t="n">
         <v>0.01859427296392711</v>
       </c>
-      <c r="BG70" t="n">
+      <c r="BH70" t="n">
         <v>0.03718854592785422</v>
       </c>
-      <c r="BH70" t="n">
+      <c r="BI70" t="n">
         <v>0.05578281889178133</v>
       </c>
-      <c r="BI70" t="n">
+      <c r="BJ70" t="n">
         <v>2.324284120490889</v>
       </c>
-      <c r="BJ70" t="n">
+      <c r="BK70" t="n">
         <v>0.2045370026031982</v>
       </c>
-      <c r="BK70" t="n">
+      <c r="BL70" t="n">
         <v>0.01859427296392711</v>
       </c>
-      <c r="BL70" t="n">
+      <c r="BM70" t="n">
         <v>0.8181480104127928</v>
       </c>
-      <c r="BM70" t="n">
+      <c r="BN70" t="n">
         <v>1.840833023428784</v>
       </c>
-      <c r="BN70" t="n">
+      <c r="BO70" t="n">
         <v>0.5392339159538861</v>
-      </c>
-      <c r="BO70" t="n">
-        <v>0.01859427296392711</v>
       </c>
       <c r="BP70" t="n">
         <v>0.01859427296392711</v>
       </c>
       <c r="BQ70" t="n">
+        <v>0.01859427296392711</v>
+      </c>
+      <c r="BR70" t="n">
         <v>1.152844923763481</v>
       </c>
-      <c r="BR70" t="n">
+      <c r="BS70" t="n">
         <v>0.669393826701376</v>
       </c>
-      <c r="BS70" t="n">
+      <c r="BT70" t="n">
         <v>0.05578281889178133</v>
       </c>
-      <c r="BT70" t="n">
+      <c r="BU70" t="n">
         <v>0.167348456675344</v>
       </c>
-      <c r="BU70" t="n">
+      <c r="BV70" t="n">
         <v>0.1487541837114169</v>
       </c>
-      <c r="BV70" t="n">
+      <c r="BW70" t="n">
         <v>0.4648568240981777</v>
       </c>
-      <c r="BW70" t="n">
+      <c r="BX70" t="n">
         <v>17.94347341018966</v>
-      </c>
-      <c r="BX70" t="n">
-        <v>0.01859427296392711</v>
       </c>
       <c r="BY70" t="n">
         <v>0.01859427296392711</v>
@@ -25207,7 +25427,7 @@
         <v>0.01859427296392711</v>
       </c>
       <c r="CA70" t="n">
-        <v>0</v>
+        <v>0.01859427296392711</v>
       </c>
       <c r="CB70" t="n">
         <v>0</v>
@@ -25216,11 +25436,11 @@
         <v>0</v>
       </c>
       <c r="CD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE70" t="n">
         <v>0.1487541837114169</v>
       </c>
-      <c r="CE70" t="n">
-        <v>0</v>
-      </c>
       <c r="CF70" t="n">
         <v>0</v>
       </c>
@@ -25231,6 +25451,9 @@
         <v>0</v>
       </c>
       <c r="CI70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25400,102 +25623,105 @@
         <v>0.9332751853467073</v>
       </c>
       <c r="BC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD71" t="n">
         <v>1.892716964675098</v>
       </c>
-      <c r="BD71" t="n">
-        <v>0</v>
-      </c>
       <c r="BE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF71" t="n">
         <v>1.072830353249019</v>
       </c>
-      <c r="BF71" t="n">
+      <c r="BG71" t="n">
         <v>0.2224160488443088</v>
       </c>
-      <c r="BG71" t="n">
+      <c r="BH71" t="n">
         <v>0.01744439598778892</v>
       </c>
-      <c r="BH71" t="n">
+      <c r="BI71" t="n">
         <v>0.07849978194505015</v>
       </c>
-      <c r="BI71" t="n">
+      <c r="BJ71" t="n">
         <v>3.279546445704318</v>
       </c>
-      <c r="BJ71" t="n">
+      <c r="BK71" t="n">
         <v>0.1526384648931531</v>
       </c>
-      <c r="BK71" t="n">
+      <c r="BL71" t="n">
         <v>0.1351940689053641</v>
       </c>
-      <c r="BL71" t="n">
+      <c r="BM71" t="n">
         <v>3.270824247710423</v>
       </c>
-      <c r="BM71" t="n">
+      <c r="BN71" t="n">
         <v>16.35412123855212</v>
       </c>
-      <c r="BN71" t="n">
+      <c r="BO71" t="n">
         <v>0.4186655037069342</v>
       </c>
-      <c r="BO71" t="n">
-        <v>0</v>
-      </c>
       <c r="BP71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ71" t="n">
         <v>0.008722197993894461</v>
       </c>
-      <c r="BQ71" t="n">
+      <c r="BR71" t="n">
         <v>0.1221107719145225</v>
       </c>
-      <c r="BR71" t="n">
+      <c r="BS71" t="n">
         <v>0.5102485826428259</v>
       </c>
-      <c r="BS71" t="n">
+      <c r="BT71" t="n">
         <v>0.5800261665939817</v>
       </c>
-      <c r="BT71" t="n">
+      <c r="BU71" t="n">
         <v>0.09594417793283908</v>
       </c>
-      <c r="BU71" t="n">
+      <c r="BV71" t="n">
         <v>0.02180549498473616</v>
       </c>
-      <c r="BV71" t="n">
+      <c r="BW71" t="n">
         <v>0.1177496729175752</v>
       </c>
-      <c r="BW71" t="n">
+      <c r="BX71" t="n">
         <v>1.330135194068905</v>
       </c>
-      <c r="BX71" t="n">
+      <c r="BY71" t="n">
         <v>0.00436109899694723</v>
       </c>
-      <c r="BY71" t="n">
+      <c r="BZ71" t="n">
         <v>0.008722197993894461</v>
       </c>
-      <c r="BZ71" t="n">
+      <c r="CA71" t="n">
         <v>0.02616659398168339</v>
       </c>
-      <c r="CA71" t="n">
-        <v>0</v>
-      </c>
       <c r="CB71" t="n">
         <v>0</v>
       </c>
       <c r="CC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD71" t="n">
         <v>0.01308329699084169</v>
       </c>
-      <c r="CD71" t="n">
+      <c r="CE71" t="n">
         <v>0.9507195813344962</v>
       </c>
-      <c r="CE71" t="n">
-        <v>0</v>
-      </c>
       <c r="CF71" t="n">
         <v>0</v>
       </c>
       <c r="CG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH71" t="n">
         <v>0.1439162668992586</v>
       </c>
-      <c r="CH71" t="n">
+      <c r="CI71" t="n">
         <v>0.01308329699084169</v>
       </c>
-      <c r="CI71" t="n">
+      <c r="CJ71" t="n">
         <v>0.00436109899694723</v>
       </c>
     </row>
@@ -25665,80 +25891,80 @@
         <v>0.5085529357374018</v>
       </c>
       <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
         <v>1.06333795654184</v>
       </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
       <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
         <v>1.132686084142395</v>
       </c>
-      <c r="BF72" t="n">
+      <c r="BG72" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="BG72" t="n">
+      <c r="BH72" t="n">
         <v>0.04623208506703652</v>
       </c>
-      <c r="BH72" t="n">
+      <c r="BI72" t="n">
         <v>0.09246417013407304</v>
       </c>
-      <c r="BI72" t="n">
+      <c r="BJ72" t="n">
         <v>3.005085529357374</v>
       </c>
-      <c r="BJ72" t="n">
+      <c r="BK72" t="n">
         <v>0.2773925104022191</v>
       </c>
-      <c r="BK72" t="n">
+      <c r="BL72" t="n">
         <v>0.1386962552011096</v>
       </c>
-      <c r="BL72" t="n">
+      <c r="BM72" t="n">
         <v>3.675450762829403</v>
       </c>
-      <c r="BM72" t="n">
+      <c r="BN72" t="n">
         <v>12.32085067036523</v>
       </c>
-      <c r="BN72" t="n">
+      <c r="BO72" t="n">
         <v>0.3929727230698105</v>
       </c>
-      <c r="BO72" t="n">
-        <v>0</v>
-      </c>
       <c r="BP72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ72" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="BQ72" t="n">
+      <c r="BR72" t="n">
         <v>0.1618122977346279</v>
       </c>
-      <c r="BR72" t="n">
+      <c r="BS72" t="n">
         <v>0.6934812760055479</v>
       </c>
-      <c r="BS72" t="n">
+      <c r="BT72" t="n">
         <v>0.53166897827092</v>
       </c>
-      <c r="BT72" t="n">
+      <c r="BU72" t="n">
         <v>0.1386962552011096</v>
       </c>
-      <c r="BU72" t="n">
+      <c r="BV72" t="n">
         <v>0.06934812760055478</v>
       </c>
-      <c r="BV72" t="n">
+      <c r="BW72" t="n">
         <v>0.2080443828016643</v>
       </c>
-      <c r="BW72" t="n">
+      <c r="BX72" t="n">
         <v>1.895515487748498</v>
       </c>
-      <c r="BX72" t="n">
+      <c r="BY72" t="n">
         <v>0.04623208506703652</v>
       </c>
-      <c r="BY72" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA72" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="CA72" t="n">
-        <v>0</v>
-      </c>
       <c r="CB72" t="n">
         <v>0</v>
       </c>
@@ -25746,21 +25972,24 @@
         <v>0</v>
       </c>
       <c r="CD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE72" t="n">
         <v>0.6934812760055479</v>
       </c>
-      <c r="CE72" t="n">
-        <v>0</v>
-      </c>
       <c r="CF72" t="n">
         <v>0</v>
       </c>
       <c r="CG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH72" t="n">
         <v>0.1155802126675913</v>
       </c>
-      <c r="CH72" t="n">
+      <c r="CI72" t="n">
         <v>0.02311604253351826</v>
       </c>
-      <c r="CI72" t="n">
+      <c r="CJ72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25951,17 +26180,17 @@
         <v>0</v>
       </c>
       <c r="BJ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK73" t="n">
         <v>6.99</v>
       </c>
-      <c r="BK73" t="n">
+      <c r="BL73" t="n">
         <v>1.82</v>
       </c>
-      <c r="BL73" t="n">
+      <c r="BM73" t="n">
         <v>2.85</v>
       </c>
-      <c r="BM73" t="n">
-        <v>0</v>
-      </c>
       <c r="BN73" t="n">
         <v>0</v>
       </c>
@@ -25978,11 +26207,11 @@
         <v>0</v>
       </c>
       <c r="BS73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT73" t="n">
         <v>1.12</v>
       </c>
-      <c r="BT73" t="n">
-        <v>0</v>
-      </c>
       <c r="BU73" t="n">
         <v>0</v>
       </c>
@@ -25999,11 +26228,11 @@
         <v>0</v>
       </c>
       <c r="BZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA73" t="n">
         <v>48.76</v>
       </c>
-      <c r="CA73" t="n">
-        <v>0</v>
-      </c>
       <c r="CB73" t="n">
         <v>0</v>
       </c>
@@ -26011,11 +26240,11 @@
         <v>0</v>
       </c>
       <c r="CD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE73" t="n">
         <v>2.2</v>
       </c>
-      <c r="CE73" t="n">
-        <v>0</v>
-      </c>
       <c r="CF73" t="n">
         <v>0</v>
       </c>
@@ -26026,6 +26255,9 @@
         <v>0</v>
       </c>
       <c r="CI73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26195,53 +26427,53 @@
         <v>0</v>
       </c>
       <c r="BC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD74" t="n">
         <v>0.1088731627653783</v>
       </c>
-      <c r="BD74" t="n">
-        <v>0</v>
-      </c>
       <c r="BE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF74" t="n">
         <v>0.1088731627653783</v>
       </c>
-      <c r="BF74" t="n">
-        <v>0</v>
-      </c>
       <c r="BG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH74" t="n">
         <v>0.05443658138268917</v>
       </c>
-      <c r="BH74" t="n">
-        <v>0</v>
-      </c>
       <c r="BI74" t="n">
         <v>0</v>
       </c>
       <c r="BJ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK74" t="n">
         <v>1.524224278715297</v>
       </c>
-      <c r="BK74" t="n">
+      <c r="BL74" t="n">
         <v>4.300489929232445</v>
       </c>
-      <c r="BL74" t="n">
+      <c r="BM74" t="n">
         <v>0.4354926510615134</v>
       </c>
-      <c r="BM74" t="n">
-        <v>0</v>
-      </c>
       <c r="BN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO74" t="n">
         <v>0.1088731627653783</v>
       </c>
-      <c r="BO74" t="n">
-        <v>0</v>
-      </c>
       <c r="BP74" t="n">
         <v>0</v>
       </c>
       <c r="BQ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR74" t="n">
         <v>1.30647795318454</v>
       </c>
-      <c r="BR74" t="n">
-        <v>0</v>
-      </c>
       <c r="BS74" t="n">
         <v>0</v>
       </c>
@@ -26249,48 +26481,51 @@
         <v>0</v>
       </c>
       <c r="BU74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV74" t="n">
         <v>3.320631464344039</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>0.05443658138268917</v>
       </c>
       <c r="BW74" t="n">
         <v>0.05443658138268917</v>
       </c>
       <c r="BX74" t="n">
-        <v>0</v>
+        <v>0.05443658138268917</v>
       </c>
       <c r="BY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ74" t="n">
         <v>1.633097441480675</v>
       </c>
-      <c r="BZ74" t="n">
-        <v>0</v>
-      </c>
       <c r="CA74" t="n">
         <v>0</v>
       </c>
       <c r="CB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC74" t="n">
         <v>1.088731627653783</v>
       </c>
-      <c r="CC74" t="n">
-        <v>0</v>
-      </c>
       <c r="CD74" t="n">
         <v>0</v>
       </c>
       <c r="CE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF74" t="n">
         <v>0.7621121393576483</v>
       </c>
-      <c r="CF74" t="n">
-        <v>0</v>
-      </c>
       <c r="CG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH74" t="n">
         <v>2.558519324986391</v>
       </c>
-      <c r="CH74" t="n">
-        <v>0</v>
-      </c>
       <c r="CI74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26484,17 +26719,17 @@
         <v>0</v>
       </c>
       <c r="BK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL75" t="n">
         <v>8.43</v>
       </c>
-      <c r="BL75" t="n">
+      <c r="BM75" t="n">
         <v>1.52</v>
       </c>
-      <c r="BM75" t="n">
+      <c r="BN75" t="n">
         <v>0.28</v>
       </c>
-      <c r="BN75" t="n">
-        <v>0</v>
-      </c>
       <c r="BO75" t="n">
         <v>0</v>
       </c>
@@ -26508,11 +26743,11 @@
         <v>0</v>
       </c>
       <c r="BS75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT75" t="n">
         <v>2.79</v>
       </c>
-      <c r="BT75" t="n">
-        <v>0</v>
-      </c>
       <c r="BU75" t="n">
         <v>0</v>
       </c>
@@ -26538,14 +26773,14 @@
         <v>0</v>
       </c>
       <c r="CC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD75" t="n">
         <v>0.54</v>
       </c>
-      <c r="CD75" t="n">
+      <c r="CE75" t="n">
         <v>2.63</v>
       </c>
-      <c r="CE75" t="n">
-        <v>0</v>
-      </c>
       <c r="CF75" t="n">
         <v>0</v>
       </c>
@@ -26556,6 +26791,9 @@
         <v>0</v>
       </c>
       <c r="CI75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26731,38 +26969,38 @@
         <v>0</v>
       </c>
       <c r="BE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF76" t="n">
         <v>0.06351377760406489</v>
       </c>
-      <c r="BF76" t="n">
-        <v>0</v>
-      </c>
       <c r="BG76" t="n">
         <v>0</v>
       </c>
       <c r="BH76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI76" t="n">
         <v>0.004885675200312683</v>
       </c>
-      <c r="BI76" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK76" t="n">
         <v>0.107484854406879</v>
       </c>
-      <c r="BK76" t="n">
-        <v>0</v>
-      </c>
       <c r="BL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM76" t="n">
         <v>12.27281610318546</v>
       </c>
-      <c r="BM76" t="n">
+      <c r="BN76" t="n">
         <v>1.651358217705687</v>
       </c>
-      <c r="BN76" t="n">
+      <c r="BO76" t="n">
         <v>0.004885675200312683</v>
       </c>
-      <c r="BO76" t="n">
-        <v>0</v>
-      </c>
       <c r="BP76" t="n">
         <v>0</v>
       </c>
@@ -26773,23 +27011,23 @@
         <v>0</v>
       </c>
       <c r="BS76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT76" t="n">
         <v>0.004885675200312683</v>
       </c>
-      <c r="BT76" t="n">
-        <v>0</v>
-      </c>
       <c r="BU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV76" t="n">
         <v>0.009771350400625366</v>
       </c>
-      <c r="BV76" t="n">
+      <c r="BW76" t="n">
         <v>0.08794215360562829</v>
       </c>
-      <c r="BW76" t="n">
+      <c r="BX76" t="n">
         <v>0.01954270080125073</v>
       </c>
-      <c r="BX76" t="n">
-        <v>0</v>
-      </c>
       <c r="BY76" t="n">
         <v>0</v>
       </c>
@@ -26806,11 +27044,11 @@
         <v>0</v>
       </c>
       <c r="CD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE76" t="n">
         <v>0.1514559312096932</v>
       </c>
-      <c r="CE76" t="n">
-        <v>0</v>
-      </c>
       <c r="CF76" t="n">
         <v>0</v>
       </c>
@@ -26821,6 +27059,9 @@
         <v>0</v>
       </c>
       <c r="CI76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ76" t="n">
         <v>0.004885675200312683</v>
       </c>
     </row>
@@ -26996,11 +27237,11 @@
         <v>0</v>
       </c>
       <c r="BE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF77" t="n">
         <v>0.005292965648652941</v>
       </c>
-      <c r="BF77" t="n">
-        <v>0</v>
-      </c>
       <c r="BG77" t="n">
         <v>0</v>
       </c>
@@ -27011,22 +27252,22 @@
         <v>0</v>
       </c>
       <c r="BJ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK77" t="n">
         <v>0.005292965648652941</v>
       </c>
-      <c r="BK77" t="n">
-        <v>0</v>
-      </c>
       <c r="BL77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM77" t="n">
         <v>20.89133541523315</v>
-      </c>
-      <c r="BM77" t="n">
-        <v>0.005292965648652941</v>
       </c>
       <c r="BN77" t="n">
         <v>0.005292965648652941</v>
       </c>
       <c r="BO77" t="n">
-        <v>0</v>
+        <v>0.005292965648652941</v>
       </c>
       <c r="BP77" t="n">
         <v>0</v>
@@ -27044,17 +27285,17 @@
         <v>0</v>
       </c>
       <c r="BU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV77" t="n">
         <v>12.29555920182078</v>
       </c>
-      <c r="BV77" t="n">
+      <c r="BW77" t="n">
         <v>0.01058593129730588</v>
       </c>
-      <c r="BW77" t="n">
+      <c r="BX77" t="n">
         <v>0.04234372518922352</v>
       </c>
-      <c r="BX77" t="n">
-        <v>0</v>
-      </c>
       <c r="BY77" t="n">
         <v>0</v>
       </c>
@@ -27086,6 +27327,9 @@
         <v>0</v>
       </c>
       <c r="CI77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ77" t="n">
         <v>0.005292965648652941</v>
       </c>
     </row>
@@ -27261,20 +27505,20 @@
         <v>0</v>
       </c>
       <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
         <v>1.41</v>
       </c>
-      <c r="BF78" t="n">
+      <c r="BG78" t="n">
         <v>1.54</v>
       </c>
-      <c r="BG78" t="n">
-        <v>0</v>
-      </c>
       <c r="BH78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI78" t="n">
         <v>2.82</v>
       </c>
-      <c r="BI78" t="n">
-        <v>0</v>
-      </c>
       <c r="BJ78" t="n">
         <v>0</v>
       </c>
@@ -27297,11 +27541,11 @@
         <v>0</v>
       </c>
       <c r="BQ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR78" t="n">
         <v>1.75</v>
       </c>
-      <c r="BR78" t="n">
-        <v>0</v>
-      </c>
       <c r="BS78" t="n">
         <v>0</v>
       </c>
@@ -27327,11 +27571,11 @@
         <v>0</v>
       </c>
       <c r="CA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB78" t="n">
         <v>1.63</v>
       </c>
-      <c r="CB78" t="n">
-        <v>0</v>
-      </c>
       <c r="CC78" t="n">
         <v>0</v>
       </c>
@@ -27351,6 +27595,9 @@
         <v>0</v>
       </c>
       <c r="CI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27544,14 +27791,14 @@
         <v>0</v>
       </c>
       <c r="BK79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL79" t="n">
         <v>0.84</v>
       </c>
-      <c r="BL79" t="n">
+      <c r="BM79" t="n">
         <v>0.46</v>
       </c>
-      <c r="BM79" t="n">
-        <v>0</v>
-      </c>
       <c r="BN79" t="n">
         <v>0</v>
       </c>
@@ -27616,6 +27863,9 @@
         <v>0</v>
       </c>
       <c r="CI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27904,145 +28154,150 @@
       </c>
       <c r="BG80" t="inlineStr">
         <is>
+          <t>core</t>
+        </is>
+      </c>
+      <c r="BH80" t="inlineStr">
+        <is>
           <t>core-us</t>
         </is>
       </c>
-      <c r="BH80" t="inlineStr">
+      <c r="BI80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BI80" t="inlineStr">
+      <c r="BJ80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BJ80" t="inlineStr">
+      <c r="BK80" t="inlineStr">
         <is>
           <t>core-us</t>
         </is>
       </c>
-      <c r="BK80" t="inlineStr">
+      <c r="BL80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BL80" t="inlineStr">
+      <c r="BM80" t="inlineStr">
         <is>
           <t>core-us</t>
         </is>
       </c>
-      <c r="BM80" t="inlineStr">
+      <c r="BN80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BN80" t="inlineStr">
+      <c r="BO80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BO80" t="inlineStr">
+      <c r="BP80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BP80" t="inlineStr">
+      <c r="BQ80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BQ80" t="inlineStr">
+      <c r="BR80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BR80" t="inlineStr">
+      <c r="BS80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BS80" t="inlineStr">
+      <c r="BT80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BT80" t="inlineStr">
+      <c r="BU80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BU80" t="inlineStr">
+      <c r="BV80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BV80" t="inlineStr">
+      <c r="BW80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BW80" t="inlineStr">
+      <c r="BX80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BX80" t="inlineStr">
+      <c r="BY80" t="inlineStr">
         <is>
           <t>core-us</t>
         </is>
       </c>
-      <c r="BY80" t="inlineStr">
+      <c r="BZ80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="BZ80" t="inlineStr">
+      <c r="CA80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="CA80" t="inlineStr">
+      <c r="CB80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="CB80" t="inlineStr">
+      <c r="CC80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="CC80" t="inlineStr">
+      <c r="CD80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="CD80" t="inlineStr">
+      <c r="CE80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="CE80" t="inlineStr">
+      <c r="CF80" t="inlineStr">
         <is>
           <t>core</t>
         </is>
       </c>
-      <c r="CF80" t="inlineStr">
+      <c r="CG80" t="inlineStr">
         <is>
           <t>us</t>
         </is>
       </c>
-      <c r="CG80" t="inlineStr">
+      <c r="CH80" t="inlineStr">
         <is>
           <t>us</t>
         </is>
       </c>
-      <c r="CH80" t="inlineStr">
+      <c r="CI80" t="inlineStr">
         <is>
           <t>us</t>
         </is>
       </c>
-      <c r="CI80" t="inlineStr">
+      <c r="CJ80" t="inlineStr">
         <is>
           <t>us</t>
         </is>
